--- a/results/sterilization_CONSQ/data_sterilization_CONSQ_recipe.xlsx
+++ b/results/sterilization_CONSQ/data_sterilization_CONSQ_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00032945167434121126], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106493879506], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.6389205565059745e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137785134552408e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645876168606], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.119401763626807e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002800339231900296], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9563585966822046e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1311259069863385e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.571271186235749e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047214847924e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.6106467886468748e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.795519946435094e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2223661301829322e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8473084318180069e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00032945167434121126], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106493879506], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.6389205565059745e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137785134552408e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645876168606], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.119401763626807e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2315389545453379e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4815774201219547e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.187139987457038e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018051285361784334], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047214847924e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373132143228827], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0004495514250192397], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013990395045737237], ["'market for corrugated board box' (kilogram, RER, None)", 6.073300277579488e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000869946881425291], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1471211673506737e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007967162321744504], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.916001936363864e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00014673757434522885], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00010212956779781674], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8854838557271484e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.873379044362176e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00013643591960280126], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.702373907636779e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.255722580665315e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373132143228827], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0004495514250192397], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013990395045737237], ["'market for corrugated board box' (kilogram, RER, None)", 6.073300277579488e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000869946881425291], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121167693992e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5038150537768766e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.468249271757853e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00014757778562705476], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0005135717806870642], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8854838557271484e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000679931729315456], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.931092162457054e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.0191182576097975e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599291752337213], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00021710653769118062], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.495551294782362e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.9070991109173236e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0006459351428496831], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013023674787e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3335979893586764e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.281861640772237e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.176104360910732e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000679931729315456], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.931092162457054e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.0191182576097975e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599291752337213], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.495551294782362e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.9070991109173236e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0006459351428496831], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013023674787e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.561969437086256e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.201079360390798e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.176104360910732e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414384711588], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2125415617725227e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.628021238441619e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004062782484553922], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.54399365597569e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.0095591288048987e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732861168224808], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00010855326884559031], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617817799579e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.52965713580112e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0003859643360326226], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.7525065118373934e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.667989946793382e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.6409308203861187e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978112983994167e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004062782484553922], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.54399365597569e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.0095591288048987e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732861168224808], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617817799579e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.52965713580112e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0003859643360326226], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.7525065118373934e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.561969437086256e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.201079360390798e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978112983994167e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414384711588], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2125415617725227e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.628021238441619e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723802279793], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0428194429570467], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.019762772960808563], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907747300072], ["'autoclave - CONSQ' (unit, GLO, None)", 0.051298370635184734], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.868353285656614e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12895965231937825], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013474044681675242], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004871826566004556], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.021457939252991373], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0037655713267015353], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011984325477235047], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.04262453740912921], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00331820978182999], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02735364943824504]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723802279793], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0428194429570467], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.019762772960808563], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907747300072], ["'autoclave - CONSQ' (unit, GLO, None)", 0.051298370635184734], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.868353285656614e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.1823576629216336], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02212139854553327], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004925009997916821], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.10846092736515336], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0037655713267015353]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.431646226487397], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433066652722], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.059602012483950986], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055108735355], ["'autoclave - CONSQ' (unit, GLO, None)", 0.07694755595277711], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698208326293968], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36689929251428743], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0406360069469555], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.01393222512729228], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0613644259272768], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315606418484], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0036143203088068623], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.12126981065695915], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.010007299139305995], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07782305896514785]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.431646226487397], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433066652722], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.059602012483950986], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055108735355], ["'autoclave - CONSQ' (unit, GLO, None)", 0.07694755595277711], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698208329123858], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5188203931009857], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06671532759537331], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.014012000282259397], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.30857897643021953], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315606418484]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469281094333], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020296080903063552], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135462645174], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259674127036947], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.019948628729674508], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0016833828931314004], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0035936628524309458], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.14809045817039615], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007574698738905852], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00012662051625125242], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0005576995216997049], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0011792340598205833]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469281094333], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020296080903063552], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135462645174], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259674127036947], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0016833828931314004], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0035936628524309458], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.14809045817039615], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007574698738905852], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0043314321846277095], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.019233646194107844], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0011792340598205833], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0471011151994951], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03303540741225509], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.001203580460819495]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.09314546920762044], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012127476692560571], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067731322587], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839782751357965], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.009974314364837254], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684185686652], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0021473141879917628], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.08848819574723943], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003787349369452926], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.331025812562621e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0002788497608498524], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253736899224]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.09314546920762044], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012127476692560571], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067731322587], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839782751357965], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684185686652], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0021473141879917628], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.08848819574723943], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003787349369452926], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0043314321846277095], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.019233646194107844], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253736899224], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0471011151994951], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03303540741225509], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.001203580460819495]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0025758802488577075], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865277715374], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.000475734170346533], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014282642096359464], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02242292653159976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.499572898779799e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021894982115290514], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002356631130229541], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0023834238601437917], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009652243676189942], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001290871824283789], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00029081032608370454], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.005306853767888106], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00017302760908748793], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0014268614461616046]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0025758802488577075], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865277715374], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.000475734170346533], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014282642096359464], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02242292653159976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.499572898779799e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009512409641077364], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0011535173939165864], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0024094425738370386], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00487880633797607], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001290871824283789]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.007328560708017702], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0076287335015471905], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0014347538180125932], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004307463488601593], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03363438979739964], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633632558353343e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006229276601815047], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007107300090050821], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.006816005730786156], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0027603041704809214], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003672621246853244], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0008770469974064645], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01509837269173799], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.000521829286677122], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.004059521297530198]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.007328560708017702], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0076287335015471905], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0014347538180125932], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004307463488601593], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03363438979739964], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.563363256245208e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02706347531686799], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0034788619111808133], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.006855033804798904], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013880547608683031], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003672621246853244]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00372399561723227], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00141429619490578], ["'market for polysulfone' (kilogram, GLO, None)", 5.252520840447269e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484585306319952], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.013109487251045332], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.6323515343237414e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0015378492442043024], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.003537795836370656], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.7775050210860314e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.194603923769432e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5086526800516035e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.042520749146415e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00372399561723227], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00141429619490578], ["'market for polysulfone' (kilogram, GLO, None)", 5.252520840447269e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484585306319952], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.6323515343237414e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0015378492442043024], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.003537795836370656], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.7775050210860314e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0021190489188335315], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651708705964002], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.042520749146415e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001592980604630474], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269391024409], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.354023417694418e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225191664680696], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008450815811198309], ["'market for polysulfone' (kilogram, GLO, None)", 2.6262604202236346e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.029897235375466347], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.006554743625522666], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597619153427e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0009189079879428566], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0021139320814466613], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8887525105430157e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.097301961884716e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2543263400258017e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.415519353257098e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225191664680696], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008450815811198309], ["'market for polysulfone' (kilogram, GLO, None)", 2.6262604202236346e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.029897235375466347], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597619153427e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0009189079879428566], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0021139320814466613], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8887525105430157e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0021190489188335315], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651708705964002], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.415519353257098e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001592980604630474], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269391024409], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.354023417694418e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0034951470989132223], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0034931977753790127], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924458413443], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020000115831312384], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02650207665811702], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.335944136809835e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029708750340762392], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031939364172133694], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00294257473952099], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.001237301279484637], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294153519246792], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00037459701372972044], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.006952512272646921], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002505215610249438], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0020657565124022103]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0034951470989132223], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0034931977753790127], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924458413443], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020000115831312384], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02650207665811702], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.335944136809835e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013771710082681401], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001670143740166292], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0029746974395362356], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006254041575044834], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294153519246792]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943939633527759], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.009938393670796627], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200361062314], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031780963911412], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03975311498717553], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.0290378739367095e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008452348688498595], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009632506459959272], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008415039650828886], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.003538377186153847], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358014241635844], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011297370026486452], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.019780387029220817], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0007555412004842809], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00587722275359502]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943939633527759], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.009938393670796627], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200361062314], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031780963911412], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03975311498717553], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.029037874580941e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0391814850239668], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005036941336561873], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008463223705139368], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.017793188705478517], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358014241635844]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214792076170004], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001843975100474696], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643752080428e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05300415331623404], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.015919765790312825], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661671946655e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.002115977079761717], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.004954052472361503], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.029642187611639e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.64785707327854e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.215790312533477e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.1027106217829506e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214792076170004], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001843975100474696], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643752080428e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05300415331623404], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661671946655e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.002115977079761717], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.004954052472361503], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.029642187611639e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026161774767131138], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090447579586136], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.1027106217829506e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0016572146835894027], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0024941406294839174], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.1260679625869256e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0031159842958033974], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00110182675953432], ["'market for polysulfone' (kilogram, GLO, None)", 3.364821876040214e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03533610221082269], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.007959882895156412], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.677844575705471e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0012643555590542202], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0029601850810132275], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.5148210938058196e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.82392853663927e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.6078951562667384e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.0490124914237904e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0031159842958033974], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00110182675953432], ["'market for polysulfone' (kilogram, GLO, None)", 3.364821876040214e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03533610221082269], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.677844575705471e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0012643555590542202], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0029601850810132275], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.5148210938058196e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026161774767131138], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090447579586136], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.0490124914237904e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0016572146835894027], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0024941406294839174], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.1260679625869256e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4246844026858482], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.2641046480314132], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.05097297810758316], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805774072609034], ["'autoclave - CONSQ' (unit, GLO, None)", 2.0531719639380515], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206379666086416], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3609817422829709], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.039303841369494295], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.14936433445928196], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.09709528824391044], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.023218344603136695], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.009089079578959115], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10534581116267056], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00963342719695504], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07941892476713337]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4246844026858482], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.2641046480314132], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.05097297810758316], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805774072609034], ["'autoclave - CONSQ' (unit, GLO, None)", 2.0531719639380515], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206379666086416], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5294594984475558], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06422284797970028], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.15099487442293072], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.4907761589572635], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.023218344603136695]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082570329935398], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.751396322568246], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.15372802609922978], ["'market for corrugated board box' (kilogram, RER, None)", 0.04465233449664287], ["'autoclave - CONSQ' (unit, GLO, None)", 3.0797579459070774], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919384346499735], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0270184780445089], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.1185353922052032], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.4271452412111483], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.27766863132024294], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605782549599883], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.027411509286021832], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.2997162514768937], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.029053192545134412], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.22595243384452027]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082570329935398], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.751396322568246], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.15372802609922978], ["'market for corrugated board box' (kilogram, RER, None)", 0.04465233449664287], ["'autoclave - CONSQ' (unit, GLO, None)", 3.0797579459070774], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.001091938434824571], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5063495589634686], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.19368795030089608], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.42959105137425957], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.3962927338572915], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605782549599883]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322460289978142], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.06762233247825777], ["'market for polysulfone' (kilogram, GLO, None)", 0.00838873650596297], ["'autoclave - CONSQ' (unit, GLO, None)", 4.106343927876103], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.8847547241544331], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.032035708146819754], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.4736621572033548], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.12563372754792348], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003957377086155294], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0038820325154286964], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0025235412951117838], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271104539839829]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322460289978142], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.06762233247825777], ["'market for polysulfone' (kilogram, GLO, None)", 0.00838873650596297], ["'autoclave - CONSQ' (unit, GLO, None)", 4.106343927876103], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.032035708146819754], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.4736621572033548], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.12563372754792348], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003957377086155294], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.13279649362456933], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703055774276884], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271104539839829], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.1247844087274712], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840035803791], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486260831158596]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902070562364565], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04040623729002116], ["'market for polysulfone' (kilogram, GLO, None)", 0.004194368252981485], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375626185840685], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.44237736207721656], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.01914223271654311], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.28302640293302045], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.07506967034246337], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0001978688543077647], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0019410162577143482], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012617706475558919], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.004344688580571222]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902070562364565], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04040623729002116], ["'market for polysulfone' (kilogram, GLO, None)", 0.004194368252981485], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375626185840685], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.01914223271654311], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.28302640293302045], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.07506967034246337], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0001978688543077647], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.13279649362456933], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703055774276884], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.004344688580571222], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.1247844087274712], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840035803791], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486260831158596]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236425075417], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059920687364], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324868892863], ["'market for corrugated board box' (kilogram, RER, None)", 0.001007804402263288], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280172590909207], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.676424575844637e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.09993650961314104], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010051799370474717], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0012009634386325257], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006543975173955075], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178807978755358], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003530771659381946], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014280960388801911], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2034796731053164e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00010113104824199368]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236425075417], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059920687364], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324868892863], ["'market for corrugated board box' (kilogram, RER, None)", 0.001007804402263288], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280172590909207], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.676424575844637e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006742069882799579], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.02319782070211e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0012140737898329], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.033077063349536806], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178807978755358]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3345016560373569], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.03284935357716687], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367737659816], ["'market for corrugated board box' (kilogram, RER, None)", 0.0030394101015158628], ["'autoclave - CONSQ' (unit, GLO, None)", 0.019920258886363812], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055883642713856e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2843264076317534], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030314949868284737], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0034344599032796862], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018714158666290538], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269284673848607], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0010648358757032101], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.04063033800757727], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.629541797745249e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00028772495415327776]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.3345016560373569], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.03284935357716687], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367737659816], ["'market for corrugated board box' (kilogram, RER, None)", 0.0030394101015158628], ["'autoclave - CONSQ' (unit, GLO, None)", 0.019920258886363812], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055883643522276e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0019181663610218517], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002419694531830166], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.003454125431830167], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.09410657459487014], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269284673848607]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.033832419876072294], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0061492962410460515], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011275973984056463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560345181818414], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.004985825552864389], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426940706292], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0009712496058802911], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.03214079888226868], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235459066498e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.121346963778339e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00017008025707877398], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00025612923247238]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.033832419876072294], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0061492962410460515], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011275973984056463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560345181818414], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426940706292], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0009712496058802911], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.03214079888226868], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235459066498e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001067749769039956], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0058656379680696], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00025612923247238], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.02773388714694454], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00011981593668702736], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.4113495249161244e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215818288251773], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0036743767033210668], ["'market for polysulfone' (kilogram, GLO, None)", 0.0005637986992028231], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706896787878942], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0024929127764321945], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0003197029925559145], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0005803488375035962], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.019205027373839185], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117729533249e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5606734818891694e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.504012853938699e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00015304438897501186]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215818288251773], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0036743767033210668], ["'market for polysulfone' (kilogram, GLO, None)", 0.0005637986992028231], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706896787878942], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0003197029925559145], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0005803488375035962], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.019205027373839185], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117729533249e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001067749769039956], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0058656379680696], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00015304438897501186], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.02773388714694454], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00011981593668702736], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.4113495249161244e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768423817874e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.197979568967005e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.664797286042785e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.9703773814705355e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291684985786057e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.455893143253661e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.369153160245193e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5845249743503786e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9634541286137223e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.7580852230627253e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.5907666980418466e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 4.040932769956014e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 7.744093293170951e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.129433951434896e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.5823794249505275e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768423817874e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.197979568967005e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.664797286042785e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.9703773814705355e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291684985786057e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.455893143253661e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.054919616633685e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.419622634289931e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9848882309051806e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.8995552350342294e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.5907666980418466e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.582749600157895e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406661004718e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.4068435974505448e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.1021773051438263e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7437527478679088e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0422534879113126e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.895337160134211e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.778726016316056e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.614995644106492e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0747198954199538e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.525843282121774e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.218693985299273e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.2032490777753972e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5469721127460468e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.3037192166760654e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.582749600157895e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406661004718e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.4068435974505448e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.1021773051438263e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7437527478679088e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0422534880779657e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.691461444507103e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.031314741830698e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.64714680040462e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.4043684148680034e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.525843282121774e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.118351569045532e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2403929265924136e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126690801515723e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583369971572115e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 5.482649502918252e-06], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.67324866553919e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9829705683040315e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -4.862433990593255e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.6405527281069485e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1030875593055755e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.767398009185021e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677702550545e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.118351569045532e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2403929265924136e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126690801515723e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583369971572115e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.67324866553919e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9829705683040315e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -4.862433990593255e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.6405527281069485e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.7456632108093146e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.3685285756234387e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677702550545e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.8922751327564606e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067579062602874e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.1055382117494774e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358392164325e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.411695084737211e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563345400757861e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891331438141e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.741324751459126e-06], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129337926323e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7824084469549388e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -2.9054404725561093e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8202763640534743e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5515437796527877e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.8836990045925107e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.976691932809759e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358392164325e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.411695084737211e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563345400757861e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891331438141e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129337926323e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7824084469549388e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -2.9054404725561093e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8202763640534743e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.7456632108093146e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.3685285756234387e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.976691932809759e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.8922751327564606e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067579062602874e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.1055382117494774e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008870914808e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.6100636925259213e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219449180855e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.018338724568868e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00013305167364051075], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299125260539507e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6061607540277589e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7599960457555686e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0976802972035443e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.3103472307780554e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152233790114e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.471378183713075e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 5.782134473822329e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.156519305361504e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.266188768926092e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008870914808e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.6100636925259213e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219449180855e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.018338724568868e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00013305167364051075], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299125260539507e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8441258459507277e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.4376795369076695e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1205796832446036e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.6732423664625777e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152233790114e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047594260269e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.425815012538536e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788418052186e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.2118799325879756e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751046076612], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010847301811192e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.569640455121229e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.307924474913158e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.998849456107225e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.466778474933335e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.21265457937135e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.453362625292452e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6450579770593103e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5551407113838358e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2137607483423528e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047594260269e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.425815012538536e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788418052186e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.2118799325879756e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751046076612], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010847302452514e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.091738322282352e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0367604742558905e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.033198538225335e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.7604923662914175e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.21265457937135e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.6923483381604776e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.0619203784457677e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756890674376e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0002661033472810215], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.1400863819139712e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.552517749301378e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 6.292610223897985e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -3.5077309212524537e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.8499220686817104e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.451946175904675e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.60371094119625e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.4355089857050924e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.6923483381604776e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.0619203784457677e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756890674376e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0002661033472810215], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.552517749301378e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 6.292610223897985e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -3.5077309212524537e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.8499220686817104e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.8650006992794812e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.9672023331669077e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.4355089857050924e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126530313e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1337235220803083e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638195952188e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.206281529213696e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2320551662632687e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.231378445337188e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000177402231520681], ["'cabinet washer - CONSQ' (unit, GLO, None)", 5.700431909569856e-06], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568397718136e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.760010821309457e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -2.0959674527530115e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610343408552e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.7259730879523373e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.301855470598125e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848222843198e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.206281529213696e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2320551662632687e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.231378445337188e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000177402231520681], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568397718136e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.760010821309457e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -2.0959674527530115e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610343408552e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.8650006992794812e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.9672023331669077e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848222843198e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126530313e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1337235220803083e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638195952188e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035172525493925616], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803234105662], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558230357557], ["'market for corrugated board box' (kilogram, RER, None)", 0.00027532070442538967], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002716221303084754], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.5570885157374e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029896646669836774], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00040977748804846395], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0007318416480377633], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00036641407571587494], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206063453067e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.928836951016948e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011961134750506663], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.686431862930114e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.322450640247683e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035172525493925616], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803234105662], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558230357557], ["'market for corrugated board box' (kilogram, RER, None)", 0.00027532070442538967], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002716221303084754], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.5570885157374e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0004214967093498455], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1242879086200754e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0007398308179993075], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0018520702283304805], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206063453067e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.010006831196863344], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.005060186272238512], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175282431625], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322830379698], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004074331954627131], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727727272395177e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008505806517333844], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00123583684368286], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0020928870229370115], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0010478540899422051], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790980633008911], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00020896491968649166], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.003403027069862459], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.3181301974166667e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001798781731450749]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.010006831196863344], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.005060186272238512], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175282431625], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322830379698], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004074331954627131], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727727274110508e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001199187820967166], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00015454201316111114], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0021048707789456914], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0052692702267887765], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790980633008911]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03049272730663598], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011654749818514206], ["'market for polysulfone' (kilogram, GLO, None)", 4.904841790881269e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432442606169508], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0025914840611036263], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.2365671036129607e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004757666702855743], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.02896809094130418], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.736656996419425e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9020826384775355e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.523232979713807e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.3985727204694318e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03049272730663598], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011654749818514206], ["'market for polysulfone' (kilogram, GLO, None)", 4.904841790881269e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432442606169508], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.2365671036129607e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004757666702855743], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.02896809094130418], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.736656996419425e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006506640631424291], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00032843222313986734], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.3985727204694318e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0013170333847219921], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.652451919371897e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.6407434151808e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258456301992], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006964039385570288], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208954406344e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621628404113005], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0012957420305518132], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114751986277e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002842839084325158], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.017309245533486894], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.3683284982097125e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.510413192387678e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.761616489856904e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332143694529733e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258456301992], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006964039385570288], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208954406344e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621628404113005], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114751986277e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002842839084325158], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.017309245533486894], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.3683284982097125e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006506640631424291], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00032843222313986734], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332143694529733e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0013170333847219921], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.652451919371897e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.6407434151808e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867515114759235], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.048575222251743766], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.010937123829166055], ["'market for corrugated board box' (kilogram, RER, None)", 0.0050920685739683546], ["'autoclave - CONSQ' (unit, GLO, None)", 0.11495182343190458], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.9531856113329672e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0498738784754535], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.005448448934821313], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.023730070925900154], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.014557142181534729], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007571224825219458], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004658061396428422], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10425562945708158], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002087593606575656], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.017214150390927132]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867515114759235], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.048575222251743766], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.010937123829166055], ["'market for corrugated board box' (kilogram, RER, None)", 0.0050920685739683546], ["'autoclave - CONSQ' (unit, GLO, None)", 0.11495182343190458], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.9531856113329672e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.11476100260618087], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013917290710504373], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.02398912091346896], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.07358027824482456], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007571224825219458]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693493706779794], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.1381999280965104], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.032984975959456785], ["'market for corrugated board box' (kilogram, RER, None)", 0.015357032204437198], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17242773514785686], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890559781699113e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.14189469650762826], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01643182978802501], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06786216338924266], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04162984444030868], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540667814352044], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014048121387191111], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.2966146077511335], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.006295917098642206], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.04897547012629972]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693493706779794], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.1381999280965104], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.032984975959456785], ["'market for corrugated board box' (kilogram, RER, None)", 0.015357032204437198], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17242773514785686], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890559782640995e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.3265031341753315], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.041972780657614714], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06825073840517284], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.2093410733046484], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540667814352044]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032566029523357], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.02856025898494988], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311050753807867], ["'autoclave - CONSQ' (unit, GLO, None)", 0.22990364686380915], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.09902787087527137], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00140736120824233], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.043111645501107396], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.1238093772804719], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206242018122], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006167530372043838], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003783453357863684], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.002371020334988225]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032566029523357], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.02856025898494988], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311050753807867], ["'autoclave - CONSQ' (unit, GLO, None)", 0.22990364686380915], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00140736120824233], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.043111645501107396], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.1238093772804719], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206242018122], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021097876034663027], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048173872424873], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.002371020334988225], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.03779789304632028], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02078364836427306], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.0004546449554751398]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787323154759612], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017065554519010224], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155525376903933], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1532690979092061], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.04951393543763569], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.000840937732387363], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.02576041544620052], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.07397956997021632], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003684603121009061], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003083765186021919], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001891726678931842], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167510475585072]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787323154759612], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017065554519010224], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155525376903933], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1532690979092061], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.000840937732387363], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.02576041544620052], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.07397956997021632], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003684603121009061], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021097876034663027], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048173872424873], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167510475585072], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.03779789304632028], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02078364836427306], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.0004546449554751398]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0022553503002854603], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772803409741], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542481742871], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395302508392e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865601352775], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197166824926602e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019170477552426413], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024367464770953044], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.2192479022070524e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0014848343224999655], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001837103092747414], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0002342249874155322], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0017139958155991343], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.124520329890445e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9309261097985053e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0022553503002854603], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772803409741], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542481742871], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395302508392e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865601352775], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197166824926602e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2872840731990035e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.0830135532602968e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.2325578562689807e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0075052177985593166], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001837103092747414]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00641663043179807], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156426602361], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635490230137], ["'market for corrugated board box' (kilogram, RER, None)", -0.00028778652494439546], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798402029162], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5673995190247483e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00545413586702836], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007348917797926058], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.486748969690563e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.004246260776631904], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687672749671], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0007063928048800825], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004876438799310213], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.423156359575449e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.493620763088704e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00641663043179807], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156426602361], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635490230137], ["'market for corrugated board box' (kilogram, RER, None)", -0.00028778652494439546], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798402029162], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5673995192753707e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6624138420591363e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.282104239716967e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.5067139025600156e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.02135287317218141], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687672749671]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258370977737], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018752795043261222], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662063209416], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002465173120270555], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00014001271855998982], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.2603779524632724e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00018725644148470623], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0007860545452428849], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.25487486974851e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.1688689390748143e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.859137551366192e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109821629977e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258370977737], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018752795043261222], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662063209416], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002465173120270555], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.2603779524632724e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00018725644148470623], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0007860545452428849], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.25487486974851e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0840060772094625e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309189516812936], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109821629977e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400441239502], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.110707545707941e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364166958555688e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101081461012], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011205320174555856], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331031604708e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0016434487468470365], ["'cabinet washer - CONSQ' (unit, GLO, None)", 7.000635927999491e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.33827913961401e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00011189096754609523], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0004696896027387961], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.627437434874255e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5844344695374072e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.929568775683096e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.4376442269331635e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101081461012], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011205320174555856], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331031604708e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0016434487468470365], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.33827913961401e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00011189096754609523], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0004696896027387961], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.627437434874255e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0840060772094625e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309189516812936], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.4376442269331635e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400441239502], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.110707545707941e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364166958555688e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017001530597914119], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0025039919495469715], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158650830379352], ["'market for corrugated board box' (kilogram, RER, None)", 0.00510682899624351], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17693960827111543], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0199917353595853e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0014451301008227002], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015385326686708154], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.024012044679101383], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.007108535890651747], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.006324265685074815], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.99111462954468e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.003020583037250218], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.558370965817193e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -6.165590096788342e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017001530597914119], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0025039919495469715], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158650830379352], ["'market for corrugated board box' (kilogram, RER, None)", 0.00510682899624351], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17693960827111543], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0199917353595853e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -4.110393397858895e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -5.038913977211462e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.02427417284108819], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.03593068215071411], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.006324265685074815]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.004837055184195285], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007124033433922369], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002460545438683075], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401547763671702], ["'autoclave - CONSQ' (unit, GLO, None)", 0.26540941240667315], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761655518618276e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0041114969065659925], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004640019065489108], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06866853893573688], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.020328663389820954], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992981246327398], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00021084313535007406], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.00859377145809217], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -2.2795086577999005e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.7541538021848522e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.004837055184195285], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007124033433922369], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.002460545438683075], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401547763671702], ["'autoclave - CONSQ' (unit, GLO, None)", 0.26540941240667315], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761655523536967e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -0.00011694358681232349], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.5196724385332673e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06906173121370494], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.1022253210428397], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992981246327398]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.001500207138390486], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00294752011532182], ["'market for polysulfone' (kilogram, GLO, None)", -2.4624357683149277e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.35387921654223087], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0737394864491712], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877538694134151e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010375828208701043], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0014251967814709616], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1169840058053299e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006240816359785647], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018475339218089167], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0019805200465363255]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.001500207138390486], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00294752011532182], ["'market for polysulfone' (kilogram, GLO, None)", -2.4624357683149277e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.35387921654223087], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877538694134151e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010375828208701043], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0014251967814709616], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1169840058053299e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021348572600579107], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006371677292350099], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0019805200465363255], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.007114991037779442], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524957149967322e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.000401519535841229]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964157756238246], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017612258085758423], ["'market for polysulfone' (kilogram, GLO, None)", -1.2312178841574638e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591947769482058], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0368697432245856], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109521962080155e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006199847909949985], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0008515949868426334], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.5849200290266495e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00031204081798928235], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.237669609044583e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0011834161897455416]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964157756238246], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017612258085758423], ["'market for polysulfone' (kilogram, GLO, None)", -1.2312178841574638e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591947769482058], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109521962080155e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006199847909949985], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0008515949868426334], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.5849200290266495e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021348572600579107], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006371677292350099], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0011834161897455416], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.007114991037779442], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524957149967322e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.000401519535841229]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443044766911467], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.391802053372542e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.2017600827706414e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642652215794207e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00032629965374910124], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993527600340127e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00013126588051874747], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0462617623108932e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.329175997185227e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.3103453871809523e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.238972646235585e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0034007161979908e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.277149406264727e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.091545979656876e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8364846542098006e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443044766911467], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.391802053372542e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.2017600827706414e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642652215794207e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00032629965374910124], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993527600340127e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8909897694732004e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.061030653104584e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.398268625206078e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00011677831700102219], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.238972646235585e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004393654990022699], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0002103019739128526], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228686541146e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.209688762914768e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894494806236519], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.807571816432377e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003734606741519294], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1553925525734056e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00018099885878194609], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.607019281142158e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060175698723738e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.042002037567487e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.633580000922181e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.323709908504599e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.069998593667319e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004393654990022699], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0002103019739128526], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228686541146e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.209688762914768e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894494806236519], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.8075718167214022e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.3799990624448795e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.215806605669733e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.000182035248294481], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003322425356746181], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060175698723738e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099034204612393], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.3835409249984665e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.295116602508533e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525993074982025], ["'cabinet washer - CONSQ' (unit, GLO, None)", 3.819445027726755e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.2556377022553874e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.0001851677500905555], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0018144082494381771], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908888227301535e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.644975496050693e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.00467035627531e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274853905018058e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099034204612393], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.3835409249984665e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.295116602508533e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525993074982025], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.2556377022553874e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.0001851677500905555], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0018144082494381771], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908888227301535e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.627129013105273e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.0708589599084086e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274853905018058e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.57433017057859e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778789674762297e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483241213713014e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412207769229577], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.216816458467605e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475583012542664e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00043506620499880164], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.9097225138633777e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446707373146e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011064291594827708], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0010841597380768099], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.4544441136507674e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.224877480253465e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.002335178137655e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932096953615489e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412207769229577], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.216816458467605e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475583012542664e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00043506620499880164], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446707373146e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011064291594827708], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0010841597380768099], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.4544441136507674e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.627129013105273e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.0708589599084086e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932096953615489e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.57433017057859e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778789674762297e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483241213713014e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.1390440298755256e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.536601839054558e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.076138743876198e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259784584312e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427768219298e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5753967504807943e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.681874253941968e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0239070751308585e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.3054773165705023e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1509967278131528e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.475535448676555e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.930129580025524e-10], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.171716577083734e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.573861957252606e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.122196438557368e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.1390440298755256e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.536601839054558e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.076138743876198e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259784584312e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427768219298e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5753967504807943e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.414797625704912e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.7159079715017375e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.3306451246256355e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.8178080859031386e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.475535448676555e-10]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406604793641714e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.3717404435073335e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243642805742e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.692110093097816e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.757214165232895e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.767069566904858e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.754561407459546e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.103846610874125e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.593097797130386e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.2915674060630907e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.695856564491105e-09], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0900390373516694e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.609417955733682e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.762440666214075e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.03779831814913e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406604793641714e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.3717404435073335e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243642805742e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.692110093097816e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.757214165232895e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.767069568146788e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.025198878766087e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.174960444142717e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.630849512572387e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.6552073708270998e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.695856564491105e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9426491068571257e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.159777026500694e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425920368168e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6762855536438597e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 4.324009599570858e-08], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652867400319e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.8252359172869465e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -2.7955166515142692e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.2674656938190217e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.992018067037162e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.991481693610603e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378165667227e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9426491068571257e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.159777026500694e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425920368168e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6762855536438597e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652867400319e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.8252359172869465e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -2.7955166515142692e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.2674656938190217e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0497483879259384e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316863876035006e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378165667227e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.804073676580592e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.5624835068098354e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.30440859635305e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.758315244614899e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.6806392661245944e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212960184084e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857035762573e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.162004799785429e-08], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.4878254097598624e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.6881575759146028e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -1.6703994823841542e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6337328469095108e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.996009033518581e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4957408468053016e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730915516303085e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.758315244614899e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.6806392661245944e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212960184084e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857035762573e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.4878254097598624e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.6881575759146028e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -1.6703994823841542e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6337328469095108e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0497483879259384e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316863876035006e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730915516303085e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.804073676580592e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.5624835068098354e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.30440859635305e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00014168997653169073], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00011137929861675446], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.410912267271993e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.6328052148744446e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060149019607715], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752239120434274e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012043648005193714], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.307085606847376e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.8094232372336698e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.1842911188026207e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.88800356988283e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8089264488048822e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.495231037036046e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.64078746848957e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.509124257887215e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00014168997653169073], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00011137929861675446], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.410912267271993e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.6328052148744446e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060149019607715], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752239120434274e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.33941617192481e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.09385831232638e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.82917585696143e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00011040679982714268], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.88800356988283e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00040311796140002153], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0003168819481772451], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.271005103211834e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243331868286964e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00036090223529411576], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163373704798337e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00034265026719001833], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.9420041312726086e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1745051984409866e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.24653509281821e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5286996074122226e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.455492354136046e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.944178443398329e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.3043644279436145e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.851891690272137e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00040311796140002153], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0003168819481772451], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.271005103211834e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243331868286964e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00036090223529411576], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163373705943739e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2345944601814246e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5362429519624097e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.2041341306691296e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.000314115120617544], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5286996074122226e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003070960018749048], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.269211383498202e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956198462714574e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004812029803921543], ["'cabinet washer - CONSQ' (unit, GLO, None)", 7.913642668736844e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962650639328e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.926835113347276e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.00029174120178115953], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.50440463270412e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.702755759292877e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.677050800855972e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.7833854743613815e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003070960018749048], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.269211383498202e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956198462714574e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004812029803921543], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962650639328e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.926835113347276e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.00029174120178115953], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.50440463270412e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6087177856568727e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.957871260080339e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.7833854743613815e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494220916206e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.60700930827823e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476802059424646e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00018349846075723357], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.9534453496607643e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478099231357287e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019869281029], ["'cabinet washer - CONSQ' (unit, GLO, None)", 3.956821334368422e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.43289039032021e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1513379375620843e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0001743235377193719], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.75220231635206e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.3513778796464386e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.838525400427986e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631507660942114e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00018349846075723357], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.9534453496607643e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478099231357287e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019869281029], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.43289039032021e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1513379375620843e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0001743235377193719], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.75220231635206e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6087177856568727e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.957871260080339e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631507660942114e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494220916206e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.60700930827823e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476802059424646e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0002935750006206847], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753089921314], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.324394779420898e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053718447724e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00041334987372537485], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.00285371461263e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00024953875052758197], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.763816278459381e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.991166145629963e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.765716561557241e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3263107533784423e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8110234701410563e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.165732861320857e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.376376947096225e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.44964406345333e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0002935750006206847], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753089921314], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.324394779420898e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053718447724e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00041334987372537485], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.00285371461263e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9664293756355533e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.58425129806415e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.056568879586992e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00024088708227371368], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3263107533784423e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0008352415510616663], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0003948255269916978], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825261045334], ["'market for corrugated board box' (kilogram, RER, None)", 3.385635247810295e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248105880623], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135590573978557e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007099553184024164], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.335318766185094e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017133260879683486], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001362877662594309], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447495834983e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.46181670406941e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011851803351926945], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.621446982944771e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2659550715740458e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0008352415510616663], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0003948255269916978], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825261045334], ["'market for corrugated board box' (kilogram, RER, None)", 3.385635247810295e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248105880623], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.413559057783776e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.439700477160306e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.080964655296514e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017231364989348733], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0006853407129097299], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447495834983e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004027011421221696], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.551341778502973e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.8419995454128635e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997474507497], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00019268767762456725], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438391216133e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.790872200230174e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.00038256608501606107], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0123158698964303e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5571255257734531e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.238626792442949e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.153502028230535e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004027011421221696], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.551341778502973e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.8419995454128635e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997474507497], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438391216133e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.790872200230174e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.00038256608501606107], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0123158698964303e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.326612003742929e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.271710583466856e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.153502028230535e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00083469832314497], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609223857684e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816900048509422e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062520929432073], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.1220261611989572e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9209997727064318e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331649671664], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.634383881228363e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.8477022862576792e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0700962895929238e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0002285939488296047], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0061579349482152e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.785627628867266e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.193133962214745e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4818337753991544e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062520929432073], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.1220261611989572e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9209997727064318e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331649671664], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.8477022862576792e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0700962895929238e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0002285939488296047], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0061579349482152e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.326612003742929e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.271710583466856e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4818337753991544e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00083469832314497], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609223857684e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816900048509422e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003176423600058516], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001429835391419425], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.823945620101487e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092456072635e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553524117947], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621129443174e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00026999600600497386], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0079982527538768e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.12272542630788e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.036449841385868e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3605872159634573e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.9549885916816317e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.708427725762829e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.432206247324174e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.497938347689389e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003176423600058516], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001429835391419425], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.823945620101487e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092456072635e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553524117947], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621129443174e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9986255651262594e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6214708315494497e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.189564330857513e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00025457151965263346], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3605872159634573e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00090371488339693], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0004067982381221463], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407130991308], ["'market for corrugated board box' (kilogram, RER, None)", 3.4975358194547736e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006330533028617693], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4539016110871033e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007681576508873904], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.071740578504537e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017509488048519792], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001440300718462903], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.8709664457326933e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.895997220555181e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00013395808459212556], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.638284390608945e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2796951355397978e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00090371488339693], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0004067982381221463], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407130991308], ["'market for corrugated board box' (kilogram, RER, None)", 3.4975358194547736e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006330533028617693], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4539016114794744e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.531300903598653e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0921895937392968e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001760974641426564], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00072427390094337], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.8709664457326933e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004126359629552043], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.816335816924933e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551212941659e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710704823589], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0001970783908138208], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.4545200373276847e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.862321402677587e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.00039200416480744406], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.035274915437977e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5913182537193145e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.3089913409154074e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.260842903289251e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004126359629552043], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.816335816924933e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551212941659e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710704823589], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.4545200373276847e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.862321402677587e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.00039200416480744406], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.035274915437977e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.443578421737184e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.5143801173769354e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.260842903289251e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012872008173474005], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191715617872e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.700914520151542e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024656154294774087], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2803675198079845e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9407756064708296e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140469882393], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.85391954069104e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.0641724595387886e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1127891888536993e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.00023423346580035383], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176374577189885e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.956591268596573e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.544956704577037e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.545972954191157e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024656154294774087], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2803675198079845e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9407756064708296e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140469882393], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.0641724595387886e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1127891888536993e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.00023423346580035383], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176374577189885e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.443578421737184e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.5143801173769354e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.545972954191157e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012872008173474005], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191715617872e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.700914520151542e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636306518128], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141079943131233], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003240164758373649], ["'market for corrugated board box' (kilogram, RER, None)", 3.806130076743117e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822020175367848], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204156206314922e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009517140860540408], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011086595555500775], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.3296317099412435e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.305990128737575e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956861372534], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.585903655216615e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00018210252357105515], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4180739583741978e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.3387765467986969e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636306518128], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141079943131233], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003240164758373649], ["'market for corrugated board box' (kilogram, RER, None)", 3.806130076743117e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822020175367848], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204156206314922e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.925176978657979e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.453826389161317e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.387812784600387e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00031874148269994413], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956861372534]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0031855218787558612], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363589454238], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925263808883], ["'market for corrugated board box' (kilogram, RER, None)", 0.0001147880499128257], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733030263051773], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1726820310249774e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002707693596942482], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00033435763696413874], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00015241435182975613], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018033579999957844], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229980764388], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.986224871655153e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0005180945036810301], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.276730898937915e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.808913555680799e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0031855218787558612], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363589454238], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925263808883], ["'market for corrugated board box' (kilogram, RER, None)", 0.0001147880499128257], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733030263051773], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1726820313723824e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00025392757037871993], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8511539326252764e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00015328706802730116], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009068419648143234], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229980764388]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008862513479891935], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006035256223413864], ["'market for polysulfone' (kilogram, GLO, None)", 3.468695123350276e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644040350735697], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00019644628461117664], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4786413506899424e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2578751316429207e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0008419387805897337], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310757861999e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3851903580698491e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.6389494057076031e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.57043959388474e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008862513479891935], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006035256223413864], ["'market for polysulfone' (kilogram, GLO, None)", 3.468695123350276e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644040350735697], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4786413506899424e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2578751316429207e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.0008419387805897337], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310757861999e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.738456512745722e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.6523220431228914e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.57043959388474e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983690332146], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049802675523e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.718321639564936e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295599981998], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036062345993129576], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347561675138e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693567157131], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.822314230558832e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576166540508e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 7.516156155471605e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.00050308199828981], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655378930999e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.925951790349246e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.194747028538016e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.926021654134117e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295599981998], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036062345993129576], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347561675138e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693567157131], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576166540508e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 7.516156155471605e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.00050308199828981], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655378930999e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.738456512745722e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.6523220431228914e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.926021654134117e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983690332146], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049802675523e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.718321639564936e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686909756682986e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403592842991897e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275217800950578e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.717770435030355e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.919705945214342e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.364537048394247e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.833873293180538e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.096265201737037e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.503121841280699e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.416205656457311e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195605262090062e-11], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.3975839282303034e-12], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.1964199573996233e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.661586850238503e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.96545004342187e-11]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686909756682986e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403592842991897e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275217800950578e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.717770435030355e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.919705945214342e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.364537048394247e-13], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.310300028947913e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.441057900159003e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5304472413560623e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.158328534168188e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195605262090062e-11]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.6179658744365679e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089472893358257e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957005560797096e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.0259942578184605e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.8795589178215136e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3162889514356602e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3752709932710826e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5369688392302842e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.158312501745256e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.0499996797851877e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472003705079893e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6278427390302497e-11], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.4038990337285053e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9138118481887974e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2662266320721374e-10]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.6179658744365679e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089472893358257e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957005560797096e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.0259942578184605e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.8795589178215136e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3162889516461309e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5108177547147583e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.942541232125865e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.19930060550559e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.036594878622196e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472003705079893e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.862272351459793e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1073180122267926e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622016967611467e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.839411890428684e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 8.056961304975313e-10], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322890761599e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.2888841375877704e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -6.519158733886803e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747143691246e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.505703261162669e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.680769191871737e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.253390540211476e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.862272351459793e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1073180122267926e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622016967611467e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.839411890428684e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322890761599e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.2888841375877704e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -6.519158733886803e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747143691246e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.2254697203352073e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.26940421506678e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.253390540211476e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499851190702e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.618875201750832e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.915789576130386e-13]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.1003998948274625e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.616535206314593e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811008483805733e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.5596079269524566e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 4.0284806524876565e-10], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541333336494e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.5627283742171805e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -3.8953799000860896e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873571845623e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.2528516305813345e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.8403845959358687e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.346463951106895e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.1003998948274625e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.616535206314593e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811008483805733e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.5596079269524566e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541333336494e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.5627283742171805e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -3.8953799000860896e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873571845623e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.2254697203352073e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.26940421506678e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.346463951106895e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499851190702e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.618875201750832e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.915789576130386e-13]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.5764671301323645e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957170928568e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361740565614e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361550920862e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.3557951245065083e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.2086372221516422e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1899970606125097e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3593538844669667e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.392476954712173e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.838329791816231e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545048820131967e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 3.5602903071393247e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 8.9741911810721e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.63281968543906e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.996485158229027e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.5764671301323645e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957170928568e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361740565614e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361550920862e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.3557951245065083e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.2086372221516422e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9976567721526846e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.4218797902927068e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.4185944967672364e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.9401155154992266e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545048820131967e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.330230426573768e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.6308666880670003e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616797284245e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.866521736701848e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.5336926867597627e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660969401823136e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.230695862587704e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.115511570917984e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.84189535348034e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0976678674376037e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647692755991e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.0737383248465244e-08], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.553220589544456e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0956122638906389e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.525211295243145e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.330230426573768e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.6308666880670003e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616797284245e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.866521736701848e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.5336926867597627e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660969402888205e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.683474196828764e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.304081759270926e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.881071670049002e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.519765269142299e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647692755991e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909706680849e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.115294167038775e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607250287958e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.7115902490130166e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.0006389057709956e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348826693254e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.6884919336103596e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -4.473464221346806e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654250408108e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.218133240595255e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.975956515597003e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.615471228616073e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909706680849e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.115294167038775e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607250287958e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.7115902490130166e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348826693254e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.6884919336103596e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -4.473464221346806e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654250408108e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1270978230079105e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.440455130462042e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.615471228616073e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.2306455589691567e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.616759826967702e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997085162927404e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137054137641074e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.0565315088485847e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.911303625143979e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.1410601660086775e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 5.003194528854978e-08], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.70488774178812e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.6064492164137607e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -2.673020143075902e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327125204054e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.1090666202976275e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.987978257798502e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.160345305762594e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137054137641074e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.0565315088485847e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.911303625143979e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.1410601660086775e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.70488774178812e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.6064492164137607e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -2.673020143075902e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327125204054e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1270978230079105e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.440455130462042e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.160345305762594e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.2306455589691567e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.616759826967702e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997085162927404e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04791118728432852], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.002985829545552269], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126088486038], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786538079248], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002277034920761604], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.2512204035869664e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04072450919167924], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.004063745707103531], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00039898690380821636], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0022331253678263187], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187661999754305], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011613851482152874], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004949791447106768], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.147008731967939e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.472179484031382e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.04791118728432852], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.002985829545552269], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126088486038], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786538079248], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002277034920761604], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.2512204035869664e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002314786322687588], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.7646724879786258e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004033424555802435], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.011287516730355482], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187661999754305]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13631070185118818], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895326782511], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157733728046], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316573866986], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0034155523811424063], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868759952852127e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11586409657350996], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012255740773155008], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011410043628166753], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006386189027970028], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081301969057], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003502590058585117], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014082505243881226], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2506851477976714e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.878595151751255e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13631070185118818], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895326782511], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157733728046], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316573866986], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0034155523811424063], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868759956348872e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006585730101167503], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.33790098531781e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011475376910560782], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.03211377999162425], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081301969057]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099308088411003], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00173824874828413], ["'market for polysulfone' (kilogram, GLO, None)", 0.00043313108161755035], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004554069841523208], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0014246042696024607], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720684362152], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00019556569513673388], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.005794342683990453], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6488608055878424e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0369812441643864e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.803972762009739e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.51414413787872e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099308088411003], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00173824874828413], ["'market for polysulfone' (kilogram, GLO, None)", 0.00043313108161755035], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004554069841523208], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720684362152], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00019556569513673388], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.005794342683990453], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6488608055878424e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00035473034456092584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0020016434348825315], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.51414413787872e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010652108688116902], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675762241465e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322724912709564e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0036445073822988887], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0010386523034359016], ["'market for polysulfone' (kilogram, GLO, None)", 0.00021656554080877517], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003036046561015472], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0007123021348012303], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00013472296986754816], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00011685597928795955], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.003462282013183944], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.244304027939212e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.184906220821932e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.9019863810048695e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.087439550139373e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0036445073822988887], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0010386523034359016], ["'market for polysulfone' (kilogram, GLO, None)", 0.00021656554080877517], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003036046561015472], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00013472296986754816], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00011685597928795955], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", -0.003462282013183944], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.244304027939212e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00035473034456092584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0020016434348825315], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.087439550139373e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010652108688116902], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675762241465e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322724912709564e-05]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00032945167448862346], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503862951], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.63892056722473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137785213091464e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645880411313], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.119401863092894e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028003392331532996], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.956358597772661e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1311259048455515e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.57127260238284e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047304358392e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.610646770896708e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.795519928713639e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2223661278506547e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8473084366304813e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00032945167448862346], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503862951], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.63892056722473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137785213091464e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645880411313], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.119401863092894e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.231538957753654e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4815774185671031e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003420750603230368], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00023808484015885598], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047304358392e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373132147422808], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142785960015], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001399039507806364], ["'market for corrugated board box' (kilogram, RER, None)", 6.07330030126587e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000869946882061697], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121197348383e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007967162325309387], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.916001939652542e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001467375742840076], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001021296082961387], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8854838811935067e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.873378990829929e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0001364359190986134], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.702373900602926e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.255722594357143e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373132147422808], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142785960015], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001399039507806364], ["'market for corrugated board box' (kilogram, RER, None)", 6.07330030126587e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000869946882061697], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1471211976917005e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5038150629047625e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.468249267068617e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0009782504952267174], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0006808640553075914], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8854838811935067e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317415353674], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.9310921829082434e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118264995002e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599291760822626], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005279123113127134], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4955512956489453e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.802289506576002e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351544585991], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013061077738e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.333597988802278e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.281865321389215e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761043889420144e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317415353674], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.9310921829082434e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118264995002e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599291760822626], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4955512956489453e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.802289506576002e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351544585991], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013061077738e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.56196943518293e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.2010806297425175e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761043889420144e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414392301742], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.212541559450556e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.628021274492795e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004062782557571315], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.543993668195849e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.009559132497501e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732861173881751], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0002639561556563567], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617822977656e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.4670304622143975e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000385964342969275], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.752506530538869e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.66798994401139e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.6409326606946074e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978113151488926e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004062782557571315], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.543993668195849e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.009559132497501e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732861173881751], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617822977656e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.4670304622143975e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000385964342969275], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.752506530538869e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.56196943518293e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.2010806297425175e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978113151488926e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414392301742], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.212541559450556e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.628021274492795e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723806794246], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04281944319305992], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01976277298328711], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907764253986], ["'autoclave - CONSQ' (unit, GLO, None)", 0.051298370574034025], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.86835341474663e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1289596523577511], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013474044685442449], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004871826561002786], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.021457942514903322], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.003765571347660146], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.001198432544234157], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.042624537356936984], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0033182097815479153], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.027353649437289834]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723806794246], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04281944319305992], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01976277298328711], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907764253986], ["'autoclave - CONSQ' (unit, GLO, None)", 0.051298370574034025], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.86835341474663e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.18235766291526556], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.022121398543652766], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.03247884374001857], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.14305295009935548], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.003765571347660146]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.43164622661583624], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433133800145], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.059602012551743425], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055159866206], ["'autoclave - CONSQ' (unit, GLO, None)", 0.07694755586105104], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698208715613065], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3668992926234608], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.040636006958316914], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013932225112988448], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.06136443525554228], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315666047208], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.003614320298283433], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.12126981050846859], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.010007299138455293], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07782305896243022]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.43164622661583624], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433133800145], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.059602012551743425], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055159866206], ["'autoclave - CONSQ' (unit, GLO, None)", 0.07694755586105104], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698208718442952], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5188203930828682], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06671532758970196], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.09288150075325631], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.40909623503694853], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315666047208]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469573757346], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020296080960062884], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135481129035], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259674114806805], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.05095178069032697], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0016833828934874758], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714495510692], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809046095069475], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007574698738365294], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00012662051612125463], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0005576996064779639], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234066384025]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469573757346], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020296080960062884], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135481129035], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259674114806805], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0016833828934874758], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714495510692], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809046095069475], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007574698738365294], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004331432180180747], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.019233649117895612], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234066384025], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.04710111535816824], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.033035407409446806], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.001203580463941589]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0931454709563639], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012127476726619266], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067740564517], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839782743204537], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.025475890345163486], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684187814304], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.004113212176344164], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0884881974085457], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003787349369182647], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.331025806062731e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00027884980323898196], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253776117626]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0931454709563639], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012127476726619266], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067740564517], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839782743204537], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684187814304], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.004113212176344164], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0884881974085457], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003787349369182647], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004331432180180747], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.019233649117895612], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253776117626], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.04710111535816824], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.033035407409446806], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.001203580463941589]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0025758802609461774], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865721222164], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573417510250136], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014282642363673916], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422926539710404], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.49957697702585e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021894982218042505], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023566311434408308], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0023834238596475983], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009652248746716008], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012908718676357128], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0002908103254844467], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0053068537607429645], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00017302760906542033], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001426861446252349]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0025758802609461774], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865721222164], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573417510250136], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014282642363673916], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422926539710404], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.49957697702585e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009512409641682327], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001153517393769469], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.015889492397650654], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006434832497810672], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012908718676357128]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00732856074241025], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733627727995], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0014347538323559892], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004307463569220237], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03363438980956561], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633644857825565e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006229276631048713], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007107300129894392], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.006816005729367165], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0027603056205266017], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00036726213701925205], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.000877046995599179], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01509837267140956], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0005218292866105688], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.004059521297788373]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00732856074241025], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733627727995], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0014347538323559892], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004307463569220237], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03363438980956561], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633644861924302e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02706347531858915], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.003478861910737126], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0454400381957811], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018402037470177345], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00036726213701925205]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239961846699766], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014142962062695119], ["'market for polysulfone' (kilogram, GLO, None)", 5.2525208840469945e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484585307942081], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.03185291955069402], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.632351544531893e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001307720348047313], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537796375436477], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.777505021870645e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.194603922479807e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5086539978994773e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0425208849081916e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239961846699766], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014142962062695119], ["'market for polysulfone' (kilogram, GLO, None)", 5.2525208840469945e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484585307942081], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.632351544531893e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001307720348047313], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537796375436477], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.777505021870645e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002119048918392377], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651713250888061], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0425208849081916e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0015929806334395542], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269388827405], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.3540235529911023e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225192003740616], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008450815879099788], ["'market for polysulfone' (kilogram, GLO, None)", 2.6262604420234972e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02989723538628054], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.01592645977534701], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597680149988e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0007813995281688656], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002113932403553585], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8887525109353224e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.0973019612399036e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2543269989497386e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4155194343785614e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225192003740616], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008450815879099788], ["'market for polysulfone' (kilogram, GLO, None)", 2.6262604420234972e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02989723538628054], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597680149988e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0007813995281688656], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002113932403553585], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8887525109353224e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002119048918392377], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651713250888061], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4155194343785614e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0015929806334395542], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269388827405], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.3540235529911023e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0034951471150380816], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.003493197834179931], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924522399903], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011618948462], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026502076669664358], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.335944670475129e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002970875047782369], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031939364351115046], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002942574738750691], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012373019478184187], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294154091305534], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003745970129345763], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.006952512263170974], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00025052156099333444], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0020657565125103013]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0034951471150380816], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.003493197834179931], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924522399903], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011618948462], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026502076669664358], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.335944670475129e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013771710083402009], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001670143739955563], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.019617164925004607], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.008248679652122792], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294154091305534]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943939679404119], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839383808938], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200554037345], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781071931609], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03975311500449654], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.02903948340347e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008452348727493501], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009632506513937774], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008415039648626022], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0035383790974240006], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358015869183246], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011297370002505914], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01978038700226108], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0007555412003889511], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005877222753902547]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943939679404119], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839383808938], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200554037345], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781071931609], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03975311500449654], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.0290394840477e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03918148502601698], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005036941335926341], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.05610026432417348], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.023589193982826672], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358015869183246]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214792830190352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018439751155552304], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643809217301e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.053004153339328716], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.038731920318630306], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661685441919e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0018338777222267567], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954053188680836], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.0296421885980545e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.647857071276506e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.215792049556898e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102710800930042e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214792830190352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018439751155552304], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643809217301e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.053004153339328716], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661685441919e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0018338777222267567], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954053188680836], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.0296421885980545e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026161774760282584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090453570140656], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102710800930042e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0016572147215531006], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002494140629169221], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.126068145696376e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00311598474635167], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011018267685453617], ["'market for polysulfone' (kilogram, GLO, None)", 3.3648219046086506e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03533610222621914], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.019365960159315153], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.67784458376927e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010957932932733846], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002960185509034088], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.5148210942990272e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.823928535638253e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.607896024778449e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.0490125984691942e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00311598474635167], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011018267685453617], ["'market for polysulfone' (kilogram, GLO, None)", 3.3648219046086506e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03533610222621914], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.67784458376927e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010957932932733846], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002960185509034088], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.5148210942990272e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026161774760282584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090453570140656], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.0490125984691942e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0016572147215531006], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002494140629169221], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.126068145696376e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.42468440504137206], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.2641046541623702], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978787486384], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805774551669235], ["'autoclave - CONSQ' (unit, GLO, None)", 2.053171962979424], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206382889407196], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3609817442851663], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.039303841588590925], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.14936433453299996], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.09709535567515583], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.023218345255408553], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.009089079502645035], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10534581032776325], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009633427192112404], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07941892477197379]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.42468440504137206], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.2641046541623702], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978787486384], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805774551669235], ["'autoclave - CONSQ' (unit, GLO, None)", 2.053171962979424], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206382889407196], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5294594984798252], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06422284794741603], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.9957622302199998], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.6473023711677055], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.023218345255408553]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082570396951713], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963400112506], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.15372802814973155], ["'market for corrugated board box' (kilogram, RER, None)", 0.0446523359414276], ["'autoclave - CONSQ' (unit, GLO, None)", 3.079757944469136], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919385318612352], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0270184837408955], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11853539286597081], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.42714524142196364], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.2776688241570114], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605782735175819], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.027411509055868265], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.29971624910152356], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.029053192530529633], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.22595243385829158]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082570396951713], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963400112506], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.15372802814973155], ["'market for corrugated board box' (kilogram, RER, None)", 0.0446523359414276], ["'autoclave - CONSQ' (unit, GLO, None)", 3.079757944469136], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919385320358327], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5063495590552773], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.1936879502035309], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.8476349428130905], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.8511254943800761], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605782735175819]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322461089981052], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.06762233426392682], ["'market for polysulfone' (kilogram, GLO, None)", 0.008388736573132282], ["'autoclave - CONSQ' (unit, GLO, None)", 4.106343925958848], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.140538093141574], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.032035708158735486], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.461299580415744], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1256338035482], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003957377094846856], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0038820325173446538], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.002523543047673987], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271104744106625]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322461089981052], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.06762233426392682], ["'market for polysulfone' (kilogram, GLO, None)", 0.008388736573132282], ["'autoclave - CONSQ' (unit, GLO, None)", 4.106343925958848], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.032035708158735486], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.461299580415744], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1256338035482], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003957377094846856], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.13279649369011035], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703061818420738], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271104744106625], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.12478441363795054], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840030982561], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486257532289734]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902075342605978], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04040623835700841], ["'market for polysulfone' (kilogram, GLO, None)", 0.004194368286566141], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375626173058984], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.070269046570787], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.019142232723663093], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.27563941711207257], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07506971575475682], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0001978688547423428], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0019410162586723269], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012617715238369936], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.004344688702626353]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902075342605978], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04040623835700841], ["'market for polysulfone' (kilogram, GLO, None)", 0.004194368286566141], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375626173058984], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.019142232723663093], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.27563941711207257], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07506971575475682], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0001978688547423428], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.13279649369011035], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703061818420738], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.004344688702626353], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.12478441363795054], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840030982561], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486257532289734]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236425718676], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059965145626], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324873069173], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044065811797], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280172577093173], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.676424599877709e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.09993650961860874], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01005179937091735], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001200963437257253], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006543976031724323], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808021860117], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003530771650647478], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014280960376284109], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2034796661213002e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00010113104803440157]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236425718676], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059965145626], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324873069173], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044065811797], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280172577093173], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.676424599877709e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006742069868960104], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.023197774142001e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008006422915048354], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04362650687816215], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808021860117]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.33450165605565807], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.03284935370365375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367738919338], ["'market for corrugated board box' (kilogram, RER, None)", 0.003039410114538076], ["'autoclave - CONSQ' (unit, GLO, None)", 0.01992025886563976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.05588371519455e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2843264076473094], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030314949869619665], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.003434459899346745], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018714161119299508], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269284796484683], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0010648358730690054], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.04063033797196324], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.629541776682344e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00028772495356266356]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.33450165605565807], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.03284935370365375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367738919338], ["'market for corrugated board box' (kilogram, RER, None)", 0.003039410114538076], ["'autoclave - CONSQ' (unit, GLO, None)", 0.01992025886563976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.05588371600297e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0019181663570844239], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00024196945177882293], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0228963993289783], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.1247610741286634], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269284796484683]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0338324205565888], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.006149296255247429], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011275973986166596], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560345154186347], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0124126627034299], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426941282114], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633866841545], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079952875935], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235444577208e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.121346960203956e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00017008027937250375], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0002561292338222575]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0338324205565888], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.006149296255247429], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011275973986166596], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560345154186347], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426941282114], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633866841545], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079952875935], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235444577208e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010677497678172317], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005865638736923963], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0002561292338222575], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0277338871874], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001198159359917132], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.411349430421446e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215818694879442], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.003674376711806788], ["'market for polysulfone' (kilogram, GLO, None)", 0.0005637986993083298], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706896769457563], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00620633135171495], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0003197029925903215], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013617444415605976], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.019205027760135468], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117722288604e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.560673480101978e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.504013968625188e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001530443897816015]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215818694879442], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.003674376711806788], ["'market for polysulfone' (kilogram, GLO, None)", 0.0005637986993083298], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706896769457563], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0003197029925903215], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013617444415605976], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.019205027760135468], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117722288604e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010677497678172317], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005865638736923963], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001530443897816015], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0277338871874], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001198159359917132], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.411349430421446e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768424580772e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795803069995e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.66479729601317e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377391374474e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291685085645123e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558940511426166e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3691531608936562e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5845249746745842e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9634541238255353e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.7580872607374447e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.5907667114856755e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 4.040932751631894e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 7.744093267148329e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1294337323139795e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.5823793358584414e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768424580772e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795803069995e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.66479729601317e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377391374474e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291685085645123e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558940511426166e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.054919557238961e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.41962248820932e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3089694158836902e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5053915071582963e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.5907667114856755e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.582749602328393e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406693267801e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.4068436004574863e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.1021773081307284e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7437527628467686e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0422537617190929e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.895337161979134e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.778726017293819e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.614995630413455e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0747204781447806e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.525843320370414e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2186939797729512e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.203249070371778e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.546972046661962e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.3037191913287395e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.582749602328393e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406693267801e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.4068436004574863e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.1021773081307284e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7437527628467686e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0422537618857461e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.69146127552493e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0313146977746415e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.743330420275636e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.164803187631871e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.525843320370414e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.1183517361334445e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2403929306422765e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126690849697366e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583370171290246e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.8681012979805817e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.6732486665424977e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328778864535e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.862434149326772e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.64055266883484e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.103087546860905e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.767403305174551e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677744651515e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.1183517361334445e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2403929306422765e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126690849697366e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583370171290246e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.6732486665424977e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328778864535e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.862434149326772e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.64055266883484e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.7456632065522443e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.368530402076303e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677744651515e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.8922751406692313e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067576881080537e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.105538547307704e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358492004032e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.411695108936276e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563345424848683e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891344752683e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.4340506489902909e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129343921365e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7423515496679583e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9054405674038307e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.82027633441742e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5515437734304526e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.8837016525872756e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.976691957966268e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358492004032e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.411695108936276e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563345424848683e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891344752683e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129343921365e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7423515496679583e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9054405674038307e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.82027633441742e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.7456632065522443e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.368530402076303e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.976691957966268e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.8922751406692313e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067576881080537e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.105538547307704e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008895951518e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.6100637032266782e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219459120827e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.0183387299244326e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516736438245], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299126024654753e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6061607561558792e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7599960481711845e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0976802956943384e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.31034845479275e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152233318279e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.4713781819128307e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 5.782134471463924e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.156519292770127e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.266188765188525e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008895951518e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.6100637032266782e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219459120827e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.0183387299244326e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516736438245], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299126024654753e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.844125843459017e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.437679528513418e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3984535304628923e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.206898969861833e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152233318279e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047601383389e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.425815042982944e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788448029876e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879934203146e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751046573676], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010847532258647e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.569640461175882e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.307924482198349e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.998849451791267e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.466781975314158e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2126545792371094e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.453362619863144e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6450579763883278e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5551407075864362e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2137607472789887e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047601383389e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.425815042982944e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788448029876e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879934203146e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751046573676], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.0108475328999695e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.091738315193258e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0367604717242909e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.999232967860844e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.311187983542773e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2126545792371094e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348454181037e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.0619203802001945e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756899603499e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103347287649], ["'cabinet washer - CONSQ' (unit, GLO, None)", 7.722947814340194e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.5525177514527734e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070773782105e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507731031471985e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922067303833e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.451946171982194e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.603714122454255e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.4355089855573317e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348454181037e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.0619203802001945e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756899603499e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103347287649], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.5525177514527734e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070773782105e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507731031471985e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922067303833e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.86500069793768e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.967203430302345e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.4355089855573317e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126956464e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.133723509544594e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638196471914e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.206281598539229e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2320551673115878e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.2313784498017496e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00017740223152509934], ["'cabinet washer - CONSQ' (unit, GLO, None)", 3.861473907170097e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568410573327e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9303196164700336e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.095967518612268e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610336519163e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.725973085991097e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.301857061227127e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848221960285e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.206281598539229e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2320551673115878e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.2313784498017496e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00017740223152509934], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568410573327e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9303196164700336e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.095967518612268e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610336519163e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.86500069793768e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.967203430302345e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848221960285e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126956464e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.133723509544594e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638196471914e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035172525470250635], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803323310373], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558236224846], ["'market for corrugated board box' (kilogram, RER, None)", 0.00027532070733822615], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002716221267387766], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.5570893512881943e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002989664664971304], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004097774875572649], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0007318416474956008], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00036641453436241713], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206103740602e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.928836911853068e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.001196113468323872], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.686431833830248e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.322450639215064e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035172525470250635], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803323310373], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558236224846], ["'market for corrugated board box' (kilogram, RER, None)", 0.00027532070733822615], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002716221267387766], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.5570893512881943e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00042149670928100425], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.124287889220165e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004878944316637338], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0024427635624161143], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206103740602e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.010006831190127645], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00506018629761788], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175300126624], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322918227148], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004074331901081649], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727729792310272e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0085058065116085], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001235836842201466], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00209288702138656], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0010478554015584528], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790980747629787], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0002089649185053588], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.003403027050724256], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.318130188640517e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00017987817311569616]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.010006831190127645], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00506018629761788], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175300126624], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322918227148], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004074331901081649], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727729794025602e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001199187820771308], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00015454201257603448], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013952580142577066], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006985702677056353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790980747629787]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03049272768333022], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011654749923722262], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048417751762906e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432442534775532], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.006515241714290287], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.236567102895218e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184995101868683], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.028968091299163706], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.73665698786946e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9020826370684356e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.523244900101604e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.398572733085959e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03049272768333022], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011654749923722262], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048417751762906e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432442534775532], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.236567102895218e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184995101868683], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.028968091299163706], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.73665698786946e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006506640626604046], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003284326342438982], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.398572733085959e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001317033418733884], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.652451890400675e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.640743614128734e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258681387352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006964039448435047], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208875881453e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621628356517021], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0032576208571451436], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114747697566e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002500651766161009], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.017309245747317983], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.36832849393473e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.510413185342178e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.761622450050802e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332143769917015e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258681387352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006964039448435047], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208875881453e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621628356517021], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114747697566e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002500651766161009], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.017309245747317983], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.36832849393473e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006506640626604046], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003284326342438982], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332143769917015e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001317033418733884], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.652451890400675e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.640743614128734e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867515148275604], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522323023978], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.010937123931882342], ["'market for corrugated board box' (kilogram, RER, None)", 0.0050920686293278086], ["'autoclave - CONSQ' (unit, GLO, None)", 0.11495182352783817], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.9531861738669683e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04987387876034263], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0054484489672235285], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.023730070927552766], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.014557151046332996], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00757122491097363], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0046580613844389804], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10425562930888944], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002087593605788959], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.01721415039106963]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867515148275604], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522323023978], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.010937123931882342], ["'market for corrugated board box' (kilogram, RER, None)", 0.0050920686293278086], ["'autoclave - CONSQ' (unit, GLO, None)", 0.11495182352783817], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.9531861738669683e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.11476100260713085], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013917290705259726], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.15820047285035177], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.09704767364221997], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00757122491097363]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693493802136225], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.1381999308804005], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.032984976269236056], ["'market for corrugated board box' (kilogram, RER, None)", 0.01535703237139428], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17242773529175726], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.8905614782302275e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1418946973181579], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01643182988574597], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06786216339396871], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04162986979145029], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540668058328702], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01404812135103248], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.29661460732951644], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.006295917096269628], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.04897547012670513]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693493802136225], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.1381999308804005], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.032984976269236056], ["'market for corrugated board box' (kilogram, RER, None)", 0.01535703237139428], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17242773529175726], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.89056147917211e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.3265031341780342], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.041972780641797526], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.45241442262645803], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.2775324652763353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540668058328702]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032567160465985], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.02856025919231978], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311050862138833], ["'autoclave - CONSQ' (unit, GLO, None)", 0.22990364705567634], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.2674130444563259], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612104023962], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556581126541675], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380938802442686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206243041968], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006167530372473358], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00037834556618564837], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710203618431775]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032567160465985], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.02856025919231978], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311050862138833], ["'autoclave - CONSQ' (unit, GLO, None)", 0.22990364705567634], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612104023962], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556581126541675], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380938802442686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206243041968], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021097876036132328], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048181818313407], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710203618431775], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.03779789355809378], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.020783648356440868], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.000454644988468064]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787323830529502], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017065554642919544], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155525431069416], ["'autoclave - CONSQ' (unit, GLO, None)", 0.15326909803711755], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.13370652222816296], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.000840937733678063], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.02483122093578987], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07397957639003028], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003684603121520984], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003083765186236679], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018917278309282419], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167510636050936]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787323830529502], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017065554642919544], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155525431069416], ["'autoclave - CONSQ' (unit, GLO, None)", 0.15326909803711755], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.000840937733678063], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.02483122093578987], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07397957639003028], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003684603121520984], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021097876036132328], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048181818313407], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167510636050936], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.03779789355809378], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.020783648356440868], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.000454644988468064]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002255350306961903], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772814778556], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542495335181], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395247044594e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865479452674], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197167440189926e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019170477609176178], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024367464814648617], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.219247963051977e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0014848343743966742], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031008535842], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00023422498744141057], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0017139958157684435], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.124519787136743e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9309261180657837e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002255350306961903], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772814778556], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542495335181], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395247044594e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865479452674], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197167440189926e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2872840787105226e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.083013191424495e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.128319753679847e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.009898895829311161], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031008535842]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00641663045079302], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156458947441], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635531222815], ["'market for corrugated board box' (kilogram, RER, None)", -0.0002877865232716777], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798219179012], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.567399704580354e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0054541358831740674], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007348917811104088], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.486749143692074e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0042462609250437195], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687695812296], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0007063928049581283], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004876438799791909], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.423154722699237e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.493620786609694e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00641663045079302], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156458947441], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635531222815], ["'market for corrugated board box' (kilogram, RER, None)", -0.0002877865232716777], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798219179012], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5673997048309764e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.662413857739796e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.282103148466158e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00023244994291280493], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.028308406166958133], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687695812296]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258745874309], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001875279506326794], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662077826571], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002465173095890535], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0011018532044060469], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.260377970968837e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021707126374], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545808583138], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875019404883e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.1688690972129507e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.859137686247595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109847015427e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258745874309], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001875279506326794], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662077826571], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002465173095890535], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.260377970968837e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021707126374], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545808583138], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875019404883e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0840061313053258e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309189981984787], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109847015427e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400407415859], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.1107070053536277e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364167067788892e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101305472212], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001120532018651043], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331038913286e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00164344873059369], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005509266022030234], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.338279150671603e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -7.948330467719004e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004696896240200123], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.6274375097024416e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5844345486064754e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.9295688431237975e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.4376442421016805e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101305472212], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001120532018651043], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331038913286e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00164344873059369], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.338279150671603e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -7.948330467719004e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004696896240200123], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.6274375097024416e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0840061313053258e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309189981984787], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.4376442421016805e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400407415859], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.1107070053536277e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364167067788892e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017001109350018612], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.002504011913258482], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158659649806749], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828277639216], ["'autoclave - CONSQ' (unit, GLO, None)", 0.176939812138178], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0199917367215622e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001445094294751582], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015385269039930468], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.024012027181061543], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.007108535379188185], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.006324266043926789], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.991077276453952e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.0030205770851318026], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.558411197387465e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -6.165525300452531e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017001109350018612], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.002504011913258482], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158659649806749], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828277639216], ["'autoclave - CONSQ' (unit, GLO, None)", 0.176939812138178], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0199917367215622e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -4.110350200301687e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -5.03894079825831e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.16008018120707695], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.047390235861254563], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.006324266043926789]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.004836935336202478], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007124090232087512], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605480985103313], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401545596452404], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409718207267], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.076165555969377e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004111395035772106], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004640001679953332], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06866848889564883], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.020328661927161026], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992982267286534], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.000210842008828313], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.008593754523896114], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -2.2795207911303716e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.7541353671710015e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.004836935336202478], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007124090232087512], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605480985103313], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401545596452404], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409718207267], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.076165556461246e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -0.00011694235781140012], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.519680527420248e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.4577899259709922], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.13552441284774017], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992982267286534]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002078579837714], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.002947522104825776], ["'market for polysulfone' (kilogram, GLO, None)", -2.462426162423828e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.353879624276356], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.1764281599991597], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877536912736269e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835919470752997], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251974650845828], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170578758358089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.000624081181198246], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018475337888777062], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0019805201589151475]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002078579837714], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.002947522104825776], ["'market for polysulfone' (kilogram, GLO, None)", -2.462426162423828e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.353879624276356], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877536912736269e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835919470752997], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251974650845828], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170578758358089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021348557043462713], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006371676833903969], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0019805201589151475], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.007114991183103746], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524997203683095e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0004015195511760592]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964162056009636], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017612269973601683], ["'market for polysulfone' (kilogram, GLO, None)", -1.231213081211914e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591974951757066], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.08821407999957985], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109520897645036e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013047573356993005], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008515953953209153], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.5852893791790444e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.000312040590599123], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.237668944388531e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0011834162568950346]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964162056009636], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017612269973601683], ["'market for polysulfone' (kilogram, GLO, None)", -1.231213081211914e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591974951757066], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109520897645036e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013047573356993005], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008515953953209153], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.5852893791790444e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021348557043462713], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006371676833903969], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0011834162568950346], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.007114991183103746], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524997203683095e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0004015195511760592]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443044686375485], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180238710411e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.2017601010223227e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642652586807805e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262996546652379], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993528993836653e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001312658798341916], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0462617534623466e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.329175961364846e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.3103540359291365e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.23897263813833e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0034005907132652e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2771492218716964e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0915459194026874e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8364846472493133e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443044686375485], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180238710411e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.2017601010223227e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642652586807805e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262996546652379], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993528993836653e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8909897648328754e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.061030612935125e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004219450640909897], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00015402360239527576], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.23897263813833e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936549671096445], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198340775072], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228741585898e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.209688874807757e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894494819978569], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.8075722366932344e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003734606722043198], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1553925258873135e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001809988577575713], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.607044014433695e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060175675686476e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.042001659121498e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.633579476311023e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.323709726785622e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.069998573864243e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936549671096445], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198340775072], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228741585898e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.209688874807757e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894494819978569], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.8075722369822594e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.379999049242828e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.2158064845237485e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001206659051717142], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00044046960096224636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060175675686476e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099035011530573], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.3835410471566495e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.295116592280179e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525993093304757], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00012895510974951868], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637708610867e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00018454953691657042], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144083260954041], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908888124877043e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6449754867408476e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.004692834681408e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274853879660528e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099035011530573], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.3835410471566495e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.295116592280179e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525993093304757], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637708610867e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00018454953691657042], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144083260954041], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908888124877043e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.627128981258171e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.0708667121422387e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274853879660528e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.574330656401216e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778789074884115e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483240416984814e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412208251385784], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.2168165314605396e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475582961400895e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004350662062203172], ["'cabinet washer - CONSQ' (unit, GLO, None)", 6.447755487475934e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446711170723e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011027351626494185], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0010841597838816496], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.4544440624385215e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.224877433704238e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.002346417340704e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932096938463655e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412208251385784], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.2168165314605396e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475582961400895e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004350662062203172], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446711170723e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011027351626494185], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0010841597838816496], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.4544440624385215e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.627128981258171e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.0708667121422387e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932096938463655e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.574330656401216e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778789074884115e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483240416984814e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.13904403147717e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018430220378e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.0761387487617103e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259835123699e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427768824742e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5753967821537487e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.681874267555945e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0239070771202457e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.3054773166844186e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1509968196800795e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.47553549548713e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.930129571548307e-10], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.171716569653832e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.573861956274576e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.1221964381378016e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.13904403147717e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018430220378e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.0761387487617103e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259835123699e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427768824742e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5753967821537487e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.414797625425201e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.7159079708497171e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5369848777896125e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.67331213120053e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.47553549548713e-10]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406604839209625e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740454795094e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243657539826e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.6921101083398533e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141653237115e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.767069662426467e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.754561411332818e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.103846616873864e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.593097797456159e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.291567668779894e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.6958565778090433e-09], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0900390347950485e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.6094179536198226e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.76244066326446e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.037798316955435e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406604839209625e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740454795094e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243657539826e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.6921101083398533e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141653237115e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.767069663668397e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.02519887797029e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.174960442176307e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.395398531637439e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.194378445853263e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.6958565778090433e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9426491766395708e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.1597770472873856e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425924151652e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6762855537649483e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.2061027948587906e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652868545236e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.0896080816883752e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.795516717807592e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.267465693499276e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.992018067333234e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.9914819323760337e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378180326523e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9426491766395708e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.1597770472873856e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425924151652e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6762855537649483e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652868545236e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.0896080816883752e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.795516717807592e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.267465693499276e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.049748388027219e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316864699476597e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378180326523e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.80407368217741e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.562483505836129e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.30440859646076e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.758315286311864e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.6806392785452246e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212962075826e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857035843299e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 6.030513974293953e-08], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.487825410443982e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2485993442919724e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.6703995219962707e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.633732846749638e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.996009033666617e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4957409661880169e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730915603896484e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.758315286311864e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.6806392785452246e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212962075826e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857035843299e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.487825410443982e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2485993442919724e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.6703995219962707e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.633732846749638e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.049748388027219e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316864699476597e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730915603896484e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.80407368217741e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.562483505836129e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.30440859646076e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00014168997648655326], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.000111379299064558], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.410912271306823e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.632805219352322e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060148980048807], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752239512693446e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012043648001357026], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3070856059267243e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.809423235492503e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.184292006126974e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.88800361126603e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8089264402697242e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.495231027626077e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.640787415241271e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.509124250339245e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00014168997648655326], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.000111379299064558], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.410912271306823e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.632805219352322e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060148980048807], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752239512693446e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.33941616689283e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.093858276827514e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00012062821569950021], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001456194670751316], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.88800361126603e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179612716022], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00031688194945127767], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.271005115380369e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243332003334055e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022347007321], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163373823098723e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003426502670808619], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.9420041284960394e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1745051934616784e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.24653763034751e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5286996191860338e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.455492328395094e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.944178416626304e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.304364411884604e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8518916881246864e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179612716022], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00031688194945127767], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.271005115380369e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243332003334055e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022347007321], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163373824244124e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.234594458749791e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5362429412564028e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003449670128974452], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0004164358420231673], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5286996191860338e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003070960080894382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.269211398770625e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956198466084944e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120297960097615], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00019474643097784812], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962649529688e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009608535514e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00029174120768496627], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.5044046244331075e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.7027557547675227e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.677053107043728e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.7833854873210287e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003070960080894382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.269211398770625e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956198466084944e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120297960097615], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962649529688e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009608535514e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00029174120768496627], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.5044046244331075e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6087177841088403e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.957872055426177e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.7833854873210287e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494262316809e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.60700925526533e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476802215969629e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0001834984644705913], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.9534453587864646e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478099233042472e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019864006508], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.737321548892406e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.432890389657169e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1180949735189047e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00017432354124706175], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.7522023122165537e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.3513778773837614e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.838526553521864e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631507738379636e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0001834984644705913], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.9534453587864646e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478099233042472e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019864006508], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.432890389657169e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1180949735189047e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00017432354124706175], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.7522023122165537e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6087177841088403e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.957872055426177e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631507738379636e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494262316809e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.60700925526533e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476802215969629e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00029357500067370287], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753097218873], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.324394786341567e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053770158118e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498736536347], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002853741572624e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00024953875057264743], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7638162785896676e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.991166145779388e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.7657175255389934e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310758081179e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8110234568115392e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.1657328482511466e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.376376934106844e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.449644057684628e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00029357500067370287], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753097218873], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.324394786341567e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053770158118e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498736536347], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002853741572624e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9664293717897517e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5842512894045628e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00039941107638529253], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003177145017025995], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310758081179e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0008352415512125068], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552906790463], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825281917194], ["'market for corrugated board box' (kilogram, RER, None)", 3.385635263405493e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248104804521], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135590655286474e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007099553185306308], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.335318766578021e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017133260880110808], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00013628779382693687], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447509214601e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.461816663869279e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011851803314742698], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.6214469790273387e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2659550699328094e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0008352415512125068], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552906790463], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825281917194], ["'market for corrugated board box' (kilogram, RER, None)", 3.385635263405493e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248104804521], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135590659145683e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.43970046621873e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0809646526848926e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011422173920073871], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009085852921795791], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447509214601e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004027011500917893], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.551341798673077e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999548302656e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997473072694], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00046844761900500636], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438397664514e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.767399760471116e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256609258719977], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315866138089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5571255258122894e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2386270429852568e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.153502042957721e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004027011500917893], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.551341798673077e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999548302656e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997473072694], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438397664514e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.767399760471116e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256609258719977], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315866138089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.32661200387578e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.271711447523919e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.153502042957721e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0008346983236500884], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609210925726e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816900065357072e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062521405639168], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.1220261732511586e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.920999774151328e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331648715129], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00023422380950250318], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.847702286642988e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0560708495360433e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00022859395335357208], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0061579330690445e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.785627629061447e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.193135214926284e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.481833784199061e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062521405639168], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.1220261732511586e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.920999774151328e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331648715129], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.847702286642988e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0560708495360433e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00022859395335357208], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0061579330690445e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.32661200387578e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.271711447523919e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.481833784199061e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0008346983236500884], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609210925726e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816900065357072e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003176423600629889], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00014298353991674143], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.8239456274580025e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092510417329e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553516954656], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621156399821e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002699960060535406], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0079982529161646e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.122725426370338e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.036450860246998e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3605872210653873e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.9549885776948007e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.7084277118188204e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.43220623386822e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.49793834174153e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003176423600629889], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00014298353991674143], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.8239456274580025e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092510417329e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553516954656], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621156399821e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9986255611610197e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.621470822578813e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00040818169509135587], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003357633906831332], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3605872210653873e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009037148835594895], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679824032650375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407153177625], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535835844443e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006330533027543198], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4539016192168857e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007681576510255661], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.071740578993977e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017509488048698404], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00014403010098321145], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.8709664602480435e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.895997178372675e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0001339580841954087], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.6382843865508e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.27969513384759e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009037148835594895], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679824032650375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407153177625], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535835844443e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006330533027543198], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4539016196092572e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.531300892317267e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0921895910338668e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011672992032465603], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009602006732214096], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.8709664602480435e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004126359714556392], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.8163358380385786e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551216100703e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710703390931], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0004793738351618023], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.4545200380261523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131641617839e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003920041728828572], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352749115739738e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5913182537355475e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.3089916057210618e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.26084291926656e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004126359714556392], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.8163358380385786e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551216100703e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710703390931], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.4545200380261523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131641617839e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003920041728828572], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352749115739738e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.443578421792714e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.514381030624674e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.26084291926656e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001287200817883402], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191702221403e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.70091453786396e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024656154802698877], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2803675324239785e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9407756080503516e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140468927287], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00023968691758090115], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.0641724599561425e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1240288333653137e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00023423347062563932], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176374557869869e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.956591268677737e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.544958028605309e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5459729637380466e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024656154802698877], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2803675324239785e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9407756080503516e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140468927287], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.0641724599561425e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1240288333653137e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00023423347062563932], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176374557869869e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.443578421792714e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.514381030624674e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5459729637380466e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001287200817883402], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191702221403e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.70091453786396e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636306800003], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080032925773], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003240164759181892], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300854319126e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822020173001901], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204157856354313e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009517140860780003], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011086595555413368], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.329631705477664e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.305992086331078e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956871172489], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.5859036363646925e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00018210252332859981], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4180739570837162e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.338776546466878e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636306800003], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080032925773], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003240164759181892], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300854319126e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822020173001901], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204157856354313e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.925176976445853e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.453826380558107e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00035530878036517757], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0004203994724220719], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956871172489]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003185521878836057], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363615001417], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925266246438], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805017486875], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733030259502853], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1726825286559048e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0027076935970106485], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00033435763696150266], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00015241435170210876], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001803358559819354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229983552544], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.9862248659696526e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0005180945029912276], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.2767308950459854e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.8089135547367514e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003185521878836057], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363615001417], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925266246438], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805017486875], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733030259502853], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1726825290033098e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002539275703157834], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8511539300306573e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010160956780140584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012022390398795694], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229983552544]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008862513639475971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006035256227173312], ["'market for polysulfone' (kilogram, GLO, None)", 3.468695123717874e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644040346003802], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005029740447802524], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.47864135226874e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.403790340562624e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387957502172], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310755028083e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.385190356909749e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.6389499144931615e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439596953714e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008862513639475971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006035256227173312], ["'market for polysulfone' (kilogram, GLO, None)", 3.468695123717874e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644040346003802], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.47864135226874e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.403790340562624e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387957502172], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310755028083e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.738456508777253e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.65232379779562e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439596953714e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983691202701], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049789827756e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.7183216581917e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295600077353932], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036062346015593334], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347561858937e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693564002535], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0002514870223901262], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576175974267e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.619028063673379e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005030820073486235], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655377514041e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.925951784548745e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.194749572465808e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.9260216559679145e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295600077353932], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036062346015593334], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347561858937e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693564002535], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576175974267e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.619028063673379e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005030820073486235], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655377514041e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.738456508777253e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.65232379779562e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.9260216559679145e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983691202701], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049789827756e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.7183216581917e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686906019458352e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403610679755913e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275218595183991e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.71776980569267e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197077547223513e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.36453712237788e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.8338701165396e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.0962646917127644e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5031202878174797e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4162057711197375e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195605591063444e-11], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.39758059456848e-12], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.1964204834059625e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.661586813292762e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.965450100650983e-11]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686906019458352e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403610679755913e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275218595183991e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.71776980569267e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197077547223513e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.36453712237788e-13], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.310300067100655e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.441057875528508e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6687468585449865e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.441371807464917e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195605591063444e-11]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964811169841e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089477968043231e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957007956104166e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.0259940680182063e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.8795616320835273e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3162889737481844e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.375270089494365e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5369686854134434e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.158308059222723e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.050000007691511e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472004641032334e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6278417336401965e-11], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.4039005302535836e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9138118370464316e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.266226648354223e-10]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964811169841e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089477968043231e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957007956104166e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.0259940680182063e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.8795616320835273e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.316288973958655e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.510817765569482e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9425412246976212e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.772205372815148e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.700000005127674e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472004641032334e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.862272559209002e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1073181917009404e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622017828901886e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.8394155094447025e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.9507208599422013e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322734191438e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.039437514319005e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158931248551e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747797963388e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.505699223656159e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.680769489883488e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.253390643233457e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.862272559209002e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1073181917009404e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622017828901886e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.8394155094447025e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322734191438e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.039437514319005e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158931248551e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747797963388e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.2254683391857567e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2694043178434964e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.253390643233457e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499872164426e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.61887516496842e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.91578847302717e-13]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.1004000189634326e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.616536278722885e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811008914450943e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.559610339629802e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.753604299711007e-10], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541239781439e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.413677031537853e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.895380018015261e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873898981694e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.2528496118280793e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.840384744941744e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3464640126654137e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.1004000189634326e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.616536278722885e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811008914450943e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.559610339629802e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541239781439e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.413677031537853e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.895380018015261e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873898981694e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.2254683391857567e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2694043178434964e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3464640126654137e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499872164426e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.61887516496842e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.91578847302717e-13]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.5764671309540976e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957246521486e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361812397713e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361617334485e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.3557951204766808e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.208637299736349e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1899970613109831e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3593538848129356e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.392476953002132e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.8383310119206513e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545048886729941e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 3.560290294448072e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 8.974191164634406e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6328196845621026e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.996485158091182e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.5764671309540976e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957246521486e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361812397713e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361617334485e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.3557951204766808e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.208637299736349e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9976567720607878e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.4218797897080685e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.594984635334755e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5588873412804344e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545048886729941e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.330230428911658e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.630866709573718e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616818947894e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.866521756731354e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692680715021e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.66096963580876e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.23069586457491e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.115511571961382e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.841895348590044e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0976682163574437e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647711703583e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.0737383210190038e-08], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.5532205848678167e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0956122636261596e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.525211294850968e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.330230428911658e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.630866709573718e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616818947894e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.866521756731354e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692680715021e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660969636873829e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.683474196567312e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.30408175750773e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.5612635657266956e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.317788109049625e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647711703583e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909811620178e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.1152941902530876e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607254173249e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.7115902409533615e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.538955246422292e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348834028274e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899465221438e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734643210391683e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654249323882e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.218133236150798e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.975959686692064e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154712494720314e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909811620178e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.1152941902530876e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607254173249e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.7115902409533615e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348834028274e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899465221438e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734643210391683e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654249323882e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1270978214875515e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.4404562240925375e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154712494720314e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.230645565363294e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.616759826094621e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997085372593382e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137054764682947e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.056531522719786e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.9113036270866244e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.1410601606355743e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.269477623211146e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.7048877422264079e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7347970441366384e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.6730202026448804e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327124661941e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.109066618075399e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.987979843346032e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.1603453182246133e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137054764682947e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.056531522719786e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.9113036270866244e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.1410601606355743e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.7048877422264079e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7347970441366384e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.6730202026448804e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327124661941e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1270978214875515e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.4404562240925375e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.1603453182246133e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.230645565363294e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.616759826094621e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997085372593382e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187285062364], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295544821223], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126089299009], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786647084929], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770349211674364], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251220468934611e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04072450919230301], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00406374570712017], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003989869034384893], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0022331255834327933], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662079349175], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011613851456804271], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004949791443627285], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.147008716069105e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.472179480396816e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187285062364], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295544821223], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126089299009], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786647084929], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770349211674364], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251220468934611e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002314786320264544], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.7646724773794037e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002659912689589929], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.014887503889551955], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662079349175]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.136310701853276], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895352188572], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157736179865], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316606741716], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003415552381751155], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868760149932323e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11586409657528463], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012255740773205192], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001141004361759347], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006386189644551489], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081324614357], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00035025900509403], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014082505233981853], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2506851430027851e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.878595141410658e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.136310701853276], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895352188572], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157736179865], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316606741716], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003415552381751155], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.186876015342907e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006585730094273773], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.337900953351902e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.007606695745062313], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04257459763034326], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081324614357]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099308256553427], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001738248751372966], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004331310816344782], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004554069842334873], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0035366365212550458], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720685559372], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668072052472295], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342843725756], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6488608031235652e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0369812432034526e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.803973322378684e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144162804813e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099308256553427], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001738248751372966], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004331310816344782], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004554069842334873], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720685559372], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668072052472295], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342843725756], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6488608031235652e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003547303442322098], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0020016436281396098], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144162804813e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010652108700015112], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675746412917e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322724885320458e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0036445074827686956], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0010386523052815675], ["'market for polysulfone' (kilogram, GLO, None)", 0.0002165655408172391], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003036046561556582], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0017683182606275229], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0001347229698747019], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00039843597779739827], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0034622821086302607], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.244304015617826e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.184906216017263e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.901986661189342e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.087439565033411e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0036445074827686956], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0010386523052815675], ["'market for polysulfone' (kilogram, GLO, None)", 0.0002165655408172391], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003036046561556582], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0001347229698747019], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00039843597779739827], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0034622821086302607], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.244304015617826e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003547303442322098], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0020016436281396098], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.087439565033411e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010652108700015112], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675746412917e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322724885320458e-05]]</t>
   </si>
 </sst>
 </file>

--- a/results/sterilization_CONSQ/data_sterilization_CONSQ_recipe.xlsx
+++ b/results/sterilization_CONSQ/data_sterilization_CONSQ_recipe.xlsx
@@ -79,16 +79,16 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00032945167448862346], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503862951], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.63892056722473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137785213091464e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645880411313], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.119401863092894e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028003392331532996], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.956358597772661e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1311259048455515e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.57127260238284e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047304358392e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.610646770896708e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.795519928713639e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2223661278506547e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8473084366304813e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00032945167448862346], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503862951], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.63892056722473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137785213091464e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645880411313], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.119401863092894e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.231538957753654e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4815774185671031e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003420750603230368], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00023808484015885598], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047304358392e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373132147422808], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142785960015], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001399039507806364], ["'market for corrugated board box' (kilogram, RER, None)", 6.07330030126587e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000869946882061697], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121197348383e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007967162325309387], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.916001939652542e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001467375742840076], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001021296082961387], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8854838811935067e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.873378990829929e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0001364359190986134], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.702373900602926e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.255722594357143e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373132147422808], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142785960015], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001399039507806364], ["'market for corrugated board box' (kilogram, RER, None)", 6.07330030126587e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000869946882061697], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1471211976917005e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5038150629047625e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.468249267068617e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0009782504952267174], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0006808640553075914], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8854838811935067e-05]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00032945167448862346], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503862951], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.63892056722473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137785213091464e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645880411313], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028003392331532996], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.956358597772661e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1311259048455515e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.57127260238284e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047304358392e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.610646770896708e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.795519928713639e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2223661278506547e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8473084366304813e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00032945167448862346], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503862951], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.63892056722473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137785213091464e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645880411313], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.231538957753654e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4815774185671031e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003420750603230368], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00023808484015885598], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047304358392e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373132147422808], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142785960015], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001399039507806364], ["'market for corrugated board box' (kilogram, RER, None)", 6.07330030126587e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000869946882061697], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121309851124e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007967162325309387], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.916001939652542e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001467375742840076], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001021296082961387], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8854838811935067e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.873378990829929e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0001364359190986134], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.702373900602926e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.255722594357143e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373132147422808], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142785960015], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001399039507806364], ["'market for corrugated board box' (kilogram, RER, None)", 6.07330030126587e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000869946882061697], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121310194442e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5038150629047625e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.468249267068617e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0009782504952267174], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0006808640553075914], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8854838811935067e-05]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317415353674], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.9310921829082434e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118264995002e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599291760822626], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005279123113127134], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4955512956489453e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.802289506576002e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351544585991], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013061077738e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.333597988802278e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.281865321389215e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761043889420144e-06]]</t>
@@ -103,16 +103,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004062782557571315], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.543993668195849e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.009559132497501e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732861173881751], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617822977656e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.4670304622143975e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000385964342969275], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.752506530538869e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.56196943518293e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.2010806297425175e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978113151488926e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414392301742], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.212541559450556e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.628021274492795e-06]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723806794246], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04281944319305992], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01976277298328711], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907764253986], ["'autoclave - CONSQ' (unit, GLO, None)", 0.051298370574034025], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.86835341474663e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1289596523577511], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013474044685442449], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004871826561002786], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.021457942514903322], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.003765571347660146], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.001198432544234157], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.042624537356936984], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0033182097815479153], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.027353649437289834]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723806794246], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04281944319305992], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01976277298328711], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907764253986], ["'autoclave - CONSQ' (unit, GLO, None)", 0.051298370574034025], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.86835341474663e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.18235766291526556], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.022121398543652766], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.03247884374001857], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.14305295009935548], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.003765571347660146]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.43164622661583624], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433133800145], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.059602012551743425], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055159866206], ["'autoclave - CONSQ' (unit, GLO, None)", 0.07694755586105104], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698208715613065], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3668992926234608], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.040636006958316914], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013932225112988448], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.06136443525554228], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315666047208], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.003614320298283433], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.12126981050846859], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.010007299138455293], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07782305896243022]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.43164622661583624], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433133800145], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.059602012551743425], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055159866206], ["'autoclave - CONSQ' (unit, GLO, None)", 0.07694755586105104], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698208718442952], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5188203930828682], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06671532758970196], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.09288150075325631], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.40909623503694853], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315666047208]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723806794246], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04281944319305992], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01976277298328711], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907764253986], ["'autoclave - CONSQ' (unit, GLO, None)", 0.051298370574034025], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1289596523577511], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013474044685442449], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004871826561002786], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.021457942514903322], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.003765571347660146], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.001198432544234157], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.042624537356936984], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0033182097815479153], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.027353649437289834]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723806794246], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04281944319305992], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01976277298328711], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907764253986], ["'autoclave - CONSQ' (unit, GLO, None)", 0.051298370574034025], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.18235766291526556], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.022121398543652766], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.03247884374001857], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.14305295009935548], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.003765571347660146]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.43164622661583624], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433133800145], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.059602012551743425], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055159866206], ["'autoclave - CONSQ' (unit, GLO, None)", 0.07694755586105104], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698213890636079], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3668992926234608], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.040636006958316914], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013932225112988448], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.06136443525554228], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315666047208], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.003614320298283433], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.12126981050846859], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.010007299138455293], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07782305896243022]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.43164622661583624], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433133800145], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.059602012551743425], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055159866206], ["'autoclave - CONSQ' (unit, GLO, None)", 0.07694755586105104], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698213893465968], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5188203930828682], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06671532758970196], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.09288150075325631], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.40909623503694853], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315666047208]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469573757346], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020296080960062884], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135481129035], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259674114806805], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.05095178069032697], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0016833828934874758], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714495510692], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809046095069475], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007574698738365294], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00012662051612125463], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0005576996064779639], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234066384025]]</t>
@@ -127,16 +127,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0931454709563639], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012127476726619266], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067740564517], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839782743204537], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684187814304], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.004113212176344164], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0884881974085457], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003787349369182647], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004331432180180747], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.019233649117895612], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253776117626], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.04710111535816824], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.033035407409446806], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.001203580463941589]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0025758802609461774], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865721222164], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573417510250136], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014282642363673916], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422926539710404], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.49957697702585e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021894982218042505], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023566311434408308], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0023834238596475983], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009652248746716008], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012908718676357128], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0002908103254844467], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0053068537607429645], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00017302760906542033], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001426861446252349]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0025758802609461774], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865721222164], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573417510250136], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014282642363673916], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422926539710404], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.49957697702585e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009512409641682327], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001153517393769469], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.015889492397650654], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006434832497810672], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012908718676357128]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00732856074241025], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733627727995], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0014347538323559892], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004307463569220237], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03363438980956561], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633644857825565e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006229276631048713], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007107300129894392], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.006816005729367165], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0027603056205266017], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00036726213701925205], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.000877046995599179], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01509837267140956], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0005218292866105688], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.004059521297788373]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00732856074241025], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733627727995], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0014347538323559892], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004307463569220237], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03363438980956561], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633644861924302e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02706347531858915], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.003478861910737126], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0454400381957811], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018402037470177345], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00036726213701925205]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0025758802609461774], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865721222164], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573417510250136], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014282642363673916], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422926539710404], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021894982218042505], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023566311434408308], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0023834238596475983], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009652248746716008], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012908718676357128], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0002908103254844467], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0053068537607429645], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00017302760906542033], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001426861446252349]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0025758802609461774], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865721222164], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573417510250136], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014282642363673916], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422926539710404], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009512409641682327], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001153517393769469], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.015889492397650654], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006434832497810672], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012908718676357128]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00732856074241025], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733627727995], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0014347538323559892], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004307463569220237], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03363438980956561], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633647944256064e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006229276631048713], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007107300129894392], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.006816005729367165], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0027603056205266017], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00036726213701925205], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.000877046995599179], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01509837267140956], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0005218292866105688], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.004059521297788373]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00732856074241025], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733627727995], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0014347538323559892], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004307463569220237], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03363438980956561], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633647948354806e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02706347531858915], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.003478861910737126], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0454400381957811], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018402037470177345], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00036726213701925205]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239961846699766], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014142962062695119], ["'market for polysulfone' (kilogram, GLO, None)", 5.2525208840469945e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484585307942081], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.03185291955069402], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.632351544531893e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001307720348047313], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537796375436477], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.777505021870645e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.194603922479807e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5086539978994773e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0425208849081916e-05]]</t>
@@ -151,16 +151,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225192003740616], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008450815879099788], ["'market for polysulfone' (kilogram, GLO, None)", 2.6262604420234972e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02989723538628054], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597680149988e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0007813995281688656], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002113932403553585], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8887525109353224e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002119048918392377], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651713250888061], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4155194343785614e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0015929806334395542], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269388827405], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.3540235529911023e-05]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0034951471150380816], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.003493197834179931], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924522399903], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011618948462], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026502076669664358], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.335944670475129e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002970875047782369], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031939364351115046], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002942574738750691], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012373019478184187], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294154091305534], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003745970129345763], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.006952512263170974], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00025052156099333444], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0020657565125103013]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0034951471150380816], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.003493197834179931], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924522399903], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011618948462], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026502076669664358], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.335944670475129e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013771710083402009], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001670143739955563], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.019617164925004607], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.008248679652122792], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294154091305534]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943939679404119], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839383808938], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200554037345], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781071931609], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03975311500449654], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.02903948340347e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008452348727493501], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009632506513937774], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008415039648626022], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0035383790974240006], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358015869183246], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011297370002505914], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01978038700226108], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0007555412003889511], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005877222753902547]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943939679404119], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839383808938], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200554037345], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781071931609], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03975311500449654], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.0290394840477e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03918148502601698], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005036941335926341], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.05610026432417348], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.023589193982826672], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358015869183246]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0034951471150380816], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.003493197834179931], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924522399903], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011618948462], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026502076669664358], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002970875047782369], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031939364351115046], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002942574738750691], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012373019478184187], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294154091305534], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003745970129345763], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.006952512263170974], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00025052156099333444], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0020657565125103013]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0034951471150380816], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.003493197834179931], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924522399903], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011618948462], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026502076669664358], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013771710083402009], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001670143739955563], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.019617164925004607], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.008248679652122792], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294154091305534]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943939679404119], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839383808938], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200554037345], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781071931609], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03975311500449654], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.0290400479788135e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008452348727493501], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009632506513937774], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008415039648626022], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0035383790974240006], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358015869183246], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011297370002505914], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01978038700226108], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0007555412003889511], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005877222753902547]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943939679404119], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839383808938], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200554037345], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781071931609], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03975311500449654], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.029040048623045e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03918148502601698], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005036941335926341], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.05610026432417348], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.023589193982826672], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358015869183246]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214792830190352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018439751155552304], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643809217301e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.053004153339328716], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.038731920318630306], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661685441919e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0018338777222267567], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954053188680836], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.0296421885980545e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.647857071276506e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.215792049556898e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102710800930042e-05]]</t>
@@ -175,16 +175,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00311598474635167], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011018267685453617], ["'market for polysulfone' (kilogram, GLO, None)", 3.3648219046086506e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03533610222621914], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.67784458376927e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010957932932733846], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002960185509034088], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.5148210942990272e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026161774760282584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090453570140656], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.0490125984691942e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0016572147215531006], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002494140629169221], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.126068145696376e-05]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.42468440504137206], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.2641046541623702], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978787486384], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805774551669235], ["'autoclave - CONSQ' (unit, GLO, None)", 2.053171962979424], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206382889407196], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3609817442851663], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.039303841588590925], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.14936433453299996], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.09709535567515583], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.023218345255408553], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.009089079502645035], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10534581032776325], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009633427192112404], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07941892477197379]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.42468440504137206], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.2641046541623702], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978787486384], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805774551669235], ["'autoclave - CONSQ' (unit, GLO, None)", 2.053171962979424], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206382889407196], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5294594984798252], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06422284794741603], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.9957622302199998], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.6473023711677055], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.023218345255408553]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082570396951713], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963400112506], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.15372802814973155], ["'market for corrugated board box' (kilogram, RER, None)", 0.0446523359414276], ["'autoclave - CONSQ' (unit, GLO, None)", 3.079757944469136], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919385318612352], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0270184837408955], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11853539286597081], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.42714524142196364], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.2776688241570114], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605782735175819], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.027411509055868265], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.29971624910152356], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.029053192530529633], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.22595243385829158]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082570396951713], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963400112506], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.15372802814973155], ["'market for corrugated board box' (kilogram, RER, None)", 0.0446523359414276], ["'autoclave - CONSQ' (unit, GLO, None)", 3.079757944469136], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919385320358327], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5063495590552773], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.1936879502035309], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.8476349428130905], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.8511254943800761], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605782735175819]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.42468440504137206], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.2641046541623702], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978787486384], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805774551669235], ["'autoclave - CONSQ' (unit, GLO, None)", 2.053171962979424], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3609817442851663], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.039303841588590925], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.14936433453299996], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.09709535567515583], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.023218345255408553], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.009089079502645035], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10534581032776325], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009633427192112404], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07941892477197379]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.42468440504137206], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.2641046541623702], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978787486384], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805774551669235], ["'autoclave - CONSQ' (unit, GLO, None)", 2.053171962979424], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5294594984798252], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06422284794741603], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.9957622302199998], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.6473023711677055], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.023218345255408553]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082570396951713], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963400112506], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.15372802814973155], ["'market for corrugated board box' (kilogram, RER, None)", 0.0446523359414276], ["'autoclave - CONSQ' (unit, GLO, None)", 3.079757944469136], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919386366850966], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0270184837408955], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11853539286597081], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.42714524142196364], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.2776688241570114], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605782735175819], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.027411509055868265], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.29971624910152356], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.029053192530529633], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.22595243385829158]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082570396951713], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963400112506], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.15372802814973155], ["'market for corrugated board box' (kilogram, RER, None)", 0.0446523359414276], ["'autoclave - CONSQ' (unit, GLO, None)", 3.079757944469136], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919386368596943], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5063495590552773], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.1936879502035309], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.8476349428130905], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.8511254943800761], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605782735175819]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322461089981052], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.06762233426392682], ["'market for polysulfone' (kilogram, GLO, None)", 0.008388736573132282], ["'autoclave - CONSQ' (unit, GLO, None)", 4.106343925958848], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.140538093141574], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.032035708158735486], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.461299580415744], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1256338035482], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003957377094846856], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0038820325173446538], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.002523543047673987], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271104744106625]]</t>
@@ -199,16 +199,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902075342605978], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04040623835700841], ["'market for polysulfone' (kilogram, GLO, None)", 0.004194368286566141], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375626173058984], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.019142232723663093], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.27563941711207257], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07506971575475682], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0001978688547423428], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.13279649369011035], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703061818420738], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.004344688702626353], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.12478441363795054], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840030982561], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486257532289734]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236425718676], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059965145626], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324873069173], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044065811797], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280172577093173], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.676424599877709e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.09993650961860874], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01005179937091735], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001200963437257253], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006543976031724323], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808021860117], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003530771650647478], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014280960376284109], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2034796661213002e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00010113104803440157]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236425718676], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059965145626], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324873069173], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044065811797], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280172577093173], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.676424599877709e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006742069868960104], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.023197774142001e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008006422915048354], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04362650687816215], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808021860117]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.33450165605565807], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.03284935370365375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367738919338], ["'market for corrugated board box' (kilogram, RER, None)", 0.003039410114538076], ["'autoclave - CONSQ' (unit, GLO, None)", 0.01992025886563976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.05588371519455e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2843264076473094], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030314949869619665], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.003434459899346745], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018714161119299508], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269284796484683], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0010648358730690054], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.04063033797196324], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.629541776682344e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00028772495356266356]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.33450165605565807], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.03284935370365375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367738919338], ["'market for corrugated board box' (kilogram, RER, None)", 0.003039410114538076], ["'autoclave - CONSQ' (unit, GLO, None)", 0.01992025886563976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.05588371600297e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0019181663570844239], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00024196945177882293], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0228963993289783], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.1247610741286634], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269284796484683]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236425718676], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059965145626], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324873069173], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044065811797], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280172577093173], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.09993650961860874], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01005179937091735], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001200963437257253], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006543976031724323], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808021860117], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003530771650647478], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014280960376284109], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2034796661213002e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00010113104803440157]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236425718676], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059965145626], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324873069173], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044065811797], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280172577093173], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006742069868960104], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.023197774142001e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008006422915048354], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04362650687816215], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808021860117]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.33450165605565807], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.03284935370365375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367738919338], ["'market for corrugated board box' (kilogram, RER, None)", 0.003039410114538076], ["'autoclave - CONSQ' (unit, GLO, None)", 0.01992025886563976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055884663599694e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2843264076473094], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030314949869619665], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.003434459899346745], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018714161119299508], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269284796484683], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0010648358730690054], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.04063033797196324], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.629541776682344e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00028772495356266356]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.33450165605565807], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.03284935370365375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367738919338], ["'market for corrugated board box' (kilogram, RER, None)", 0.003039410114538076], ["'autoclave - CONSQ' (unit, GLO, None)", 0.01992025886563976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055884664408114e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0019181663570844239], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00024196945177882293], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0228963993289783], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.1247610741286634], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269284796484683]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0338324205565888], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.006149296255247429], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011275973986166596], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560345154186347], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0124126627034299], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426941282114], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633866841545], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079952875935], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235444577208e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.121346960203956e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00017008027937250375], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0002561292338222575]]</t>
@@ -223,16 +223,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215818694879442], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.003674376711806788], ["'market for polysulfone' (kilogram, GLO, None)", 0.0005637986993083298], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706896769457563], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0003197029925903215], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013617444415605976], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.019205027760135468], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117722288604e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010677497678172317], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005865638736923963], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001530443897816015], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0277338871874], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001198159359917132], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.411349430421446e-05]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768424580772e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795803069995e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.66479729601317e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377391374474e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291685085645123e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558940511426166e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3691531608936562e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5845249746745842e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9634541238255353e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.7580872607374447e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.5907667114856755e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 4.040932751631894e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 7.744093267148329e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1294337323139795e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.5823793358584414e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768424580772e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795803069995e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.66479729601317e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377391374474e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291685085645123e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558940511426166e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.054919557238961e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.41962248820932e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3089694158836902e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5053915071582963e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.5907667114856755e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.582749602328393e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406693267801e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.4068436004574863e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.1021773081307284e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7437527628467686e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0422537617190929e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.895337161979134e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.778726017293819e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.614995630413455e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0747204781447806e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.525843320370414e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2186939797729512e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.203249070371778e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.546972046661962e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.3037191913287395e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.582749602328393e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406693267801e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.4068436004574863e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.1021773081307284e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7437527628467686e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0422537618857461e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.69146127552493e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0313146977746415e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.743330420275636e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.164803187631871e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.525843320370414e-06]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768424580772e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795803069995e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.66479729601317e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377391374474e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291685085645123e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3691531608936562e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5845249746745842e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9634541238255353e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.7580872607374447e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.5907667114856755e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 4.040932751631894e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 7.744093267148329e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1294337323139795e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.5823793358584414e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768424580772e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795803069995e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.66479729601317e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377391374474e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291685085645123e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.054919557238961e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.41962248820932e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3089694158836902e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5053915071582963e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.5907667114856755e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.582749602328393e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406693267801e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.4068436004574863e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.1021773081307284e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7437527628467686e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0422545851655978e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.895337161979134e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.778726017293819e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.614995630413455e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0747204781447806e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.525843320370414e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2186939797729512e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.203249070371778e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.546972046661962e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.3037191913287395e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.582749602328393e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406693267801e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.4068436004574863e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.1021773081307284e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7437527628467686e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.042254585332251e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.69146127552493e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0313146977746415e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.743330420275636e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.164803187631871e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.525843320370414e-06]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.1183517361334445e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2403929306422765e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126690849697366e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583370171290246e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.8681012979805817e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.6732486665424977e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328778864535e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.862434149326772e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.64055266883484e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.103087546860905e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.767403305174551e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677744651515e-07]]</t>
@@ -247,16 +247,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358492004032e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.411695108936276e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563345424848683e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891344752683e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129343921365e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7423515496679583e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9054405674038307e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.82027633441742e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.7456632065522443e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.368530402076303e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.976691957966268e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.8922751406692313e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067576881080537e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.105538547307704e-08]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008895951518e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.6100637032266782e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219459120827e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.0183387299244326e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516736438245], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299126024654753e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6061607561558792e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7599960481711845e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0976802956943384e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.31034845479275e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152233318279e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.4713781819128307e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 5.782134471463924e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.156519292770127e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.266188765188525e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008895951518e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.6100637032266782e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219459120827e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.0183387299244326e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516736438245], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299126024654753e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.844125843459017e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.437679528513418e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3984535304628923e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.206898969861833e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152233318279e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047601383389e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.425815042982944e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788448029876e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879934203146e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751046573676], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010847532258647e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.569640461175882e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.307924482198349e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.998849451791267e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.466781975314158e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2126545792371094e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.453362619863144e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6450579763883278e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5551407075864362e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2137607472789887e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047601383389e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.425815042982944e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788448029876e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879934203146e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751046573676], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.0108475328999695e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.091738315193258e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0367604717242909e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.999232967860844e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.311187983542773e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2126545792371094e-05]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008895951518e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.6100637032266782e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219459120827e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.0183387299244326e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516736438245], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6061607561558792e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7599960481711845e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0976802956943384e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.31034845479275e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152233318279e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.4713781819128307e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 5.782134471463924e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.156519292770127e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.266188765188525e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008895951518e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.6100637032266782e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219459120827e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.0183387299244326e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516736438245], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.844125843459017e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.437679528513418e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3984535304628923e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.206898969861833e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152233318279e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047601383389e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.425815042982944e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788448029876e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879934203146e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751046573676], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010848745520078e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.569640461175882e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.307924482198349e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.998849451791267e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.466781975314158e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2126545792371094e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.453362619863144e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6450579763883278e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5551407075864362e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2137607472789887e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047601383389e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.425815042982944e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788448029876e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879934203146e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751046573676], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010848746161401e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.091738315193258e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0367604717242909e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.999232967860844e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.311187983542773e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2126545792371094e-05]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348454181037e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.0619203802001945e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756899603499e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103347287649], ["'cabinet washer - CONSQ' (unit, GLO, None)", 7.722947814340194e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.5525177514527734e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070773782105e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507731031471985e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922067303833e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.451946171982194e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.603714122454255e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.4355089855573317e-06]]</t>
@@ -271,16 +271,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.206281598539229e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2320551673115878e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.2313784498017496e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00017740223152509934], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568410573327e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9303196164700336e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.095967518612268e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610336519163e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.86500069793768e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.967203430302345e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848221960285e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126956464e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.133723509544594e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638196471914e-07]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035172525470250635], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803323310373], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558236224846], ["'market for corrugated board box' (kilogram, RER, None)", 0.00027532070733822615], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002716221267387766], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.5570893512881943e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002989664664971304], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004097774875572649], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0007318416474956008], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00036641453436241713], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206103740602e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.928836911853068e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.001196113468323872], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.686431833830248e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.322450639215064e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035172525470250635], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803323310373], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558236224846], ["'market for corrugated board box' (kilogram, RER, None)", 0.00027532070733822615], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002716221267387766], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.5570893512881943e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00042149670928100425], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.124287889220165e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004878944316637338], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0024427635624161143], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206103740602e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.010006831190127645], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00506018629761788], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175300126624], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322918227148], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004074331901081649], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727729792310272e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0085058065116085], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001235836842201466], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00209288702138656], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0010478554015584528], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790980747629787], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0002089649185053588], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.003403027050724256], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.318130188640517e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00017987817311569616]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.010006831190127645], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00506018629761788], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175300126624], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322918227148], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004074331901081649], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727729794025602e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001199187820771308], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00015454201257603448], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013952580142577066], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006985702677056353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790980747629787]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035172525470250635], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803323310373], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558236224846], ["'market for corrugated board box' (kilogram, RER, None)", 0.00027532070733822615], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002716221267387766], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002989664664971304], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004097774875572649], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0007318416474956008], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00036641453436241713], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206103740602e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.928836911853068e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.001196113468323872], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.686431833830248e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.322450639215064e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035172525470250635], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803323310373], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558236224846], ["'market for corrugated board box' (kilogram, RER, None)", 0.00027532070733822615], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002716221267387766], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00042149670928100425], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.124287889220165e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004878944316637338], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0024427635624161143], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206103740602e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.010006831190127645], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00506018629761788], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175300126624], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322918227148], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004074331901081649], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727743293219774e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0085058065116085], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001235836842201466], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00209288702138656], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0010478554015584528], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790980747629787], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0002089649185053588], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.003403027050724256], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.318130188640517e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00017987817311569616]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.010006831190127645], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00506018629761788], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175300126624], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322918227148], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004074331901081649], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727743294935105e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001199187820771308], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00015454201257603448], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013952580142577066], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006985702677056353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790980747629787]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03049272768333022], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011654749923722262], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048417751762906e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432442534775532], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.006515241714290287], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.236567102895218e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184995101868683], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.028968091299163706], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.73665698786946e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9020826370684356e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.523244900101604e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.398572733085959e-05]]</t>
@@ -295,16 +295,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258681387352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006964039448435047], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208875881453e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621628356517021], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114747697566e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002500651766161009], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.017309245747317983], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.36832849393473e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006506640626604046], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003284326342438982], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332143769917015e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001317033418733884], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.652451890400675e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.640743614128734e-06]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867515148275604], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522323023978], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.010937123931882342], ["'market for corrugated board box' (kilogram, RER, None)", 0.0050920686293278086], ["'autoclave - CONSQ' (unit, GLO, None)", 0.11495182352783817], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.9531861738669683e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04987387876034263], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0054484489672235285], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.023730070927552766], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.014557151046332996], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00757122491097363], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0046580613844389804], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10425562930888944], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002087593605788959], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.01721415039106963]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867515148275604], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522323023978], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.010937123931882342], ["'market for corrugated board box' (kilogram, RER, None)", 0.0050920686293278086], ["'autoclave - CONSQ' (unit, GLO, None)", 0.11495182352783817], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.9531861738669683e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.11476100260713085], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013917290705259726], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.15820047285035177], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.09704767364221997], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00757122491097363]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693493802136225], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.1381999308804005], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.032984976269236056], ["'market for corrugated board box' (kilogram, RER, None)", 0.01535703237139428], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17242773529175726], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.8905614782302275e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1418946973181579], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01643182988574597], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06786216339396871], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04162986979145029], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540668058328702], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01404812135103248], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.29661460732951644], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.006295917096269628], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.04897547012670513]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693493802136225], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.1381999308804005], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.032984976269236056], ["'market for corrugated board box' (kilogram, RER, None)", 0.01535703237139428], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17242773529175726], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.89056147917211e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.3265031341780342], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.041972780641797526], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.45241442262645803], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.2775324652763353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540668058328702]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867515148275604], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522323023978], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.010937123931882342], ["'market for corrugated board box' (kilogram, RER, None)", 0.0050920686293278086], ["'autoclave - CONSQ' (unit, GLO, None)", 0.11495182352783817], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04987387876034263], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0054484489672235285], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.023730070927552766], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.014557151046332996], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00757122491097363], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0046580613844389804], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10425562930888944], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002087593605788959], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.01721415039106963]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867515148275604], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522323023978], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.010937123931882342], ["'market for corrugated board box' (kilogram, RER, None)", 0.0050920686293278086], ["'autoclave - CONSQ' (unit, GLO, None)", 0.11495182352783817], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.11476100260713085], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013917290705259726], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.15820047285035177], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.09704767364221997], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00757122491097363]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693493802136225], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.1381999308804005], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.032984976269236056], ["'market for corrugated board box' (kilogram, RER, None)", 0.01535703237139428], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17242773529175726], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890562759820254e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1418946973181579], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01643182988574597], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06786216339396871], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04162986979145029], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540668058328702], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01404812135103248], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.29661460732951644], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.006295917096269628], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.04897547012670513]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693493802136225], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.1381999308804005], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.032984976269236056], ["'market for corrugated board box' (kilogram, RER, None)", 0.01535703237139428], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17242773529175726], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890562760762136e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.3265031341780342], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.041972780641797526], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.45241442262645803], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.2775324652763353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540668058328702]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032567160465985], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.02856025919231978], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311050862138833], ["'autoclave - CONSQ' (unit, GLO, None)", 0.22990364705567634], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.2674130444563259], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612104023962], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556581126541675], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380938802442686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206243041968], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006167530372473358], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00037834556618564837], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710203618431775]]</t>
@@ -319,16 +319,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787323830529502], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017065554642919544], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155525431069416], ["'autoclave - CONSQ' (unit, GLO, None)", 0.15326909803711755], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.000840937733678063], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.02483122093578987], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07397957639003028], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003684603121520984], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021097876036132328], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048181818313407], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167510636050936], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.03779789355809378], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.020783648356440868], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.000454644988468064]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002255350306961903], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772814778556], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542495335181], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395247044594e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865479452674], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197167440189926e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019170477609176178], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024367464814648617], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.219247963051977e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0014848343743966742], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031008535842], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00023422498744141057], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0017139958157684435], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.124519787136743e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9309261180657837e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002255350306961903], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772814778556], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542495335181], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395247044594e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865479452674], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197167440189926e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2872840787105226e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.083013191424495e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.128319753679847e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.009898895829311161], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031008535842]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00641663045079302], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156458947441], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635531222815], ["'market for corrugated board box' (kilogram, RER, None)", -0.0002877865232716777], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798219179012], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.567399704580354e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0054541358831740674], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007348917811104088], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.486749143692074e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0042462609250437195], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687695812296], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0007063928049581283], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004876438799791909], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.423154722699237e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.493620786609694e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00641663045079302], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156458947441], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635531222815], ["'market for corrugated board box' (kilogram, RER, None)", -0.0002877865232716777], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798219179012], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5673997048309764e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.662413857739796e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.282103148466158e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00023244994291280493], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.028308406166958133], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687695812296]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002255350306961903], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772814778556], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542495335181], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395247044594e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865479452674], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019170477609176178], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024367464814648617], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.219247963051977e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0014848343743966742], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031008535842], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00023422498744141057], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0017139958157684435], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.124519787136743e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9309261180657837e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002255350306961903], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772814778556], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542495335181], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395247044594e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865479452674], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2872840787105226e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.083013191424495e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.128319753679847e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.009898895829311161], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031008535842]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00641663045079302], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156458947441], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635531222815], ["'market for corrugated board box' (kilogram, RER, None)", -0.0002877865232716777], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798219179012], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5674007360692904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0054541358831740674], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007348917811104088], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.486749143692074e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0042462609250437195], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687695812296], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0007063928049581283], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004876438799791909], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.423154722699237e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.493620786609694e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00641663045079302], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156458947441], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635531222815], ["'market for corrugated board box' (kilogram, RER, None)", -0.0002877865232716777], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798219179012], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5674007363199128e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.662413857739796e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.282103148466158e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00023244994291280493], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.028308406166958133], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687695812296]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258745874309], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001875279506326794], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662077826571], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002465173095890535], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0011018532044060469], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.260377970968837e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021707126374], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545808583138], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875019404883e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.1688690972129507e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.859137686247595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109847015427e-05]]</t>
@@ -343,16 +343,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101305472212], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001120532018651043], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331038913286e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00164344873059369], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.338279150671603e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -7.948330467719004e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004696896240200123], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.6274375097024416e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0840061313053258e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309189981984787], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.4376442421016805e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400407415859], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.1107070053536277e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364167067788892e-06]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017001109350018612], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.002504011913258482], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158659649806749], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828277639216], ["'autoclave - CONSQ' (unit, GLO, None)", 0.176939812138178], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0199917367215622e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001445094294751582], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015385269039930468], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.024012027181061543], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.007108535379188185], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.006324266043926789], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.991077276453952e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.0030205770851318026], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.558411197387465e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -6.165525300452531e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017001109350018612], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.002504011913258482], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158659649806749], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828277639216], ["'autoclave - CONSQ' (unit, GLO, None)", 0.176939812138178], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0199917367215622e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -4.110350200301687e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -5.03894079825831e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.16008018120707695], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.047390235861254563], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.006324266043926789]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.004836935336202478], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007124090232087512], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605480985103313], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401545596452404], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409718207267], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.076165555969377e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004111395035772106], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004640001679953332], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06866848889564883], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.020328661927161026], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992982267286534], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.000210842008828313], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.008593754523896114], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -2.2795207911303716e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.7541353671710015e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.004836935336202478], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007124090232087512], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605480985103313], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401545596452404], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409718207267], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.076165556461246e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -0.00011694235781140012], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.519680527420248e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.4577899259709922], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.13552441284774017], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992982267286534]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017001109350018612], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.002504011913258482], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158659649806749], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828277639216], ["'autoclave - CONSQ' (unit, GLO, None)", 0.176939812138178], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001445094294751582], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015385269039930468], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.024012027181061543], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.007108535379188185], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.006324266043926789], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.991077276453952e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.0030205770851318026], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.558411197387465e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -6.165525300452531e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017001109350018612], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.002504011913258482], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158659649806749], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828277639216], ["'autoclave - CONSQ' (unit, GLO, None)", 0.176939812138178], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -4.110350200301687e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -5.03894079825831e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.16008018120707695], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.047390235861254563], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.006324266043926789]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.004836935336202478], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007124090232087512], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605480985103313], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401545596452404], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409718207267], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761969540485172e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004111395035772106], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004640001679953332], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06866848889564883], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.020328661927161026], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992982267286534], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.000210842008828313], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.008593754523896114], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -2.2795207911303716e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.7541353671710015e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.004836935336202478], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007124090232087512], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605480985103313], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401545596452404], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409718207267], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761969545403914e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -0.00011694235781140012], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.519680527420248e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.4577899259709922], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.13552441284774017], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992982267286534]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002078579837714], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.002947522104825776], ["'market for polysulfone' (kilogram, GLO, None)", -2.462426162423828e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.353879624276356], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.1764281599991597], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877536912736269e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835919470752997], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251974650845828], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170578758358089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.000624081181198246], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018475337888777062], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0019805201589151475]]</t>
@@ -367,16 +367,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964162056009636], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017612269973601683], ["'market for polysulfone' (kilogram, GLO, None)", -1.231213081211914e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591974951757066], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109520897645036e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013047573356993005], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008515953953209153], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.5852893791790444e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021348557043462713], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006371676833903969], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0011834162568950346], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.007114991183103746], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524997203683095e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0004015195511760592]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443044686375485], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180238710411e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.2017601010223227e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642652586807805e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262996546652379], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993528993836653e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001312658798341916], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0462617534623466e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.329175961364846e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.3103540359291365e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.23897263813833e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0034005907132652e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2771492218716964e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0915459194026874e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8364846472493133e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443044686375485], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180238710411e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.2017601010223227e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642652586807805e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262996546652379], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993528993836653e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8909897648328754e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.061030612935125e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004219450640909897], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00015402360239527576], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.23897263813833e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936549671096445], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198340775072], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228741585898e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.209688874807757e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894494819978569], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.8075722366932344e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003734606722043198], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1553925258873135e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001809988577575713], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.607044014433695e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060175675686476e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.042001659121498e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.633579476311023e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.323709726785622e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.069998573864243e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936549671096445], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198340775072], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228741585898e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.209688874807757e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894494819978569], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.8075722369822594e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.379999049242828e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.2158064845237485e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001206659051717142], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00044046960096224636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060175675686476e-05]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443044686375485], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180238710411e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.2017601010223227e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642652586807805e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262996546652379], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001312658798341916], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0462617534623466e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.329175961364846e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.3103540359291365e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.23897263813833e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0034005907132652e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2771492218716964e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0915459194026874e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8364846472493133e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443044686375485], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180238710411e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.2017601010223227e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642652586807805e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262996546652379], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8909897648328754e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.061030612935125e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004219450640909897], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00015402360239527576], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.23897263813833e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936549671096445], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198340775072], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228741585898e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.209688874807757e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894494819978569], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.807573772984471e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003734606722043198], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1553925258873135e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001809988577575713], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.607044014433695e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060175675686476e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.042001659121498e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.633579476311023e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.323709726785622e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.069998573864243e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936549671096445], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198340775072], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228741585898e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.209688874807757e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894494819978569], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.8075737732734963e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.379999049242828e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.2158064845237485e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001206659051717142], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00044046960096224636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060175675686476e-05]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099035011530573], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.3835410471566495e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.295116592280179e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525993093304757], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00012895510974951868], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637708610867e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00018454953691657042], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144083260954041], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908888124877043e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6449754867408476e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.004692834681408e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274853879660528e-06]]</t>
@@ -391,16 +391,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412208251385784], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.2168165314605396e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475582961400895e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004350662062203172], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446711170723e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011027351626494185], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0010841597838816496], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.4544440624385215e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.627128981258171e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.0708667121422387e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932096938463655e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.574330656401216e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778789074884115e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483240416984814e-07]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.13904403147717e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018430220378e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.0761387487617103e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259835123699e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427768824742e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5753967821537487e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.681874267555945e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0239070771202457e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.3054773166844186e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1509968196800795e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.47553549548713e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.930129571548307e-10], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.171716569653832e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.573861956274576e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.1221964381378016e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.13904403147717e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018430220378e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.0761387487617103e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259835123699e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427768824742e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5753967821537487e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.414797625425201e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.7159079708497171e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5369848777896125e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.67331213120053e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.47553549548713e-10]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406604839209625e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740454795094e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243657539826e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.6921101083398533e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141653237115e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.767069662426467e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.754561411332818e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.103846616873864e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.593097797456159e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.291567668779894e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.6958565778090433e-09], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0900390347950485e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.6094179536198226e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.76244066326446e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.037798316955435e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406604839209625e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740454795094e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243657539826e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.6921101083398533e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141653237115e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.767069663668397e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.02519887797029e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.174960442176307e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.395398531637439e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.194378445853263e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.6958565778090433e-09]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.13904403147717e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018430220378e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.0761387487617103e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259835123699e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427768824742e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.681874267555945e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0239070771202457e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.3054773166844186e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1509968196800795e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.47553549548713e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.930129571548307e-10], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.171716569653832e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.573861956274576e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.1221964381378016e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.13904403147717e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018430220378e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.0761387487617103e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259835123699e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427768824742e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.414797625425201e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.7159079708497171e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5369848777896125e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.67331213120053e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.47553549548713e-10]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406604839209625e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740454795094e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243657539826e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.6921101083398533e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141653237115e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.76707110763751e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.754561411332818e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.103846616873864e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.593097797456159e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.291567668779894e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.6958565778090433e-09], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0900390347950485e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.6094179536198226e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.76244066326446e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.037798316955435e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406604839209625e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740454795094e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243657539826e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.6921101083398533e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141653237115e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.76707110887944e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.02519887797029e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.174960442176307e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.395398531637439e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.194378445853263e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.6958565778090433e-09]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9426491766395708e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.1597770472873856e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425924151652e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6762855537649483e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.2061027948587906e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652868545236e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.0896080816883752e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.795516717807592e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.267465693499276e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.992018067333234e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.9914819323760337e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378180326523e-10]]</t>
@@ -415,16 +415,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.758315286311864e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.6806392785452246e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212962075826e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857035843299e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.487825410443982e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2485993442919724e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.6703995219962707e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.633732846749638e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.049748388027219e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316864699476597e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730915603896484e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.80407368217741e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.562483505836129e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.30440859646076e-08]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00014168997648655326], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.000111379299064558], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.410912271306823e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.632805219352322e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060148980048807], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752239512693446e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012043648001357026], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3070856059267243e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.809423235492503e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.184292006126974e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.88800361126603e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8089264402697242e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.495231027626077e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.640787415241271e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.509124250339245e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00014168997648655326], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.000111379299064558], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.410912271306823e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.632805219352322e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060148980048807], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752239512693446e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.33941616689283e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.093858276827514e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00012062821569950021], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001456194670751316], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.88800361126603e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179612716022], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00031688194945127767], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.271005115380369e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243332003334055e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022347007321], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163373823098723e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003426502670808619], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.9420041284960394e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1745051934616784e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.24653763034751e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5286996191860338e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.455492328395094e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.944178416626304e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.304364411884604e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8518916881246864e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179612716022], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00031688194945127767], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.271005115380369e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243332003334055e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022347007321], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163373824244124e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.234594458749791e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5362429412564028e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003449670128974452], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0004164358420231673], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5286996191860338e-05]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00014168997648655326], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.000111379299064558], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.410912271306823e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.632805219352322e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060148980048807], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012043648001357026], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3070856059267243e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.809423235492503e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.184292006126974e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.88800361126603e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8089264402697242e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.495231027626077e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.640787415241271e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.509124250339245e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00014168997648655326], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.000111379299064558], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.410912271306823e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.632805219352322e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060148980048807], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.33941616689283e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.093858276827514e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00012062821569950021], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001456194670751316], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.88800361126603e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179612716022], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00031688194945127767], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.271005115380369e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243332003334055e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022347007321], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163374610464662e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003426502670808619], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.9420041284960394e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1745051934616784e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.24653763034751e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5286996191860338e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.455492328395094e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.944178416626304e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.304364411884604e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8518916881246864e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179612716022], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00031688194945127767], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.271005115380369e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243332003334055e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022347007321], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163374611610063e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.234594458749791e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5362429412564028e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003449670128974452], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0004164358420231673], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5286996191860338e-05]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003070960080894382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.269211398770625e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956198466084944e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120297960097615], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00019474643097784812], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962649529688e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009608535514e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00029174120768496627], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.5044046244331075e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.7027557547675227e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.677053107043728e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.7833854873210287e-06]]</t>
@@ -439,16 +439,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0001834984644705913], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.9534453587864646e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478099233042472e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019864006508], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.432890389657169e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1180949735189047e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00017432354124706175], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.7522023122165537e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6087177841088403e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.957872055426177e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631507738379636e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494262316809e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.60700925526533e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476802215969629e-07]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00029357500067370287], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753097218873], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.324394786341567e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053770158118e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498736536347], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002853741572624e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00024953875057264743], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7638162785896676e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.991166145779388e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.7657175255389934e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310758081179e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8110234568115392e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.1657328482511466e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.376376934106844e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.449644057684628e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00029357500067370287], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753097218873], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.324394786341567e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053770158118e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498736536347], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002853741572624e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9664293717897517e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5842512894045628e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00039941107638529253], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003177145017025995], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310758081179e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0008352415512125068], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552906790463], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825281917194], ["'market for corrugated board box' (kilogram, RER, None)", 3.385635263405493e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248104804521], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135590655286474e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007099553185306308], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.335318766578021e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017133260880110808], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00013628779382693687], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447509214601e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.461816663869279e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011851803314742698], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.6214469790273387e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2659550699328094e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0008352415512125068], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552906790463], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825281917194], ["'market for corrugated board box' (kilogram, RER, None)", 3.385635263405493e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248104804521], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135590659145683e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.43970046621873e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0809646526848926e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011422173920073871], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009085852921795791], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447509214601e-05]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00029357500067370287], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753097218873], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.324394786341567e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053770158118e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498736536347], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00024953875057264743], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7638162785896676e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.991166145779388e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.7657175255389934e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310758081179e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8110234568115392e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.1657328482511466e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.376376934106844e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.449644057684628e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00029357500067370287], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753097218873], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.324394786341567e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053770158118e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498736536347], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9664293717897517e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5842512894045628e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00039941107638529253], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003177145017025995], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310758081179e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0008352415512125068], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552906790463], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825281917194], ["'market for corrugated board box' (kilogram, RER, None)", 3.385635263405493e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248104804521], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135592332661647e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007099553185306308], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.335318766578021e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017133260880110808], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00013628779382693687], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447509214601e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.461816663869279e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011851803314742698], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.6214469790273387e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2659550699328094e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0008352415512125068], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552906790463], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825281917194], ["'market for corrugated board box' (kilogram, RER, None)", 3.385635263405493e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248104804521], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135592336520852e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.43970046621873e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0809646526848926e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011422173920073871], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009085852921795791], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447509214601e-05]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004027011500917893], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.551341798673077e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999548302656e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997473072694], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00046844761900500636], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438397664514e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.767399760471116e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256609258719977], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315866138089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5571255258122894e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2386270429852568e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.153502042957721e-06]]</t>
@@ -463,16 +463,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062521405639168], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.1220261732511586e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.920999774151328e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331648715129], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.847702286642988e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0560708495360433e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00022859395335357208], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0061579330690445e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.32661200387578e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.271711447523919e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.481833784199061e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0008346983236500884], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609210925726e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816900065357072e-06]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003176423600629889], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00014298353991674143], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.8239456274580025e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092510417329e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553516954656], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621156399821e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002699960060535406], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0079982529161646e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.122725426370338e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.036450860246998e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3605872210653873e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.9549885776948007e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.7084277118188204e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.43220623386822e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.49793834174153e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003176423600629889], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00014298353991674143], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.8239456274580025e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092510417329e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553516954656], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621156399821e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9986255611610197e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.621470822578813e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00040818169509135587], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003357633906831332], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3605872210653873e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009037148835594895], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679824032650375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407153177625], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535835844443e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006330533027543198], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4539016192168857e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007681576510255661], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.071740578993977e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017509488048698404], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00014403010098321145], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.8709664602480435e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.895997178372675e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0001339580841954087], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.6382843865508e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.27969513384759e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009037148835594895], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679824032650375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407153177625], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535835844443e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006330533027543198], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4539016196092572e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.531300892317267e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0921895910338668e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011672992032465603], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009602006732214096], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.8709664602480435e-05]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003176423600629889], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00014298353991674143], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.8239456274580025e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092510417329e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553516954656], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002699960060535406], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0079982529161646e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.122725426370338e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.036450860246998e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3605872210653873e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.9549885776948007e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.7084277118188204e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.43220623386822e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.49793834174153e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003176423600629889], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00014298353991674143], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.8239456274580025e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092510417329e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553516954656], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9986255611610197e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.621470822578813e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00040818169509135587], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003357633906831332], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3605872210653873e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009037148835594895], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679824032650375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407153177625], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535835844443e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006330533027543198], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4539017958120994e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007681576510255661], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.071740578993977e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017509488048698404], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00014403010098321145], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.8709664602480435e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.895997178372675e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0001339580841954087], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.6382843865508e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.27969513384759e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009037148835594895], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679824032650375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407153177625], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535835844443e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006330533027543198], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.453901796204471e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.531300892317267e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0921895910338668e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011672992032465603], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009602006732214096], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.8709664602480435e-05]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004126359714556392], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.8163358380385786e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551216100703e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710703390931], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0004793738351618023], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.4545200380261523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131641617839e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003920041728828572], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352749115739738e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5913182537355475e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.3089916057210618e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.26084291926656e-06]]</t>
@@ -487,16 +487,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024656154802698877], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2803675324239785e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9407756080503516e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140468927287], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.0641724599561425e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1240288333653137e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00023423347062563932], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176374557869869e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.443578421792714e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.514381030624674e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5459729637380466e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001287200817883402], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191702221403e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.70091453786396e-06]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636306800003], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080032925773], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003240164759181892], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300854319126e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822020173001901], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204157856354313e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009517140860780003], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011086595555413368], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.329631705477664e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.305992086331078e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956871172489], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.5859036363646925e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00018210252332859981], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4180739570837162e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.338776546466878e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636306800003], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080032925773], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003240164759181892], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300854319126e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822020173001901], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204157856354313e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.925176976445853e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.453826380558107e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00035530878036517757], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0004203994724220719], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956871172489]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003185521878836057], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363615001417], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925266246438], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805017486875], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733030259502853], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1726825286559048e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0027076935970106485], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00033435763696150266], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00015241435170210876], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001803358559819354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229983552544], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.9862248659696526e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0005180945029912276], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.2767308950459854e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.8089135547367514e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003185521878836057], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363615001417], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925266246438], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805017486875], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733030259502853], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1726825290033098e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002539275703157834], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8511539300306573e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010160956780140584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012022390398795694], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229983552544]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636306800003], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080032925773], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003240164759181892], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300854319126e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822020173001901], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009517140860780003], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011086595555413368], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.329631705477664e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.305992086331078e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956871172489], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.5859036363646925e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00018210252332859981], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4180739570837162e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.338776546466878e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636306800003], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080032925773], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003240164759181892], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300854319126e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822020173001901], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.925176976445853e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.453826380558107e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00035530878036517757], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0004203994724220719], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956871172489]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003185521878836057], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363615001417], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925266246438], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805017486875], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733030259502853], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1726841720851636e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0027076935970106485], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00033435763696150266], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00015241435170210876], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001803358559819354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229983552544], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.9862248659696526e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0005180945029912276], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.2767308950459854e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.8089135547367514e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003185521878836057], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363615001417], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925266246438], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805017486875], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733030259502853], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.172684172432569e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002539275703157834], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8511539300306573e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010160956780140584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012022390398795694], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229983552544]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008862513639475971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006035256227173312], ["'market for polysulfone' (kilogram, GLO, None)", 3.468695123717874e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644040346003802], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005029740447802524], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.47864135226874e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.403790340562624e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387957502172], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310755028083e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.385190356909749e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.6389499144931615e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439596953714e-05]]</t>
@@ -511,16 +511,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295600077353932], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036062346015593334], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347561858937e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693564002535], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576175974267e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.619028063673379e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005030820073486235], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655377514041e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.738456508777253e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.65232379779562e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.9260216559679145e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983691202701], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049789827756e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.7183216581917e-06]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686906019458352e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403610679755913e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275218595183991e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.71776980569267e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197077547223513e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.36453712237788e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.8338701165396e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.0962646917127644e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5031202878174797e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4162057711197375e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195605591063444e-11], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.39758059456848e-12], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.1964204834059625e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.661586813292762e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.965450100650983e-11]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686906019458352e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403610679755913e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275218595183991e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.71776980569267e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197077547223513e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.36453712237788e-13], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.310300067100655e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.441057875528508e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6687468585449865e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.441371807464917e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195605591063444e-11]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964811169841e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089477968043231e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957007956104166e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.0259940680182063e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.8795616320835273e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3162889737481844e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.375270089494365e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5369686854134434e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.158308059222723e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.050000007691511e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472004641032334e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6278417336401965e-11], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.4039005302535836e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9138118370464316e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.266226648354223e-10]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964811169841e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089477968043231e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957007956104166e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.0259940680182063e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.8795616320835273e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.316288973958655e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.510817765569482e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9425412246976212e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.772205372815148e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.700000005127674e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472004641032334e-10]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686906019458352e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403610679755913e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275218595183991e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.71776980569267e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197077547223513e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.8338701165396e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.0962646917127644e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5031202878174797e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4162057711197375e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195605591063444e-11], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.39758059456848e-12], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.1964204834059625e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.661586813292762e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.965450100650983e-11]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686906019458352e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403610679755913e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275218595183991e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.71776980569267e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197077547223513e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.310300067100655e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.441057875528508e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6687468585449865e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.441371807464917e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195605591063444e-11]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964811169841e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089477968043231e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957007956104166e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.0259940680182063e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.8795616320835273e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.316289450999414e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.375270089494365e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5369686854134434e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.158308059222723e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.050000007691511e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472004641032334e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6278417336401965e-11], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.4039005302535836e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9138118370464316e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.266226648354223e-10]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964811169841e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089477968043231e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957007956104166e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.0259940680182063e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.8795616320835273e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3162894512098847e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.510817765569482e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9425412246976212e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.772205372815148e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.700000005127674e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472004641032334e-10]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.862272559209002e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1073181917009404e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622017828901886e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.8394155094447025e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.9507208599422013e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322734191438e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.039437514319005e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158931248551e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747797963388e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.505699223656159e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.680769489883488e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.253390643233457e-11]]</t>
@@ -535,16 +535,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.1004000189634326e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.616536278722885e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811008914450943e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.559610339629802e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541239781439e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.413677031537853e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.895380018015261e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873898981694e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.2254683391857567e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2694043178434964e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3464640126654137e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499872164426e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.61887516496842e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.91578847302717e-13]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.5764671309540976e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957246521486e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361812397713e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361617334485e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.3557951204766808e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.208637299736349e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1899970613109831e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3593538848129356e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.392476953002132e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.8383310119206513e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545048886729941e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 3.560290294448072e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 8.974191164634406e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6328196845621026e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.996485158091182e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.5764671309540976e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957246521486e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361812397713e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361617334485e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.3557951204766808e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.208637299736349e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9976567720607878e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.4218797897080685e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.594984635334755e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5588873412804344e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545048886729941e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.330230428911658e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.630866709573718e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616818947894e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.866521756731354e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692680715021e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.66096963580876e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.23069586457491e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.115511571961382e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.841895348590044e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0976682163574437e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647711703583e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.0737383210190038e-08], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.5532205848678167e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0956122636261596e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.525211294850968e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.330230428911658e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.630866709573718e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616818947894e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.866521756731354e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692680715021e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660969636873829e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.683474196567312e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.30408175750773e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.5612635657266956e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.317788109049625e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647711703583e-08]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.5764671309540976e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957246521486e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361812397713e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361617334485e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.3557951204766808e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1899970613109831e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3593538848129356e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.392476953002132e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.8383310119206513e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545048886729941e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 3.560290294448072e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 8.974191164634406e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6328196845621026e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.996485158091182e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.5764671309540976e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957246521486e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361812397713e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361617334485e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.3557951204766808e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9976567720607878e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.4218797897080685e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.594984635334755e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5588873412804344e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545048886729941e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.330230428911658e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.630866709573718e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616818947894e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.866521756731354e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692680715021e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660971093876719e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.23069586457491e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.115511571961382e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.841895348590044e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0976682163574437e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647711703583e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.0737383210190038e-08], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.5532205848678167e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0956122636261596e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.525211294850968e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.330230428911658e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.630866709573718e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616818947894e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.866521756731354e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692680715021e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660971094941787e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.683474196567312e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.30408175750773e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.5612635657266956e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.317788109049625e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647711703583e-08]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909811620178e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.1152941902530876e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607254173249e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.7115902409533615e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.538955246422292e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348834028274e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899465221438e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734643210391683e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654249323882e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.218133236150798e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.975959686692064e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154712494720314e-09]]</t>
@@ -559,16 +559,16 @@
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137054764682947e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.056531522719786e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.9113036270866244e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.1410601606355743e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.7048877422264079e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7347970441366384e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.6730202026448804e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327124661941e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1270978214875515e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.4404562240925375e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.1603453182246133e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.230645565363294e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.616759826094621e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997085372593382e-09]]</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187285062364], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295544821223], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126089299009], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786647084929], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770349211674364], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251220468934611e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04072450919230301], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00406374570712017], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003989869034384893], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0022331255834327933], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662079349175], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011613851456804271], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004949791443627285], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.147008716069105e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.472179480396816e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187285062364], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295544821223], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126089299009], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786647084929], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770349211674364], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251220468934611e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002314786320264544], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.7646724773794037e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002659912689589929], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.014887503889551955], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662079349175]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.136310701853276], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895352188572], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157736179865], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316606741716], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003415552381751155], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868760149932323e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11586409657528463], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012255740773205192], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001141004361759347], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006386189644551489], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081324614357], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00035025900509403], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014082505233981853], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2506851430027851e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.878595141410658e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.136310701853276], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895352188572], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157736179865], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316606741716], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003415552381751155], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.186876015342907e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006585730094273773], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.337900953351902e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.007606695745062313], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04257459763034326], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081324614357]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187285062364], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295544821223], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126089299009], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786647084929], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770349211674364], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04072450919230301], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00406374570712017], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003989869034384893], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0022331255834327933], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662079349175], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011613851456804271], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004949791443627285], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.147008716069105e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.472179480396816e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187285062364], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295544821223], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126089299009], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786647084929], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770349211674364], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002314786320264544], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.7646724773794037e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002659912689589929], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.014887503889551955], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662079349175]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.136310701853276], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895352188572], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157736179865], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316606741716], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003415552381751155], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868763222613644e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11586409657528463], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012255740773205192], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001141004361759347], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006386189644551489], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081324614357], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00035025900509403], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014082505233981853], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2506851430027851e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.878595141410658e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.136310701853276], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895352188572], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157736179865], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316606741716], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003415552381751155], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868763226110392e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006585730094273773], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.337900953351902e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.007606695745062313], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04257459763034326], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081324614357]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099308256553427], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001738248751372966], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004331310816344782], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004554069842334873], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0035366365212550458], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720685559372], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668072052472295], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342843725756], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6488608031235652e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0369812432034526e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.803973322378684e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144162804813e-05]]</t>

--- a/results/sterilization_CONSQ/data_sterilization_CONSQ_recipe.xlsx
+++ b/results/sterilization_CONSQ/data_sterilization_CONSQ_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00032945167448862346], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503862951], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.63892056722473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137785213091464e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645880411313], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028003392331532996], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.956358597772661e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1311259048455515e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.57127260238284e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047304358392e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.610646770896708e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.795519928713639e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2223661278506547e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8473084366304813e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00032945167448862346], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503862951], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.63892056722473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137785213091464e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645880411313], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.231538957753654e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4815774185671031e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003420750603230368], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00023808484015885598], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047304358392e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373132147422808], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142785960015], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001399039507806364], ["'market for corrugated board box' (kilogram, RER, None)", 6.07330030126587e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000869946882061697], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121309851124e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007967162325309387], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.916001939652542e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001467375742840076], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001021296082961387], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8854838811935067e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.873378990829929e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0001364359190986134], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.702373900602926e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.255722594357143e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373132147422808], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142785960015], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001399039507806364], ["'market for corrugated board box' (kilogram, RER, None)", 6.07330030126587e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000869946882061697], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121310194442e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5038150629047625e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.468249267068617e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0009782504952267174], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0006808640553075914], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8854838811935067e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317415353674], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.9310921829082434e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118264995002e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599291760822626], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005279123113127134], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4955512956489453e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.802289506576002e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351544585991], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013061077738e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.333597988802278e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.281865321389215e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761043889420144e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317415353674], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.9310921829082434e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118264995002e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599291760822626], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4955512956489453e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.802289506576002e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351544585991], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013061077738e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.56196943518293e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.2010806297425175e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761043889420144e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414392301742], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.212541559450556e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.628021274492795e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004062782557571315], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.543993668195849e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.009559132497501e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732861173881751], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0002639561556563567], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617822977656e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.4670304622143975e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000385964342969275], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.752506530538869e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.66798994401139e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.6409326606946074e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978113151488926e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004062782557571315], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.543993668195849e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.009559132497501e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732861173881751], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617822977656e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.4670304622143975e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000385964342969275], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.752506530538869e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.56196943518293e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.2010806297425175e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978113151488926e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414392301742], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.212541559450556e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.628021274492795e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723806794246], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04281944319305992], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01976277298328711], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907764253986], ["'autoclave - CONSQ' (unit, GLO, None)", 0.051298370574034025], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1289596523577511], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013474044685442449], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004871826561002786], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.021457942514903322], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.003765571347660146], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.001198432544234157], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.042624537356936984], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0033182097815479153], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.027353649437289834]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723806794246], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04281944319305992], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.01976277298328711], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907764253986], ["'autoclave - CONSQ' (unit, GLO, None)", 0.051298370574034025], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.18235766291526556], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.022121398543652766], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.03247884374001857], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.14305295009935548], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.003765571347660146]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.43164622661583624], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433133800145], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.059602012551743425], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055159866206], ["'autoclave - CONSQ' (unit, GLO, None)", 0.07694755586105104], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698213890636079], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3668992926234608], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.040636006958316914], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013932225112988448], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.06136443525554228], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315666047208], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.003614320298283433], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.12126981050846859], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.010007299138455293], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07782305896243022]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.43164622661583624], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433133800145], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.059602012551743425], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055159866206], ["'autoclave - CONSQ' (unit, GLO, None)", 0.07694755586105104], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698213893465968], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5188203930828682], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06671532758970196], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.09288150075325631], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.40909623503694853], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315666047208]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469573757346], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020296080960062884], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135481129035], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259674114806805], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.05095178069032697], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0016833828934874758], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714495510692], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809046095069475], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007574698738365294], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00012662051612125463], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0005576996064779639], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234066384025]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469573757346], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020296080960062884], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135481129035], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259674114806805], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0016833828934874758], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714495510692], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809046095069475], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007574698738365294], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004331432180180747], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.019233649117895612], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234066384025], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.04710111535816824], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.033035407409446806], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.001203580463941589]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0931454709563639], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012127476726619266], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067740564517], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839782743204537], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.025475890345163486], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684187814304], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.004113212176344164], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0884881974085457], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003787349369182647], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.331025806062731e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00027884980323898196], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253776117626]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0931454709563639], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012127476726619266], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067740564517], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839782743204537], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684187814304], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.004113212176344164], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0884881974085457], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003787349369182647], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004331432180180747], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.019233649117895612], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253776117626], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.04710111535816824], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.033035407409446806], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.001203580463941589]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0025758802609461774], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865721222164], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573417510250136], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014282642363673916], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422926539710404], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0021894982218042505], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023566311434408308], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0023834238596475983], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009652248746716008], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012908718676357128], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0002908103254844467], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0053068537607429645], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00017302760906542033], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001426861446252349]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0025758802609461774], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865721222164], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573417510250136], ["'market for corrugated board box' (kilogram, RER, None)", 0.00014282642363673916], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422926539710404], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009512409641682327], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001153517393769469], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.015889492397650654], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006434832497810672], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00012908718676357128]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00732856074241025], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733627727995], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0014347538323559892], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004307463569220237], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03363438980956561], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633647944256064e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006229276631048713], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007107300129894392], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.006816005729367165], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0027603056205266017], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00036726213701925205], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.000877046995599179], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01509837267140956], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0005218292866105688], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.004059521297788373]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00732856074241025], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733627727995], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0014347538323559892], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004307463569220237], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03363438980956561], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633647948354806e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02706347531858915], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.003478861910737126], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0454400381957811], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018402037470177345], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00036726213701925205]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239961846699766], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014142962062695119], ["'market for polysulfone' (kilogram, GLO, None)", 5.2525208840469945e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484585307942081], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.03185291955069402], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.632351544531893e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001307720348047313], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537796375436477], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.777505021870645e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.194603922479807e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5086539978994773e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0425208849081916e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239961846699766], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014142962062695119], ["'market for polysulfone' (kilogram, GLO, None)", 5.2525208840469945e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484585307942081], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.632351544531893e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001307720348047313], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537796375436477], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.777505021870645e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002119048918392377], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651713250888061], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0425208849081916e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0015929806334395542], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269388827405], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.3540235529911023e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225192003740616], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008450815879099788], ["'market for polysulfone' (kilogram, GLO, None)", 2.6262604420234972e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02989723538628054], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.01592645977534701], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597680149988e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0007813995281688656], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002113932403553585], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8887525109353224e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.0973019612399036e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2543269989497386e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4155194343785614e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225192003740616], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008450815879099788], ["'market for polysulfone' (kilogram, GLO, None)", 2.6262604420234972e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02989723538628054], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597680149988e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0007813995281688656], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002113932403553585], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8887525109353224e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002119048918392377], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651713250888061], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4155194343785614e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0015929806334395542], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269388827405], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.3540235529911023e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0034951471150380816], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.003493197834179931], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924522399903], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011618948462], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026502076669664358], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002970875047782369], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031939364351115046], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002942574738750691], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012373019478184187], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294154091305534], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003745970129345763], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.006952512263170974], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00025052156099333444], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0020657565125103013]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0034951471150380816], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.003493197834179931], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924522399903], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011618948462], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026502076669664358], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013771710083402009], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001670143739955563], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.019617164925004607], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.008248679652122792], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294154091305534]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943939679404119], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839383808938], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200554037345], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781071931609], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03975311500449654], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.0290400479788135e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008452348727493501], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009632506513937774], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008415039648626022], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0035383790974240006], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358015869183246], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011297370002505914], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01978038700226108], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0007555412003889511], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005877222753902547]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943939679404119], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839383808938], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200554037345], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781071931609], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03975311500449654], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.029040048623045e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03918148502601698], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005036941335926341], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.05610026432417348], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.023589193982826672], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358015869183246]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214792830190352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018439751155552304], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643809217301e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.053004153339328716], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.038731920318630306], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661685441919e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0018338777222267567], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954053188680836], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.0296421885980545e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.647857071276506e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.215792049556898e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102710800930042e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214792830190352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018439751155552304], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643809217301e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.053004153339328716], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661685441919e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0018338777222267567], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954053188680836], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.0296421885980545e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026161774760282584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090453570140656], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102710800930042e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0016572147215531006], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002494140629169221], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.126068145696376e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00311598474635167], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011018267685453617], ["'market for polysulfone' (kilogram, GLO, None)", 3.3648219046086506e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03533610222621914], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.019365960159315153], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.67784458376927e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010957932932733846], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002960185509034088], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.5148210942990272e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.823928535638253e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.607896024778449e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.0490125984691942e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00311598474635167], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011018267685453617], ["'market for polysulfone' (kilogram, GLO, None)", 3.3648219046086506e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03533610222621914], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.67784458376927e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010957932932733846], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002960185509034088], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.5148210942990272e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026161774760282584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090453570140656], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.0490125984691942e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0016572147215531006], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002494140629169221], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.126068145696376e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.42468440504137206], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.2641046541623702], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978787486384], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805774551669235], ["'autoclave - CONSQ' (unit, GLO, None)", 2.053171962979424], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3609817442851663], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.039303841588590925], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.14936433453299996], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.09709535567515583], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.023218345255408553], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.009089079502645035], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10534581032776325], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009633427192112404], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07941892477197379]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.42468440504137206], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.2641046541623702], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978787486384], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805774551669235], ["'autoclave - CONSQ' (unit, GLO, None)", 2.053171962979424], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5294594984798252], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06422284794741603], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.9957622302199998], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.6473023711677055], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.023218345255408553]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082570396951713], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963400112506], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.15372802814973155], ["'market for corrugated board box' (kilogram, RER, None)", 0.0446523359414276], ["'autoclave - CONSQ' (unit, GLO, None)", 3.079757944469136], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919386366850966], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0270184837408955], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11853539286597081], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.42714524142196364], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.2776688241570114], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605782735175819], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.027411509055868265], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.29971624910152356], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.029053192530529633], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.22595243385829158]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082570396951713], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963400112506], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.15372802814973155], ["'market for corrugated board box' (kilogram, RER, None)", 0.0446523359414276], ["'autoclave - CONSQ' (unit, GLO, None)", 3.079757944469136], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919386368596943], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5063495590552773], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.1936879502035309], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.8476349428130905], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.8511254943800761], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605782735175819]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322461089981052], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.06762233426392682], ["'market for polysulfone' (kilogram, GLO, None)", 0.008388736573132282], ["'autoclave - CONSQ' (unit, GLO, None)", 4.106343925958848], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.140538093141574], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.032035708158735486], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.461299580415744], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1256338035482], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003957377094846856], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0038820325173446538], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.002523543047673987], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271104744106625]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322461089981052], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.06762233426392682], ["'market for polysulfone' (kilogram, GLO, None)", 0.008388736573132282], ["'autoclave - CONSQ' (unit, GLO, None)", 4.106343925958848], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.032035708158735486], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.461299580415744], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1256338035482], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003957377094846856], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.13279649369011035], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703061818420738], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271104744106625], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.12478441363795054], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840030982561], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486257532289734]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902075342605978], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04040623835700841], ["'market for polysulfone' (kilogram, GLO, None)", 0.004194368286566141], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375626173058984], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.070269046570787], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.019142232723663093], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.27563941711207257], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07506971575475682], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0001978688547423428], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0019410162586723269], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012617715238369936], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.004344688702626353]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902075342605978], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04040623835700841], ["'market for polysulfone' (kilogram, GLO, None)", 0.004194368286566141], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375626173058984], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.019142232723663093], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.27563941711207257], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07506971575475682], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0001978688547423428], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.13279649369011035], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703061818420738], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.004344688702626353], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.12478441363795054], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840030982561], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486257532289734]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236425718676], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059965145626], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324873069173], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044065811797], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280172577093173], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.09993650961860874], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01005179937091735], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001200963437257253], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006543976031724323], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808021860117], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003530771650647478], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014280960376284109], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2034796661213002e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00010113104803440157]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236425718676], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059965145626], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324873069173], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044065811797], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280172577093173], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006742069868960104], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.023197774142001e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008006422915048354], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04362650687816215], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808021860117]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.33450165605565807], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.03284935370365375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367738919338], ["'market for corrugated board box' (kilogram, RER, None)", 0.003039410114538076], ["'autoclave - CONSQ' (unit, GLO, None)", 0.01992025886563976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055884663599694e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.2843264076473094], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030314949869619665], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.003434459899346745], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018714161119299508], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269284796484683], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0010648358730690054], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.04063033797196324], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.629541776682344e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00028772495356266356]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.33450165605565807], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.03284935370365375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367738919338], ["'market for corrugated board box' (kilogram, RER, None)", 0.003039410114538076], ["'autoclave - CONSQ' (unit, GLO, None)", 0.01992025886563976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055884664408114e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0019181663570844239], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00024196945177882293], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0228963993289783], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.1247610741286634], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269284796484683]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0338324205565888], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.006149296255247429], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011275973986166596], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560345154186347], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0124126627034299], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426941282114], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633866841545], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079952875935], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235444577208e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.121346960203956e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00017008027937250375], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0002561292338222575]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0338324205565888], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.006149296255247429], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011275973986166596], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560345154186347], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426941282114], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633866841545], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079952875935], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235444577208e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010677497678172317], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005865638736923963], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0002561292338222575], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0277338871874], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001198159359917132], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.411349430421446e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215818694879442], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.003674376711806788], ["'market for polysulfone' (kilogram, GLO, None)", 0.0005637986993083298], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706896769457563], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00620633135171495], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0003197029925903215], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013617444415605976], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.019205027760135468], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117722288604e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.560673480101978e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.504013968625188e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001530443897816015]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215818694879442], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.003674376711806788], ["'market for polysulfone' (kilogram, GLO, None)", 0.0005637986993083298], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706896769457563], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0003197029925903215], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013617444415605976], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.019205027760135468], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117722288604e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010677497678172317], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005865638736923963], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001530443897816015], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0277338871874], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001198159359917132], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.411349430421446e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768424580772e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795803069995e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.66479729601317e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377391374474e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291685085645123e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3691531608936562e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5845249746745842e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9634541238255353e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.7580872607374447e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.5907667114856755e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 4.040932751631894e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 7.744093267148329e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1294337323139795e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.5823793358584414e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768424580772e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795803069995e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.66479729601317e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377391374474e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291685085645123e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.054919557238961e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.41962248820932e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3089694158836902e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5053915071582963e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.5907667114856755e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.582749602328393e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406693267801e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.4068436004574863e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.1021773081307284e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7437527628467686e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0422545851655978e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.895337161979134e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.778726017293819e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.614995630413455e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0747204781447806e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.525843320370414e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2186939797729512e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.203249070371778e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.546972046661962e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.3037191913287395e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.582749602328393e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406693267801e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.4068436004574863e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.1021773081307284e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7437527628467686e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.042254585332251e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.69146127552493e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0313146977746415e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.743330420275636e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.164803187631871e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.525843320370414e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.1183517361334445e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2403929306422765e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126690849697366e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583370171290246e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.8681012979805817e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.6732486665424977e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328778864535e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.862434149326772e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.64055266883484e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.103087546860905e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.767403305174551e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677744651515e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.1183517361334445e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2403929306422765e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126690849697366e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583370171290246e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.6732486665424977e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328778864535e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.862434149326772e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.64055266883484e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.7456632065522443e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.368530402076303e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677744651515e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.8922751406692313e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067576881080537e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.105538547307704e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358492004032e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.411695108936276e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563345424848683e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891344752683e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.4340506489902909e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129343921365e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7423515496679583e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9054405674038307e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.82027633441742e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5515437734304526e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.8837016525872756e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.976691957966268e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358492004032e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.411695108936276e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563345424848683e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891344752683e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129343921365e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7423515496679583e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9054405674038307e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.82027633441742e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.7456632065522443e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.368530402076303e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.976691957966268e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.8922751406692313e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067576881080537e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.105538547307704e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008895951518e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.6100637032266782e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219459120827e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.0183387299244326e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516736438245], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6061607561558792e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7599960481711845e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0976802956943384e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.31034845479275e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152233318279e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.4713781819128307e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 5.782134471463924e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.156519292770127e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.266188765188525e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008895951518e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.6100637032266782e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219459120827e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.0183387299244326e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516736438245], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.844125843459017e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.437679528513418e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3984535304628923e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.206898969861833e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152233318279e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047601383389e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.425815042982944e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788448029876e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879934203146e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751046573676], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010848745520078e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.569640461175882e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.307924482198349e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.998849451791267e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.466781975314158e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2126545792371094e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.453362619863144e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6450579763883278e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5551407075864362e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2137607472789887e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047601383389e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.425815042982944e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788448029876e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879934203146e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751046573676], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010848746161401e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.091738315193258e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0367604717242909e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.999232967860844e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.311187983542773e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2126545792371094e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348454181037e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.0619203802001945e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756899603499e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103347287649], ["'cabinet washer - CONSQ' (unit, GLO, None)", 7.722947814340194e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.5525177514527734e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070773782105e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507731031471985e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922067303833e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.451946171982194e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.603714122454255e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.4355089855573317e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348454181037e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.0619203802001945e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756899603499e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103347287649], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.5525177514527734e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070773782105e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507731031471985e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922067303833e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.86500069793768e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.967203430302345e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.4355089855573317e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126956464e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.133723509544594e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638196471914e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.206281598539229e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2320551673115878e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.2313784498017496e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00017740223152509934], ["'cabinet washer - CONSQ' (unit, GLO, None)", 3.861473907170097e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568410573327e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9303196164700336e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.095967518612268e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610336519163e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.725973085991097e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.301857061227127e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848221960285e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.206281598539229e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2320551673115878e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.2313784498017496e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00017740223152509934], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568410573327e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9303196164700336e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.095967518612268e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610336519163e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.86500069793768e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.967203430302345e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848221960285e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126956464e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.133723509544594e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638196471914e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035172525470250635], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803323310373], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558236224846], ["'market for corrugated board box' (kilogram, RER, None)", 0.00027532070733822615], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002716221267387766], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002989664664971304], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004097774875572649], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0007318416474956008], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00036641453436241713], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206103740602e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.928836911853068e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.001196113468323872], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.686431833830248e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.322450639215064e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0035172525470250635], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803323310373], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558236224846], ["'market for corrugated board box' (kilogram, RER, None)", 0.00027532070733822615], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002716221267387766], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00042149670928100425], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.124287889220165e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004878944316637338], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0024427635624161143], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206103740602e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.010006831190127645], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00506018629761788], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175300126624], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322918227148], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004074331901081649], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727743293219774e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0085058065116085], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.001235836842201466], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00209288702138656], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0010478554015584528], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790980747629787], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0002089649185053588], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.003403027050724256], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.318130188640517e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00017987817311569616]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.010006831190127645], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00506018629761788], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175300126624], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322918227148], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004074331901081649], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727743294935105e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001199187820771308], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00015454201257603448], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013952580142577066], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006985702677056353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790980747629787]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03049272768333022], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011654749923722262], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048417751762906e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432442534775532], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.006515241714290287], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.236567102895218e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184995101868683], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.028968091299163706], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.73665698786946e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9020826370684356e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.523244900101604e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.398572733085959e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03049272768333022], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011654749923722262], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048417751762906e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432442534775532], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.236567102895218e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184995101868683], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.028968091299163706], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.73665698786946e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006506640626604046], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003284326342438982], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.398572733085959e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001317033418733884], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.652451890400675e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.640743614128734e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258681387352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006964039448435047], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208875881453e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621628356517021], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0032576208571451436], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114747697566e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002500651766161009], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.017309245747317983], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.36832849393473e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.510413185342178e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.761622450050802e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332143769917015e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258681387352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006964039448435047], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208875881453e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621628356517021], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114747697566e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002500651766161009], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.017309245747317983], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.36832849393473e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006506640626604046], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003284326342438982], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332143769917015e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001317033418733884], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.652451890400675e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.640743614128734e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867515148275604], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522323023978], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.010937123931882342], ["'market for corrugated board box' (kilogram, RER, None)", 0.0050920686293278086], ["'autoclave - CONSQ' (unit, GLO, None)", 0.11495182352783817], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04987387876034263], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0054484489672235285], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.023730070927552766], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.014557151046332996], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00757122491097363], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0046580613844389804], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10425562930888944], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002087593605788959], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.01721415039106963]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867515148275604], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522323023978], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.010937123931882342], ["'market for corrugated board box' (kilogram, RER, None)", 0.0050920686293278086], ["'autoclave - CONSQ' (unit, GLO, None)", 0.11495182352783817], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.11476100260713085], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013917290705259726], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.15820047285035177], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.09704767364221997], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00757122491097363]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693493802136225], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.1381999308804005], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.032984976269236056], ["'market for corrugated board box' (kilogram, RER, None)", 0.01535703237139428], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17242773529175726], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890562759820254e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1418946973181579], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.01643182988574597], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06786216339396871], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04162986979145029], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540668058328702], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.01404812135103248], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.29661460732951644], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.006295917096269628], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.04897547012670513]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693493802136225], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.1381999308804005], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.032984976269236056], ["'market for corrugated board box' (kilogram, RER, None)", 0.01535703237139428], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17242773529175726], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890562760762136e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.3265031341780342], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.041972780641797526], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.45241442262645803], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.2775324652763353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540668058328702]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032567160465985], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.02856025919231978], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311050862138833], ["'autoclave - CONSQ' (unit, GLO, None)", 0.22990364705567634], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.2674130444563259], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612104023962], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556581126541675], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380938802442686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206243041968], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006167530372473358], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00037834556618564837], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710203618431775]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032567160465985], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.02856025919231978], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311050862138833], ["'autoclave - CONSQ' (unit, GLO, None)", 0.22990364705567634], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612104023962], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556581126541675], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380938802442686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206243041968], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021097876036132328], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048181818313407], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710203618431775], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.03779789355809378], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.020783648356440868], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.000454644988468064]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787323830529502], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017065554642919544], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155525431069416], ["'autoclave - CONSQ' (unit, GLO, None)", 0.15326909803711755], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.13370652222816296], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.000840937733678063], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.02483122093578987], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07397957639003028], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003684603121520984], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003083765186236679], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018917278309282419], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167510636050936]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787323830529502], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017065554642919544], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155525431069416], ["'autoclave - CONSQ' (unit, GLO, None)", 0.15326909803711755], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.000840937733678063], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.02483122093578987], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07397957639003028], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003684603121520984], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021097876036132328], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048181818313407], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167510636050936], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.03779789355809378], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.020783648356440868], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.000454644988468064]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002255350306961903], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772814778556], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542495335181], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395247044594e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865479452674], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019170477609176178], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00024367464814648617], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.219247963051977e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0014848343743966742], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031008535842], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00023422498744141057], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0017139958157684435], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.124519787136743e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9309261180657837e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002255350306961903], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772814778556], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542495335181], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395247044594e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865479452674], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2872840787105226e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.083013191424495e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.128319753679847e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.009898895829311161], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031008535842]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00641663045079302], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156458947441], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635531222815], ["'market for corrugated board box' (kilogram, RER, None)", -0.0002877865232716777], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798219179012], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5674007360692904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0054541358831740674], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007348917811104088], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.486749143692074e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0042462609250437195], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687695812296], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0007063928049581283], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004876438799791909], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.423154722699237e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.493620786609694e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00641663045079302], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156458947441], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635531222815], ["'market for corrugated board box' (kilogram, RER, None)", -0.0002877865232716777], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798219179012], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5674007363199128e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.662413857739796e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.282103148466158e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00023244994291280493], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.028308406166958133], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687695812296]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258745874309], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001875279506326794], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662077826571], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002465173095890535], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0011018532044060469], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.260377970968837e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021707126374], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545808583138], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875019404883e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.1688690972129507e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.859137686247595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109847015427e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258745874309], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001875279506326794], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662077826571], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002465173095890535], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.260377970968837e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021707126374], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545808583138], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875019404883e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0840061313053258e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309189981984787], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109847015427e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400407415859], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.1107070053536277e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364167067788892e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101305472212], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001120532018651043], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331038913286e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00164344873059369], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005509266022030234], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.338279150671603e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -7.948330467719004e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004696896240200123], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.6274375097024416e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5844345486064754e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.9295688431237975e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.4376442421016805e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101305472212], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001120532018651043], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331038913286e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00164344873059369], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.338279150671603e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -7.948330467719004e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004696896240200123], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.6274375097024416e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0840061313053258e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309189981984787], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.4376442421016805e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400407415859], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.1107070053536277e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364167067788892e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017001109350018612], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.002504011913258482], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158659649806749], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828277639216], ["'autoclave - CONSQ' (unit, GLO, None)", 0.176939812138178], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001445094294751582], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015385269039930468], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.024012027181061543], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.007108535379188185], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.006324266043926789], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.991077276453952e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.0030205770851318026], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.558411197387465e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -6.165525300452531e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017001109350018612], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.002504011913258482], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158659649806749], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828277639216], ["'autoclave - CONSQ' (unit, GLO, None)", 0.176939812138178], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -4.110350200301687e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -5.03894079825831e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.16008018120707695], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.047390235861254563], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.006324266043926789]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.004836935336202478], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007124090232087512], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605480985103313], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401545596452404], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409718207267], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761969540485172e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004111395035772106], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0004640001679953332], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06866848889564883], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.020328661927161026], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992982267286534], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.000210842008828313], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.008593754523896114], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -2.2795207911303716e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.7541353671710015e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.004836935336202478], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007124090232087512], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605480985103313], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401545596452404], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409718207267], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761969545403914e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -0.00011694235781140012], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.519680527420248e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.4577899259709922], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.13552441284774017], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992982267286534]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002078579837714], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.002947522104825776], ["'market for polysulfone' (kilogram, GLO, None)", -2.462426162423828e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.353879624276356], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.1764281599991597], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877536912736269e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835919470752997], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251974650845828], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170578758358089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.000624081181198246], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018475337888777062], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0019805201589151475]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002078579837714], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.002947522104825776], ["'market for polysulfone' (kilogram, GLO, None)", -2.462426162423828e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.353879624276356], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877536912736269e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835919470752997], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251974650845828], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170578758358089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021348557043462713], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006371676833903969], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0019805201589151475], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.007114991183103746], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524997203683095e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0004015195511760592]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964162056009636], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017612269973601683], ["'market for polysulfone' (kilogram, GLO, None)", -1.231213081211914e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591974951757066], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.08821407999957985], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109520897645036e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013047573356993005], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008515953953209153], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.5852893791790444e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.000312040590599123], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.237668944388531e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0011834162568950346]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964162056009636], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017612269973601683], ["'market for polysulfone' (kilogram, GLO, None)", -1.231213081211914e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591974951757066], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109520897645036e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013047573356993005], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008515953953209153], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.5852893791790444e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021348557043462713], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006371676833903969], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0011834162568950346], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.007114991183103746], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524997203683095e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0004015195511760592]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443044686375485], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180238710411e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.2017601010223227e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642652586807805e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262996546652379], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0001312658798341916], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0462617534623466e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.329175961364846e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.3103540359291365e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.23897263813833e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0034005907132652e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2771492218716964e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0915459194026874e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8364846472493133e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443044686375485], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180238710411e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.2017601010223227e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642652586807805e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262996546652379], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8909897648328754e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.061030612935125e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004219450640909897], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00015402360239527576], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.23897263813833e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936549671096445], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198340775072], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228741585898e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.209688874807757e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894494819978569], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.807573772984471e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003734606722043198], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1553925258873135e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001809988577575713], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.607044014433695e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060175675686476e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.042001659121498e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.633579476311023e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.323709726785622e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.069998573864243e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936549671096445], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198340775072], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228741585898e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.209688874807757e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894494819978569], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.8075737732734963e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.379999049242828e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.2158064845237485e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001206659051717142], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00044046960096224636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060175675686476e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099035011530573], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.3835410471566495e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.295116592280179e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525993093304757], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00012895510974951868], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637708610867e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00018454953691657042], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144083260954041], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908888124877043e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6449754867408476e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.004692834681408e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274853879660528e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099035011530573], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.3835410471566495e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.295116592280179e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525993093304757], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637708610867e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00018454953691657042], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144083260954041], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908888124877043e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.627128981258171e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.0708667121422387e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274853879660528e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.574330656401216e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778789074884115e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483240416984814e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412208251385784], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.2168165314605396e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475582961400895e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004350662062203172], ["'cabinet washer - CONSQ' (unit, GLO, None)", 6.447755487475934e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446711170723e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011027351626494185], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0010841597838816496], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.4544440624385215e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.224877433704238e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.002346417340704e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932096938463655e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412208251385784], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.2168165314605396e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475582961400895e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004350662062203172], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446711170723e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011027351626494185], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0010841597838816496], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.4544440624385215e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.627128981258171e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.0708667121422387e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932096938463655e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.574330656401216e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778789074884115e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483240416984814e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.13904403147717e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018430220378e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.0761387487617103e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259835123699e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427768824742e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.681874267555945e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0239070771202457e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.3054773166844186e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1509968196800795e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.47553549548713e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.930129571548307e-10], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.171716569653832e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.573861956274576e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.1221964381378016e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.13904403147717e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018430220378e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.0761387487617103e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259835123699e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427768824742e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.414797625425201e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.7159079708497171e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5369848777896125e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.67331213120053e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.47553549548713e-10]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406604839209625e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740454795094e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243657539826e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.6921101083398533e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141653237115e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.76707110763751e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.754561411332818e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.103846616873864e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.593097797456159e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.291567668779894e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.6958565778090433e-09], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0900390347950485e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.6094179536198226e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.76244066326446e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.037798316955435e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406604839209625e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740454795094e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243657539826e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.6921101083398533e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141653237115e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.76707110887944e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.02519887797029e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.174960442176307e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.395398531637439e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.194378445853263e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.6958565778090433e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9426491766395708e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.1597770472873856e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425924151652e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6762855537649483e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.2061027948587906e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652868545236e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.0896080816883752e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.795516717807592e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.267465693499276e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.992018067333234e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.9914819323760337e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378180326523e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9426491766395708e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.1597770472873856e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425924151652e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6762855537649483e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652868545236e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.0896080816883752e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.795516717807592e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.267465693499276e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.049748388027219e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316864699476597e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378180326523e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.80407368217741e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.562483505836129e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.30440859646076e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.758315286311864e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.6806392785452246e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212962075826e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857035843299e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 6.030513974293953e-08], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.487825410443982e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2485993442919724e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.6703995219962707e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.633732846749638e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.996009033666617e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4957409661880169e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730915603896484e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.758315286311864e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.6806392785452246e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212962075826e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857035843299e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.487825410443982e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2485993442919724e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.6703995219962707e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.633732846749638e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.049748388027219e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316864699476597e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730915603896484e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.80407368217741e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.562483505836129e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.30440859646076e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00014168997648655326], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.000111379299064558], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.410912271306823e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.632805219352322e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060148980048807], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012043648001357026], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.3070856059267243e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.809423235492503e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.184292006126974e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.88800361126603e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8089264402697242e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.495231027626077e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.640787415241271e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.509124250339245e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00014168997648655326], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.000111379299064558], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.410912271306823e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.632805219352322e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060148980048807], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.33941616689283e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.093858276827514e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00012062821569950021], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001456194670751316], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.88800361126603e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179612716022], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00031688194945127767], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.271005115380369e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243332003334055e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022347007321], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163374610464662e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0003426502670808619], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.9420041284960394e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1745051934616784e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.24653763034751e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5286996191860338e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.455492328395094e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.944178416626304e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.304364411884604e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8518916881246864e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179612716022], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00031688194945127767], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.271005115380369e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243332003334055e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022347007321], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163374611610063e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.234594458749791e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5362429412564028e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003449670128974452], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0004164358420231673], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5286996191860338e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003070960080894382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.269211398770625e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956198466084944e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120297960097615], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00019474643097784812], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962649529688e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009608535514e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00029174120768496627], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.5044046244331075e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.7027557547675227e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.677053107043728e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.7833854873210287e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003070960080894382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.269211398770625e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956198466084944e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120297960097615], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962649529688e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009608535514e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00029174120768496627], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.5044046244331075e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6087177841088403e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.957872055426177e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.7833854873210287e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494262316809e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.60700925526533e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476802215969629e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0001834984644705913], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.9534453587864646e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478099233042472e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019864006508], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.737321548892406e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.432890389657169e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1180949735189047e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00017432354124706175], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.7522023122165537e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.3513778773837614e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.838526553521864e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631507738379636e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0001834984644705913], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.9534453587864646e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478099233042472e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019864006508], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.432890389657169e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1180949735189047e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00017432354124706175], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.7522023122165537e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6087177841088403e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.957872055426177e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631507738379636e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494262316809e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.60700925526533e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476802215969629e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00029357500067370287], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753097218873], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.324394786341567e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053770158118e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498736536347], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00024953875057264743], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.7638162785896676e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.991166145779388e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.7657175255389934e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310758081179e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8110234568115392e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.1657328482511466e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.376376934106844e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.449644057684628e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00029357500067370287], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753097218873], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.324394786341567e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053770158118e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498736536347], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9664293717897517e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5842512894045628e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00039941107638529253], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003177145017025995], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310758081179e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0008352415512125068], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552906790463], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825281917194], ["'market for corrugated board box' (kilogram, RER, None)", 3.385635263405493e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248104804521], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135592332661647e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007099553185306308], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.335318766578021e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017133260880110808], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00013628779382693687], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447509214601e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.461816663869279e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011851803314742698], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.6214469790273387e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2659550699328094e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0008352415512125068], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552906790463], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825281917194], ["'market for corrugated board box' (kilogram, RER, None)", 3.385635263405493e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248104804521], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135592336520852e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.43970046621873e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0809646526848926e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011422173920073871], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009085852921795791], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447509214601e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004027011500917893], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.551341798673077e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999548302656e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997473072694], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00046844761900500636], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438397664514e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.767399760471116e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256609258719977], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315866138089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5571255258122894e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2386270429852568e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.153502042957721e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004027011500917893], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.551341798673077e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999548302656e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997473072694], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438397664514e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.767399760471116e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256609258719977], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315866138089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.32661200387578e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.271711447523919e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.153502042957721e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0008346983236500884], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609210925726e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816900065357072e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062521405639168], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.1220261732511586e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.920999774151328e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331648715129], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00023422380950250318], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.847702286642988e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0560708495360433e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00022859395335357208], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0061579330690445e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.785627629061447e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.193135214926284e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.481833784199061e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062521405639168], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.1220261732511586e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.920999774151328e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331648715129], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.847702286642988e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0560708495360433e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00022859395335357208], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0061579330690445e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.32661200387578e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.271711447523919e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.481833784199061e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0008346983236500884], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609210925726e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816900065357072e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003176423600629889], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00014298353991674143], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.8239456274580025e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092510417329e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553516954656], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002699960060535406], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.0079982529161646e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.122725426370338e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.036450860246998e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3605872210653873e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.9549885776948007e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.7084277118188204e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.43220623386822e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.49793834174153e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003176423600629889], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00014298353991674143], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.8239456274580025e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092510417329e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553516954656], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9986255611610197e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.621470822578813e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00040818169509135587], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003357633906831332], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3605872210653873e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009037148835594895], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679824032650375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407153177625], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535835844443e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006330533027543198], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4539017958120994e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007681576510255661], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.071740578993977e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017509488048698404], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00014403010098321145], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.8709664602480435e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.895997178372675e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0001339580841954087], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.6382843865508e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.27969513384759e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009037148835594895], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679824032650375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407153177625], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535835844443e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006330533027543198], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.453901796204471e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.531300892317267e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0921895910338668e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011672992032465603], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009602006732214096], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.8709664602480435e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004126359714556392], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.8163358380385786e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551216100703e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710703390931], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0004793738351618023], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.4545200380261523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131641617839e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003920041728828572], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352749115739738e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5913182537355475e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.3089916057210618e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.26084291926656e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004126359714556392], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.8163358380385786e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551216100703e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710703390931], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.4545200380261523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131641617839e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003920041728828572], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352749115739738e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.443578421792714e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.514381030624674e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.26084291926656e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001287200817883402], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191702221403e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.70091453786396e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024656154802698877], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2803675324239785e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9407756080503516e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140468927287], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00023968691758090115], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.0641724599561425e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1240288333653137e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00023423347062563932], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176374557869869e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.956591268677737e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.544958028605309e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5459729637380466e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024656154802698877], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2803675324239785e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9407756080503516e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140468927287], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.0641724599561425e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1240288333653137e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00023423347062563932], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176374557869869e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.443578421792714e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.514381030624674e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5459729637380466e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001287200817883402], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191702221403e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.70091453786396e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636306800003], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080032925773], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003240164759181892], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300854319126e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822020173001901], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009517140860780003], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011086595555413368], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.329631705477664e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.305992086331078e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956871172489], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.5859036363646925e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00018210252332859981], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4180739570837162e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.338776546466878e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636306800003], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080032925773], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0003240164759181892], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300854319126e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822020173001901], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.925176976445853e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.453826380558107e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00035530878036517757], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0004203994724220719], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956871172489]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003185521878836057], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363615001417], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925266246438], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805017486875], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733030259502853], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1726841720851636e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0027076935970106485], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00033435763696150266], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00015241435170210876], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001803358559819354], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229983552544], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.9862248659696526e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0005180945029912276], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.2767308950459854e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.8089135547367514e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003185521878836057], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363615001417], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925266246438], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805017486875], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733030259502853], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.172684172432569e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002539275703157834], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8511539300306573e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010160956780140584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012022390398795694], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229983552544]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008862513639475971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006035256227173312], ["'market for polysulfone' (kilogram, GLO, None)", 3.468695123717874e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644040346003802], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005029740447802524], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.47864135226874e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.403790340562624e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387957502172], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310755028083e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.385190356909749e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.6389499144931615e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439596953714e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008862513639475971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006035256227173312], ["'market for polysulfone' (kilogram, GLO, None)", 3.468695123717874e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644040346003802], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.47864135226874e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.403790340562624e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387957502172], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310755028083e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.738456508777253e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.65232379779562e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439596953714e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983691202701], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049789827756e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.7183216581917e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295600077353932], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036062346015593334], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347561858937e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693564002535], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0002514870223901262], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576175974267e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.619028063673379e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005030820073486235], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655377514041e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.925951784548745e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.194749572465808e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.9260216559679145e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295600077353932], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036062346015593334], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347561858937e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693564002535], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576175974267e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.619028063673379e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005030820073486235], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655377514041e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.738456508777253e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.65232379779562e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.9260216559679145e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983691202701], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049789827756e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.7183216581917e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686906019458352e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403610679755913e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275218595183991e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.71776980569267e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197077547223513e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.8338701165396e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.0962646917127644e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5031202878174797e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4162057711197375e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195605591063444e-11], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.39758059456848e-12], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.1964204834059625e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.661586813292762e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.965450100650983e-11]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686906019458352e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403610679755913e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275218595183991e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.71776980569267e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197077547223513e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.310300067100655e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.441057875528508e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6687468585449865e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.441371807464917e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195605591063444e-11]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964811169841e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089477968043231e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957007956104166e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.0259940680182063e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.8795616320835273e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.316289450999414e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.375270089494365e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.5369686854134434e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.158308059222723e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.050000007691511e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472004641032334e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6278417336401965e-11], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.4039005302535836e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9138118370464316e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.266226648354223e-10]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964811169841e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089477968043231e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957007956104166e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.0259940680182063e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.8795616320835273e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3162894512098847e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.510817765569482e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9425412246976212e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.772205372815148e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.700000005127674e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472004641032334e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.862272559209002e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1073181917009404e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622017828901886e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.8394155094447025e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.9507208599422013e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322734191438e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.039437514319005e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158931248551e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747797963388e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.505699223656159e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.680769489883488e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.253390643233457e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.862272559209002e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1073181917009404e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622017828901886e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.8394155094447025e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322734191438e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.039437514319005e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158931248551e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747797963388e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.2254683391857567e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2694043178434964e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.253390643233457e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499872164426e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.61887516496842e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.91578847302717e-13]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.1004000189634326e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.616536278722885e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811008914450943e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.559610339629802e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.753604299711007e-10], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541239781439e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.413677031537853e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.895380018015261e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873898981694e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.2528496118280793e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.840384744941744e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3464640126654137e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.1004000189634326e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.616536278722885e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811008914450943e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.559610339629802e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541239781439e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.413677031537853e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.895380018015261e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873898981694e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.2254683391857567e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2694043178434964e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3464640126654137e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499872164426e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.61887516496842e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.91578847302717e-13]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.5764671309540976e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957246521486e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361812397713e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361617334485e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.3557951204766808e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.1899970613109831e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3593538848129356e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.392476953002132e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.8383310119206513e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545048886729941e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 3.560290294448072e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 8.974191164634406e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6328196845621026e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.996485158091182e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.5764671309540976e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957246521486e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361812397713e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361617334485e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.3557951204766808e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9976567720607878e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.4218797897080685e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.594984635334755e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5588873412804344e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545048886729941e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.330230428911658e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.630866709573718e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616818947894e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.866521756731354e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692680715021e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660971093876719e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.23069586457491e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.115511571961382e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.841895348590044e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0976682163574437e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647711703583e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.0737383210190038e-08], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.5532205848678167e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0956122636261596e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.525211294850968e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.330230428911658e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.630866709573718e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616818947894e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.866521756731354e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692680715021e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660971094941787e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.683474196567312e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.30408175750773e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.5612635657266956e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.317788109049625e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647711703583e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909811620178e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.1152941902530876e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607254173249e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.7115902409533615e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.538955246422292e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348834028274e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899465221438e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734643210391683e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654249323882e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.218133236150798e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.975959686692064e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154712494720314e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909811620178e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.1152941902530876e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607254173249e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.7115902409533615e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348834028274e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899465221438e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734643210391683e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654249323882e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1270978214875515e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.4404562240925375e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154712494720314e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.230645565363294e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.616759826094621e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997085372593382e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137054764682947e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.056531522719786e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.9113036270866244e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.1410601606355743e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.269477623211146e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.7048877422264079e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7347970441366384e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.6730202026448804e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327124661941e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.109066618075399e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.987979843346032e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.1603453182246133e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137054764682947e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.056531522719786e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.9113036270866244e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.1410601606355743e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.7048877422264079e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7347970441366384e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.6730202026448804e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327124661941e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1270978214875515e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.4404562240925375e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.1603453182246133e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.230645565363294e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.616759826094621e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997085372593382e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187285062364], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295544821223], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126089299009], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786647084929], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770349211674364], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04072450919230301], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00406374570712017], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003989869034384893], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0022331255834327933], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662079349175], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011613851456804271], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004949791443627285], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.147008716069105e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.472179480396816e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187285062364], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295544821223], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126089299009], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786647084929], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770349211674364], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002314786320264544], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.7646724773794037e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002659912689589929], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.014887503889551955], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662079349175]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.136310701853276], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895352188572], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157736179865], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316606741716], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003415552381751155], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868763222613644e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11586409657528463], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012255740773205192], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001141004361759347], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006386189644551489], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081324614357], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00035025900509403], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014082505233981853], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2506851430027851e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.878595141410658e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.136310701853276], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895352188572], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157736179865], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316606741716], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003415552381751155], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868763226110392e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006585730094273773], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.337900953351902e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.007606695745062313], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04257459763034326], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081324614357]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099308256553427], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001738248751372966], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004331310816344782], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004554069842334873], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0035366365212550458], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720685559372], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668072052472295], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342843725756], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6488608031235652e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0369812432034526e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.803973322378684e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144162804813e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099308256553427], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001738248751372966], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004331310816344782], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004554069842334873], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720685559372], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668072052472295], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342843725756], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6488608031235652e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003547303442322098], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0020016436281396098], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144162804813e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010652108700015112], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675746412917e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322724885320458e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0036445074827686956], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0010386523052815675], ["'market for polysulfone' (kilogram, GLO, None)", 0.0002165655408172391], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003036046561556582], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0017683182606275229], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0001347229698747019], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00039843597779739827], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0034622821086302607], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.244304015617826e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.184906216017263e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.901986661189342e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.087439565033411e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0036445074827686956], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0010386523052815675], ["'market for polysulfone' (kilogram, GLO, None)", 0.0002165655408172391], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003036046561556582], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0001347229698747019], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00039843597779739827], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0034622821086302607], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.244304015617826e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003547303442322098], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0020016436281396098], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.087439565033411e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010652108700015112], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675746412917e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322724885320458e-05]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003294516641631974], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503622721], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.638920573352606e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137784833470254e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645461744339], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028003391453871777], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9563585715962325e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1311257210417885e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.5712729443447356e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047831252626e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.6106462740522285e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.7955184408134695e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2223661108593054e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8473084454769792e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003294516641631974], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503622721], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.638920573352606e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137784833470254e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645461744339], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2315389636513194e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.481577407239537e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00034207504806945256], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00023808486295631568], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047831252626e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373131853657164], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142779125296], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013990395096544537], ["'market for corrugated board box' (kilogram, RER, None)", 6.0733001867769336e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008699468192616508], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121309851124e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007967162075608591], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.91600186070776e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00014673756902767229], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00010212961807540742], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.885484031098627e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.873377492410099e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00013643587676680574], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.702373849359174e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.255722619526053e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373131853657164], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142779125296], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013990395096544537], ["'market for corrugated board box' (kilogram, RER, None)", 6.0733001867769336e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008699468192616508], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121310194442e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.503815079684035e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.468249232906117e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0009782504601844818], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0006808641205027162], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.885484031098627e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317184699865], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.193928673711757e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118086539806e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599290923488678], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005279122874040575], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.495551287641183e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.8022894345471746e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351325464871], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013090510991e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0720604107597997e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.322492518678239e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761045539452963e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317184699865], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.193928673711757e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118086539806e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599290923488678], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.495551287641183e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.8022894345471746e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351325464871], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013090510991e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.56196927176711e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.201080936257232e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761045539452963e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414387931256], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2125415425343212e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.6280211468732981e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00040627824197492045], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.701045831684855e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.009559043269903e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732860615659119], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00026395614370202877], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617775129034e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.467030419175156e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003859643298761744], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.7525065452554955e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.667989705155111e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.6409331050802104e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978114137429744e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00040627824197492045], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.701045831684855e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.009559043269903e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732860615659119], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617775129034e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.467030419175156e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003859643298761744], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.7525065452554955e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.56196927176711e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.201080936257232e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978114137429744e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414387931256], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2125415425343212e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.6280211468732981e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723721561042], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.042819443129732584], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.019762772992611918], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907746240418], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05129836462938693], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12895965163326886], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013474044680045408], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004871826360984472], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.02145794330399214], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0037655713617222772], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011984324664288085], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.04262453535114582], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.003318209781142943], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02735364943807008]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723721561042], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.042819443129732584], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.019762772992611918], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907746240418], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05129836462938693], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.1823576629204672], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.022121398540952956], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.03247884240656314], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.14305295535994758], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0037655713617222772]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4316462241908916], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433115783073], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.05960201257986586], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055105539576], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0769475469440804], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698213890636079], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3668992905622579], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.04063600694204013], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013932224540985288], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.06136443751214212], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315706054962], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0036143200636323865], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.12126980480185148], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.010007299137233949], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07782305896465008]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4316462241908916], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433115783073], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.05960201257986586], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055105539576], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0769475469440804], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698213893465968], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5188203930976673], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06671532758155967], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.09288149693990191], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.40909625008094747], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315706054962]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469073372382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020807851064713775], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135206219764], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259672925877386], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.050951776758230066], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.001683382891918009], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714383428358], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809045619703762], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.000757469872800038], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9673496771469365e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.000500055793541323], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234070787751]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469073372382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020807851064713775], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135206219764], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259672925877386], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.001683382891918009], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714383428358], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809045619703762], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.000757469872800038], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0043314320023489315], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.01923364982518884], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234070787751], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.04710111537850102], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03303540740541499], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.0012035804292724844]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.09314546796642362], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012433273695292471], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067603109882], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839781950584925], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.025475888379115033], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684178436297], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.004113212109371831], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.08848819456810243], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.000378734936400019], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.331025546135352e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0002788498134933324], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253802431121]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.09314546796642362], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012433273695292471], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067603109882], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839781950584925], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684178436297], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.004113212109371831], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.08848819456810243], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.000378734936400019], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0043314320023489315], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.01923364982518884], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253802431121], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.04710111537850102], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03303540740541499], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.0012035804292724844]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002575880072003133], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865962164573], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573416913680966], ["'market for corrugated board box' (kilogram, RER, None)", 0.0001428264242357184], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422924764951797], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002189498061202663], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023566309544398477], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002383423809858348], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009652250330317116], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001290871998325396], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00029081031125992773], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.005306853414920531], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00017302760890477165], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0014268614460648664]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002575880072003133], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865962164573], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573416913680966], ["'market for corrugated board box' (kilogram, RER, None)", 0.0001428264242357184], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422924764951797], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009512409640432443], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0011535173926984776], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.01588949206572232], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006434833553544744], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001290871998325396]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.007328560204853983], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733696277808], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.001434753814364221], ["'market for corrugated board box' (kilogram, RER, None)", 0.000430746358728469], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0336343871474277], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633647944256064e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006229276174125886], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007107299559891439], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.006816005586982162], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0027603060733975495], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003672621742013873], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0008770469526998369], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.015098371687520385], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0005218292861260728], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0040595212972549715]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.007328560204853983], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733696277808], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.001434753814364221], ["'market for corrugated board box' (kilogram, RER, None)", 0.000430746358728469], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0336343871474277], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633647948354806e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.027063475315033145], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0034788619075071525], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.04544003724654774], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018402040489316998], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003672621742013873]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239951934526934], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014568799112249407], ["'market for polysulfone' (kilogram, GLO, None)", 5.252520428920892e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484584952990359], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.03185291829780749], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.6323515290624565e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013077203335897518], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537795433780053], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.77750498360785e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.624784865858006e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.249359889718903e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.042521294178691e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239951934526934], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014568799112249407], ["'market for polysulfone' (kilogram, GLO, None)", 5.252520428920892e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484584952990359], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.6323515290624565e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013077203335897518], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537795433780053], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.77750498360785e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002119048874125867], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651714670335804], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.042521294178691e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0015929806157949067], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269372833556], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.354023222090962e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225191411460532], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008705265440961696], ["'market for polysulfone' (kilogram, GLO, None)", 2.626260214460446e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02989723301993573], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.015926459148903744], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597587715772e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0007813995195300681], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002113931840887502], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.888752491803925e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.097301896537882e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2543272047415369e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.415519678929146e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225191411460532], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008705265440961696], ["'market for polysulfone' (kilogram, GLO, None)", 2.626260214460446e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02989723301993573], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597587715772e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0007813995195300681], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002113931840887502], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.888752491803925e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002119048874125867], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651714670335804], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.415519678929146e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0015929806157949067], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269372833556], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.354023222090962e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003495146859452594], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0034931978675669948], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924445048418], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011622824422], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02650207427776064], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002970874830534705], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031939361798785984], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002942574669905832], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012373021622286366], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294155874664384], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003745969939207444], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.006952511796409319], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002505215607788214], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0020657565122768405]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003495146859452594], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0034931978675669948], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924445048418], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011622824422], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02650207427776064], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013771710081845603], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0016701437385254758], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.01961716446603888], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.008248681081524245], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294155874664384]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943938952245407], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839393307793], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200320755095], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781083621013], ["'autoclave - CONSQ' (unit, GLO, None)", 0.039753111416640965], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.0290400479788135e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008452348109408597], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009632505744187756], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008415039451746665], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0035383797105844623], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358020942964767], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011297369429072901], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0197803856742913], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0007555411997420069], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005877222753238334]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943938952245407], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839393307793], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200320755095], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781083621013], ["'autoclave - CONSQ' (unit, GLO, None)", 0.039753111416640965], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.029040048623045e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0391814850215889], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00503694133161338], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.05610026301164443], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.023589198070563082], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358020942964767]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214791527757771], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0019012895252506052], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643202705226e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05300414855552128], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.03873191863409421], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661665096587e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001833877702703966], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954051951369872], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.029642138066566e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.1882757918429114e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.883408282976151e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102711359410367e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214791527757771], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0019012895252506052], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643202705226e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05300414855552128], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661665096587e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001833877702703966], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954051951369872], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.029642138066566e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026161774148198316], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090455491988892], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102711359410367e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00165721469774843], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0024941406270335732], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.126067703568572e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0031159839681117315], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011360737333189208], ["'market for polysulfone' (kilogram, GLO, None)", 3.364821601352613e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.035336099037014186], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.019365959317047106], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.677844571612364e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010957932816079705], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002960184769706139], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.514821069033283e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.823928446173126e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.6078963034083642e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.049012932176828e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0031159839681117315], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011360737333189208], ["'market for polysulfone' (kilogram, GLO, None)", 3.364821601352613e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.035336099037014186], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.677844571612364e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010957932816079705], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002960184769706139], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.514821069033283e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026161774148198316], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090455491988892], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.049012932176828e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00165721469774843], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0024941406270335732], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.126067703568572e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4246843605502464], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.26410466193904997], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978732329734], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805773568626638], ["'autoclave - CONSQ' (unit, GLO, None)", 2.0531716016751482], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36098170646770944], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.039303837577430334], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.1493643193997101], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.09709539387017876], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.02321834861747868], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.009089077147590063], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10534573804959647], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009633427165539886], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07941892477853067]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4246843605502464], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.26410466193904997], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978732329734], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805773568626638], ["'autoclave - CONSQ' (unit, GLO, None)", 2.0531716016751482], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5294594985235378], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0642228477702659], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.9957621293314006], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.6473026258011917], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.02321834861747868]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082569131147856], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963621364519], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.1537280279833861], ["'market for corrugated board box' (kilogram, RER, None)", 0.044652332976695956], ["'autoclave - CONSQ' (unit, GLO, None)", 3.0797574025127226], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919386366850966], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0270183761475677], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11853538076882007], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.4271451981444786], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.277668933385378], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605783691708446], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.027411501953321666], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.2997160434650491], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.029053192450390293], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.22595243387694638]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082569131147856], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963621364519], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.1537280279833861], ["'market for corrugated board box' (kilogram, RER, None)", 0.044652332976695956], ["'autoclave - CONSQ' (unit, GLO, None)", 3.0797574025127226], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919386368596943], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5063495591796427], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.19368794966926864], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.847634654296524], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.851126222569187], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605783691708446]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322459854628692], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.07036189391107765], ["'market for polysulfone' (kilogram, GLO, None)", 0.00838873581603696], ["'autoclave - CONSQ' (unit, GLO, None)", 4.1063432033502965], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.140537847479304], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.03203570814052481], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.4612995774448674], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12563368618972243], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00039573765185300057], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006031656791004998], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0022627105283630094], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271105796979418]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322459854628692], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.07036189391107765], ["'market for polysulfone' (kilogram, GLO, None)", 0.00838873581603696], ["'autoclave - CONSQ' (unit, GLO, None)", 4.1063432033502965], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.03203570814052481], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.4612995774448674], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12563368618972243], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00039573765185300057], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.13279648023544036], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703065241999995], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271105796979418], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.12478440969076014], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840004527514], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486262892516475]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902067961029689], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04204320196231639], ["'market for polysulfone' (kilogram, GLO, None)", 0.00419436790801848], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375621355668645], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.070268923739652], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.019142232712781707], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.2756394153368906], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07506964562978008], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00019786882592650028], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0019410160620125167], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012617720201881523], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0043446893317473315]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902067961029689], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04204320196231639], ["'market for polysulfone' (kilogram, GLO, None)", 0.00419436790801848], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375621355668645], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.019142232712781707], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.2756394153368906], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07506964562978008], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00019786882592650028], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.13279648023544036], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703065241999995], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0043446893317473315], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.12478440969076014], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840004527514], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486262892516475]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236408444618], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059956737813], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324881687057], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044011587774], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280171215945491], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.09993650947177926], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010051799374722123], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0012009633879673767], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006543976183423828], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808135441033], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003530771454133531], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014280959847102237], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2034796586745395e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00010113104833036612]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236408444618], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059956737813], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324881687057], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044011587774], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280171215945491], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006742069888691075], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.023197724496931e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008006422586449178], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04362650788949219], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808135441033]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.334501655564199], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.032849353679732934], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367741518383], ["'market for corrugated board box' (kilogram, RER, None)", 0.0030394100981847995], ["'autoclave - CONSQ' (unit, GLO, None)", 0.019920256823918236], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055884663599694e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.28432640722956914], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030314949881094372], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.003434459758389828], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018714161553122766], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269285119630386], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0010648358138028956], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.040630336466403544], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6295417542238595e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00028772495440470354]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.334501655564199], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.032849353679732934], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367741518383], ["'market for corrugated board box' (kilogram, RER, None)", 0.0030394100981847995], ["'autoclave - CONSQ' (unit, GLO, None)", 0.019920256823918236], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055884664408114e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0019181663626980238], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00024196945028159066], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.022896398389265517], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.12476107702081844], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269285119630386]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03383241928299767], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0063028151969095675], ["'market for polysulfone' (kilogram, GLO, None)", 0.001127597392000968], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560342431890982], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.012412661813248063], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426937279467], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633560571336], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079831884778], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235133364914e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.849751938009271e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001525007852317662], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00025612923737918083]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03383241928299767], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0063028151969095675], ["'market for polysulfone' (kilogram, GLO, None)", 0.001127597392000968], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560342431890982], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426937279467], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633560571336], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079831884778], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235133364914e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010677497239947036], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005865638872898559], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00025612923737918083], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.02773388719662574], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001198159352503292], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.411350502341956e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215817933873077], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0037661085784546546], ["'market for polysulfone' (kilogram, GLO, None)", 0.000563798696000484], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706894954593988], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.006206330906624031], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00031970299235115215], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013617444232600947], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.019205027037179422], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117566682457e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5606734160489017e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.50401416576141e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00015304439190696277]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215817933873077], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0037661085784546546], ["'market for polysulfone' (kilogram, GLO, None)", 0.000563798696000484], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706894954593988], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00031970299235115215], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013617444232600947], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.019205027037179422], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117566682457e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010677497239947036], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005865638872898559], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00015304439190696277], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.02773388719662574], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001198159352503292], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.411350502341956e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768372974519e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795813229813e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.664797257855803e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377396063218e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291689650479632e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3691531170283413e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.584524920304558e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.963454011784253e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.7580877078149736e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.590766737994252e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 4.040932371662921e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 7.744092428579895e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.129433329843792e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.5823793598930026e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768372974519e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795813229813e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.664797257855803e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377396063218e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291689650479632e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0549195732620014e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.419622219895861e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3089693411895021e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5053918052099824e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.590766737994252e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.58274945550497e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406696158341e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.406843588949709e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.102177309544794e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.743753447571945e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0422545851655978e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.895337037179225e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.778725853320727e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.614995310002959e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0747206059979524e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.5258433957891805e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2186938651791362e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.2032488317931533e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.546971925282067e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.3037191981667414e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.58274945550497e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406696158341e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.406843588949709e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.102177309544794e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.743753447571945e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.042254585332251e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.69146132111161e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0313146168547112e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.7433302066686394e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.16480403998635e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.5258433957891805e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.118351468056693e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2541890325773749e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126689308119443e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583379300959265e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.8681009679046957e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.673248662055292e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328455172715e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.8624338946538575e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.6405521147850284e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.928855279226402e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.75784554142094e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677827666318e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.118351468056693e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2541890325773749e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126689308119443e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583379300959265e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.673248662055292e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328455172715e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.8624338946538575e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.6405521147850284e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.745663106938843e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.368530802810545e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677827666318e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.89227514072469e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067572874170944e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.105538431247976e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358331820666e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.49413068133333e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563344654059722e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891953397284e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.4340504839523479e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129317109055e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7423515303264655e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9054404152296322e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8202760573925142e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5515436278308015e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.8837022335725264e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.9766920075699377e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358331820666e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.49413068133333e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563344654059722e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891953397284e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129317109055e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7423515303264655e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9054404152296322e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8202760573925142e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.745663106938843e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.368530802810545e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.9766920075699377e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.89227514072469e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067572874170944e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.105538431247976e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008611992428e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.610063697194517e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219433639783e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.018338726128868e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516734558805], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6061607320193564e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7599960230632385e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0976802480295357e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.310348325035798e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152230488815e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.4713781518412473e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 5.7821343982296354e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.156519277626299e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.2661887682727636e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008611992428e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.610063697194517e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219433639783e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.018338726128868e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516734558805], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.844125845515176e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.4376795184175325e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3984534986863573e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.2068988833571983e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152230488815e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047520595028e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.42581502582102e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788371182283e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879933058452e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751018382074], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010848745520078e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.569640392505775e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.307924406475974e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.998849315481661e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.466781604241206e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.212654578432107e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.453362529171069e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6450579555526566e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.55514070301925e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2137607481564764e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047520595028e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.42581502582102e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788371182283e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879933058452e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751018382074], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010848746161401e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.091738321043176e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0367604686795002e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.999232876987773e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.311187736160804e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.212654578432107e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348251793497e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.098868251488681e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756836493437e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103346911761], ["'cabinet washer - CONSQ' (unit, GLO, None)", 7.7229478032883e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.552517747119988e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070461456107e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507730839203821e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922027782031e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.47089007885839e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.714433928371851e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.435508984671251e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348251793497e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.098868251488681e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756836493437e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103346911761], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.552517747119988e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070461456107e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507730839203821e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922027782031e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.8650006555599685e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.967203313995776e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.435508984671251e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126813514e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.133723494467714e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638199391618e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.2062814776070067e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2541325550610235e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.2313784182467184e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001774022312745073], ["'cabinet washer - CONSQ' (unit, GLO, None)", 3.86147390164415e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568384683722e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9303194298465033e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.095967403726656e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610138910157e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.7259730240498333e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.301856892605646e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848216665704e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.2062814776070067e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2541325550610235e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.2313784182467184e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001774022312745073], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568384683722e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9303194298465033e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.095967403726656e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610138910157e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.8650006555599685e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.967203313995776e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848216665704e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126813514e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.133723494467714e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638199391618e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003517252533321081], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803558209704], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558289575359], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002753207088718585], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0027162203480345266], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029896646533229187], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00040977748003892636], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0007318416129164458], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00036641472303015286], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206673587425e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.928836004264802e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011961132562912182], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.686431810500999e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.322450669412958e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003517252533321081], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803558209704], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558289575359], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002753207088718585], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0027162203480345266], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00042149671129419714], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1242878736673326e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004878944086109638], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.002442764820201019], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206673587425e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.01000683115113885], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.005060186364448395], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175461024993], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322964479554], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00407433052205179], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727743293219774e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008505806478468023], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0012358368195271121], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002092886922498686], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00104785594110175], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790982368884127], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00020896489113364974], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0034030264474764235], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.318130181604712e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001798781739748475]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.01000683115113885], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.005060186364448395], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175461024993], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322964479554], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00407433052205179], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727743294935105e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0011991878264989834], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001545420121069808], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013952579483324571], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006985706274011667], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790982368884127]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.030492727141177543], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011826837187463885], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048416087868704e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432440696069053], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.006515241017442918], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.2365670965553578e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184994999740428], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.02896809078411865], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.736656777407557e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.9553359545493293e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.538926703938984e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.3985729115403617e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.030492727141177543], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011826837187463885], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048416087868704e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432440696069053], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.2365670965553578e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184994999740428], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.02896809078411865], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.736656777407557e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006506640319168501], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003284328033546611], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.3985729115403617e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0013170334228411323], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.65245186717456e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.64074058291483e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258357435945], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0007066866407495801], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208043934352e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621627130712702], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.003257620508721459], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114709815124e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002500651705136517], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.01730924543956414], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.3683283887037786e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.510412735979871e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.761624901821793e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332144836232045e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258357435945], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0007066866407495801], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208043934352e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621627130712702], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114709815124e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002500651705136517], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.01730924543956414], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.3683283887037786e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006506640319168501], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003284328033546611], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332144836232045e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0013170334228411323], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.65245186717456e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.64074058291483e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867514692116747], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522394359862], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0109371238170815], ["'market for corrugated board box' (kilogram, RER, None)", 0.005092068579112201], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1149517819587464], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04987387488299235], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.005448448506191243], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.023730069483642077], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.01455715454240964], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007571225280106306], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004658061071004595], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10425562110772746], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002087593602368071], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.017214150390284722]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867514692116747], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522394359862], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0109371238170815], ["'market for corrugated board box' (kilogram, RER, None)", 0.005092068579112201], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1149517819587464], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.11476100260189816], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013917290682453806], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.15820046322428052], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0970476969493976], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007571225280106306]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693492504332155], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.13819993290995664], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0329849759230113], ["'market for corrugated board box' (kilogram, RER, None)", 0.015357032219950384], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1724276729381196], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890562759820254e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1418946862868233], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016431828495331174], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06786215926473946], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04162987978936918], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540669108537164], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014048120405754191], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.29661458399663304], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.006295917085952664], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.04897547012447202]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693492504332155], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.13819993290995664], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0329849759230113], ["'market for corrugated board box' (kilogram, RER, None)", 0.015357032219950384], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1724276729381196], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890562760762136e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.32650313416314686], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.041972780573017766], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.45241439509826303], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.2775325319291279], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540669108537164]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032565415135242], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.029616473553467696], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311049947484927], ["'autoclave - CONSQ' (unit, GLO, None)", 0.2299035639174928], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.2674130157779693], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612075160306], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556580792646035], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380937144378383], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206166918599], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.582719308551813e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00033923984993725076], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710204774415257]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032565415135242], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.029616473553467696], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311049947484927], ["'autoclave - CONSQ' (unit, GLO, None)", 0.2299035639174928], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612075160306], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556580792646035], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380937144378383], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206166918599], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021097874752383585], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048184951992763], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710204774415257], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0377978931238197], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02078364832238322], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.00045464491480668503]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787322787645506], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017696672300971234], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155524973742463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.15326904261166188], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.13370650788898464], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0008409377319533787], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.024831220736277873], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07397956648263175], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00036846030834592993], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003083764998597901], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018917282852496588], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167511326783437]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787322787645506], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017696672300971234], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155524973742463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.15326904261166188], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0008409377319533787], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.024831220736277873], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07397956648263175], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00036846030834592993], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021097874752383585], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048184951992763], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167511326783437], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0377978931238197], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02078364832238322], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.00045464491480668503]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0022553503100429424], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772807182443], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542489291989], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395299951913e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865735926683], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019170477635365012], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002436746471682109], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.2192475591423055e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0014848343878240324], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031233036585], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00023422498729960408], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0017139958016913937], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.124521421629039e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9309278193617726e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0022553503100429424], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772807182443], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542489291989], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395299951913e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865735926683], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2872852129078483e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.0830142810860257e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.128317060948703e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.009898895918826882], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031233036585]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006416630459558793], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156437335966], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635512997315], ["'market for corrugated board box' (kilogram, RER, None)", -0.00028778652486729524], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798603890026], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5674007360692904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005454135890624975], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007348917781600548], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.4867479886098066e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00424626096344266], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687759684337], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.000706392804530458], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004876438759741712], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.423159652120347e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.493625626916592e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006416630459558793], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156437335966], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635512997315], ["'market for corrugated board box' (kilogram, RER, None)", -0.00028778652486729524], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798603890026], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5674007363199128e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.662417084611061e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.282106434746898e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00023244986590732045], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.028308406422951068], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687759684337]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258580863561], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018763966481735467], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662061235324], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0024651731471853366], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0011018532557141045], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.2603779145065605e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021757167232], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545651735542], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875849462087e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.9235874066663e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.460257246288151e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109917320541e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258580863561], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018763966481735467], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662061235324], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0024651731471853366], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.2603779145065605e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021757167232], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545651735542], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875849462087e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0840057721982584e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309190102339802], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109917320541e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400513873748], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.11070863262021e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364164722978804e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101206873669], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011211995421879014], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331030617662e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0016434487647902245], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005509266278570522], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.338279116933812e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -7.948330497619817e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00046968961464792915], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.6274379247310436e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5844340237186286e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.9295688605728896e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.437644284110955e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101206873669], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011211995421879014], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331030617662e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0016434487647902245], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.338279116933812e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -7.948330497619817e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00046968961464792915], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.6274379247310436e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0840057721982584e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309190102339802], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.437644284110955e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400513873748], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.11070863262021e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364164722978804e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017000890727487986], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0025039894370166376], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158651926600567], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828817260923], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17693989376171598], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001445075711836479], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015385237992778794], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.02401203480770746], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.007108536589237151], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00632426524084558], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.991069460810503e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.003020574251259003], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.558347338218485e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -6.165579080413169e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017000890727487986], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0025039894370166376], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158651926600567], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828817260923], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17693989376171598], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -4.110386053608779e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -5.0388982254789895e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.16008023205138308], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.047390243928247665], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00632426524084558]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00483687313655292], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00712402628559663], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605457692894665], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401547223882947], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409840642574], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761969540485172e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004111342166069982], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00046399923165268265], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06866851070597942], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0203286653876033], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992979982463943], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00021084177311843602], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.008593746461328431], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -2.2795015320163075e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.7541506679485352e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00483687313655292], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00712402628559663], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605457692894665], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401547223882947], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409840642574], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761969545403914e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -0.00011694337786323569], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.5196676880108717e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.45779007137319605], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.13552443591735533], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992979982463943]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002092127968693], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0031204030166952193], ["'market for polysulfone' (kilogram, GLO, None)", -2.4624844345690282e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.35387978752343197], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.17642834159019818], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877537786920166e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835962772162452], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251987521570258], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170203577320812e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.696583052487583e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00016565729784490511], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001980519907420585]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002092127968693], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0031204030166952193], ["'market for polysulfone' (kilogram, GLO, None)", -2.4624844345690282e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.35387978752343197], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877537786920166e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835962772162452], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251987521570258], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170203577320812e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021348563824143258], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0063716779185213415], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001980519907420585], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00711498994074541], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524933626820781e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.00040151941849112183]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964170151397284], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018645281834018942], ["'market for polysulfone' (kilogram, GLO, None)", -1.2312422172845141e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591985834895465], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.08821417079509909], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109521419994395e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013047599230797726], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000851596164382742], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.585101788660406e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003120406897087517], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.237670516868817e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001183416106619991]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964170151397284], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018645281834018942], ["'market for polysulfone' (kilogram, GLO, None)", -1.2312422172845141e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591985834895465], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109521419994395e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013047599230797726], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000851596164382742], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.585101788660406e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021348563824143258], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0063716779185213415], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001183416106619991], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00711498994074541], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524933626820781e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.00040151941849112183]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443045528310502], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180232451303e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.201760006105473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642654023547782e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262995997277601], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00013126588699063926], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0462616853465963e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.329176413079289e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.310357268823035e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.238970030191757e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0033987383250527e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2771469768163106e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.091545781770519e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8364845810940255e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443045528310502], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180232451303e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.201760006105473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642654023547782e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262995997277601], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.89098972072935e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.061030521180346e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004219450942052859], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00015402381792153566], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.238970030191757e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936552066460864], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198162699042], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228455328738e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.20968930811029e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894493995916401], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.807573772984471e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00037346069256491735], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1553923204588644e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001809988706754928], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.607053259714699e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060168255894817e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.041996072553986e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.6335730889703486e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.323709311704487e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.069998385647789e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936552066460864], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198162699042], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228455328738e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.20968930811029e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894493995916401], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.8075737732734963e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.379998923765193e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.2158062078029915e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0012066591378366188], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0004404702173143133], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060168255894817e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099033616416616], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.042270117009698e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.2951161491267728e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525991994555202], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0001289550711240138], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637699792871e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.0001845495380142206], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144081935595785], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908884309815804e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5558593944553834e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.384055317222913e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274845712561411e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099033616416616], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.042270117009698e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.2951161491267728e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525991994555202], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637699792871e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.0001845495380142206], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144081935595785], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908884309815804e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.627129382867394e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.070869609919919e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274845712561411e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.574330725862007e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778787704646828e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483231764731184e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412207417766129], ["'alubox production - CONSQ' (kilogram, GLO, None)", 4.2079536002371585e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475580745633864e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00043506613297034677], ["'cabinet washer - CONSQ' (unit, GLO, None)", 6.44775355620069e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446705901724e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011027351692081856], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0010841597046877822], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.454442154907902e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.224878020715241e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.002350618544183e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932092058393223e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412207417766129], ["'alubox production - CONSQ' (kilogram, GLO, None)", 4.2079536002371585e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475580745633864e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00043506613297034677], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446705901724e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011027351692081856], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0010841597046877822], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.454442154907902e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.627129382867394e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.070869609919919e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932092058393223e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.574330725862007e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778787704646828e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483231764731184e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.1390439675617744e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018384237477e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.07613877255418e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259552382116e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427887502184e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.681873724275082e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0239071033813495e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.305477307332848e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1509968118805855e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.475535717994248e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.930129311464784e-10], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.171715660500572e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.573861955008556e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.122196439015236e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.1390439675617744e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018384237477e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.07613877255418e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259552382116e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427887502184e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4147976260101571e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.7159079700057042e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.536984871555232e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.673312079203904e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.475535717994248e-10]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406603020771606e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740441712634e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243729294893e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.692110023068582e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141831253276e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.76707110763751e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7545612567655868e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.1038466960740175e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.593097770712967e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.291567646475261e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.695856641113885e-09], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.090038956357162e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.6094176949593174e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.762440659446306e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.037798319451797e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406603020771606e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740441712634e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243729294893e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.692110023068582e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141831253276e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.76707110887944e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.0251988796345316e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1749604396308715e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.395398513808645e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.1943784309835074e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.695856641113885e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.942649021519688e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.2741295924239425e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425826715508e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.676285577500437e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.2061027915438282e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652861863815e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.08960802678668e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.7955165704437033e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.2674656972674844e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.310019898439734e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.68228234166971e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378250007309e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.942649021519688e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.2741295924239425e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425826715508e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.676285577500437e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652861863815e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.08960802678668e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.7955165704437033e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.2674656972674844e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0497483797129465e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316864629566478e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378250007309e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.804073682571065e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.5624835045757062e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.3044085955748298e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.7583151936233902e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.74896812648893e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212913357754e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857051666958e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 6.030513957719141e-08], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.487825406451646e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2485993114866721e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.670399433942221e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6337328486337422e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.996009021514084e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.495740956052435e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730916020258694e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.7583151936233902e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.74896812648893e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212913357754e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857051666958e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.487825406451646e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2485993114866721e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.670399433942221e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6337328486337422e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0497483797129465e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316864629566478e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730916020258694e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.804073682571065e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.5624835045757062e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.3044085955748298e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0001416899717852539], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00011137929879268523], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4109122737909336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.6328052034385393e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060147509679698], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012043647601746583], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.30708560610044e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.8094231665869654e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.184292194092107e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.888003807087714e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8089262173266092e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.495230384782975e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.640787341453998e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.509124310216913e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0001416899717852539], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00011137929879268523], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4109122737909336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.6328052034385393e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060147509679698], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.3394162068112755e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.093858227635999e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00012062821110579769], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00014561947960614046], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.888003807087714e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179478960745], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0003168819486777805], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.27100512287213e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243331523394575e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022126451955], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163374610464662e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00034265025571166333], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.942004129019944e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.174504996408797e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.246538167881535e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.528699674898682e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.455491656026983e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.944176587692408e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.3043643896313e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8518917051603049e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179478960745], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0003168819486777805], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.27100512287213e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243331523394575e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022126451955], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163374611610063e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.23459447010687e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5362429264208668e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00034496699976058643], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.000416435877858769], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.528699674898682e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00030709599619902763], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.3695696848310014e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956197531975769e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120295019359396], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0001947464233608365], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962600164868e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009268829305e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002917411963890761], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.504404822713314e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.306845151779416e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.09027333593353e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.78338554864495e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00030709599619902763], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.3695696848310014e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956197531975769e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120295019359396], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962600164868e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009268829305e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002917411963890761], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.504404822713314e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.608717722846466e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.9578722239071674e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.78338554864495e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494263504418e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.607009181804253e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476801882972157e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000183498457365738], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.013412245049656e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478098765987884e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019667957293], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.737321168041825e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.432890360160306e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1180949532205074e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00017432353449745106], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.752202411356657e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.351377787839782e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.8385267977859175e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631508104807237e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000183498457365738], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.013412245049656e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478098765987884e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019667957293], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.432890360160306e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1180949532205074e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00017432353449745106], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.752202411356657e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.608717722846466e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.9578722239071674e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631508104807237e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494263504418e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.607009181804253e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476801882972157e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0002935749900858244], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753085591091], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3243948386187426e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053265090849e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498728627889], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002495387415729508], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.763816360119228e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.9911660510201204e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.765717614752013e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310786055244e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.811023051195577e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.165731501653126e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.376376929751966e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.4496440752200605e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0002935749900858244], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753085591091], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3243948386187426e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053265090849e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498728627889], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.96642938348004e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5842512865013108e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.000399411070068008], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003177145076501342], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310786055244e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000835241521089247], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552575971876], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825439578513], ["'market for corrugated board box' (kilogram, RER, None)", 3.3856351110836175e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248092941834], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135592332661647e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00070995529292586], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.335319012460818e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001713326060912262], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00013628779637820968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447588802785e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.461815440583069e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011851799483576499], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.621446977713963e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2659550749217635e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000835241521089247], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552575971876], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825439578513], ["'market for corrugated board box' (kilogram, RER, None)", 3.3856351110836175e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248092941834], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135592336520852e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.439700499478423e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0809646518093087e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001142217373941508], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009085853091880646], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447588802785e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00040270113170556393], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.751564900149508e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999378747311e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997457255778], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0004684476288183656], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438244891958e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7673996665718755e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256607512028573], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315981557406e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.41936344254813e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1106025726124978e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.1535021305618785e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00040270113170556393], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.751564900149508e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999378747311e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997457255778], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438244891958e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7673996665718755e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256607512028573], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315981557406e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.326611919627431e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.2717115274892704e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.1535021305618785e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0008346983237922066], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609206590101e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816899936249184e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062520307010718], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2416650832488563e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9209996893736554e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331638170518], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0002342238144091828], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.8477022775144002e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0560707934286177e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002285939429166018], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.006157990778703e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.785627505920082e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.1931353308602e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4818338365449984e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062520307010718], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2416650832488563e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9209996893736554e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331638170518], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.8477022775144002e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0560707934286177e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002285939429166018], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.006157990778703e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.326611919627431e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.2717115274892704e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4818338365449984e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0008346983237922066], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609206590101e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816899936249184e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00031764234954325684], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001429835387627615], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.823945681266759e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092006938144e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553391190597], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002699959971117683], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.00799833535446e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.122725328786434e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.036450964247825e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.360587250207036e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.954988157790637e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.7084263229704586e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.43220622993389e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.497938359940383e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00031764234954325684], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001429835387627615], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.823945681266759e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092006938144e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553391190597], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9986255732935886e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6214708199559268e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004081816885857623], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003357633976165217], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.360587250207036e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000903714853630111], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679823704334957], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407315458], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535684001515e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000633053300867859], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4539017958120994e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007681576255855943], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.071740827617402e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017509487769632454], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00014403010395737918], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.870966543158086e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.8959959119950656e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00013395804468169473], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.6382843853642564e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.279695139025292e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000903714853630111], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679823704334957], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407315458], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535684001515e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000633053300867859], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.453901796204471e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.531300926835281e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0921895902428376e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011672991846421634], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009602006930491945], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.870966543158086e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000412635952085515], ["'alubox production - CONSQ' (kilogram, GLO, None)", 4.031458943128072e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551041686984e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710678238119], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00047937384519367845], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.454520022497809e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131544965609e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00039200415448123916], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352750215785723e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.4724899465450707e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.17369425759008e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.260843010527146e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000412635952085515], ["'alubox production - CONSQ' (kilogram, GLO, None)", 4.031458943128072e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551041686984e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710678238119], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.454520022497809e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131544965609e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00039200415448123916], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352750215785723e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.443578335033044e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.514381123844954e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.260843010527146e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012872008180245553], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191698304467e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.700914400007724e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002465615364527971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.4089096118266232e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.940775520843492e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140452158746], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00023968692259683923], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.064172450677523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1240287756128998e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00023423345963015724], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176375107892862e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.956591141865707e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.544958163756246e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.545973018268802e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002465615364527971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.4089096118266232e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.940775520843492e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140452158746], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.064172450677523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1240287756128998e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00023423345963015724], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176375107892862e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.443578335033044e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.514381123844954e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.545973018268802e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012872008180245553], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191698304467e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.700914400007724e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636276619425], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080028765976], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00032401647559949126], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300949049834e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822019782680168], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009517140835126511], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011086595511150298], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.329631639543453e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.30599244224165e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956884650282], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.585903264047808e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00018210251522700587], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4180739541050914e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.3387765467784459e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636276619425], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080028765976], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00032401647559949126], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300949049834e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822019782680168], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.925176978522973e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.453826360700609e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00035530877596956354], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00042039949614944337], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956884650282]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00318552187024947], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363613817925], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925256634915], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805046056452], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733029674020253], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1726841720851636e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0027076935897120493], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003343576356265847], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00015241434981655256], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018033586616010195], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229987387071], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.9862247536836102e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0005180944799416223], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.276730886062832e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.8089135556231835e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00318552187024947], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363613817925], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925256634915], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805046056452], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733029674020253], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.172684172432569e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00025392757037487893], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.851153924041888e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010160956654436837], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.001202239107734013], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229987387071]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000886251334194308], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006059175229169556], ["'market for polysulfone' (kilogram, GLO, None)", 3.46869511006853e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644039565360336], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005029740166495499], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4786413485537236e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.40379001907647e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387674845925], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310685328153e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1522214275405968e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4695481342725284e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439601174447e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000886251334194308], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006059175229169556], ["'market for polysulfone' (kilogram, GLO, None)", 3.46869511006853e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644039565360336], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4786413485537236e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.40379001907647e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387674845925], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310685328153e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.7384564501566184e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.652324116813115e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439601174447e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983691129048], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049760173186e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.7183216040831783e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295599899569697], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036205268750580546], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347555034265e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693043573557], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00025148700832477495], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576153776003e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.619027871576401e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005030819904591212], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655342664077e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.925951698866058e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.194750034977965e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.926021658489921e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295599899569697], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036205268750580546], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347555034265e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693043573557], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576153776003e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.619027871576401e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005030819904591212], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655342664077e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.7384564501566184e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.652324116813115e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.926021658489921e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983691129048], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049760173186e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.7183216040831783e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686904009373841e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403590706693707e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275217917358323e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.717770264350949e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197084449227634e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.833868407967766e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.0962644098937334e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5031209511614057e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4162059179019283e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195604903755169e-11], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.397579459225841e-12], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.1964206125786175e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.661586867726985e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.96545005356089e-11]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686904009373841e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403590706693707e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275217917358323e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.717770264350949e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197084449227634e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.31030003570726e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.44105791181799e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6687473007742704e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.441372786012854e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195604903755169e-11]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964239286642e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089472285566378e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957005911868063e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.025994206343719e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.879562667384145e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.316289450999414e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3752696033936458e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.536968600420404e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.158309956223116e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.050000427452457e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472002685591885e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6278413912352805e-11], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.403900897758884e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9138118534631014e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.26622663495676e-10]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964239286642e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089472285566378e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957005911868063e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.025994206343719e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.879562667384145e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3162894512098847e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5108177566378401e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9425412356420675e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.7722066374820774e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.7000002849683046e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472002685591885e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.86227242516652e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1469361692425083e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622012496181946e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.839416889845527e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.9507224510272032e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322803057486e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.0394370640526226e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158803908193e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747437230254e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0108148013165243e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.3003254974702678e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.2533904279945837e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.86227242516652e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1469361692425083e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622012496181946e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.839416889845527e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322803057486e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.0394370640526226e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158803908193e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747437230254e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.225468928950025e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2694044494104978e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.2533904279945837e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499761114852e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.618875219162e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.915798734988533e-13]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.100399938869296e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.853264788791659e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811006248090973e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.559611259897018e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.753612255136016e-10], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541280930831e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.4136767624910808e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.895379941925831e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873718615127e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.2528504738553825e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.8403849356878277e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3464638840541596e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.100399938869296e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.853264788791659e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811006248090973e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.559611259897018e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541280930831e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.4136767624910808e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.895379941925831e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873718615127e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.225468928950025e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2694044494104978e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3464638840541596e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499761114852e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.618875219162e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.915798734988533e-13]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.576467082483154e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957247457285e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361828014486e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361493984922e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.355794846830314e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.189997020110681e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3593538714159667e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.3924768465308073e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.8383313464185805e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545049126434875e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 3.5602899793347237e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 8.974190314097923e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6328196828585183e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9964851586248694e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.576467082483154e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957247457285e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361828014486e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361493984922e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.355794846830314e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9976567724165795e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.4218797885723455e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5949845643538714e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5588875642790536e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545049126434875e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.33023029100841e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.63086670983996e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616823657715e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.8665217195306924e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692270245471e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660971093876719e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.230695747357148e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.115511531557826e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.841895044108255e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0976683120156203e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647779901325e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.0737382259848213e-08], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.5532203428841975e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0956122631123802e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.525211296369346e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.33023029100841e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.63086670983996e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616823657715e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.8665217195306924e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692270245471e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660971094941787e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.683474197579564e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.304081754082536e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.561263362738836e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.317788746770802e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647779901325e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909631825275e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.256400920218999e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607143115594e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.711589693660628e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.5389550730862437e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348779504788e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899036053534e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734641502340067e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654227799136e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.661343001257484e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.944845272989363e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154713245385215e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909631825275e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.256400920218999e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607143115594e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.711589693660628e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348779504788e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899036053534e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734641502340067e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654227799136e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1270977268262748e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.440456523916987e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154713245385215e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.2306455647754217e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6167598243985684e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997084570753603e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137053690358057e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.1408467452988766e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.911303571557797e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.141059795773752e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.2694775365431218e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.704887738968477e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7347970184926544e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.673020100584013e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327113899568e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.1090664797140064e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.987980278032077e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.160345363078943e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137053690358057e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.1408467452988766e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.911303571557797e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.141059795773752e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.704887738968477e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7347970184926544e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.673020100584013e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327113899568e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1270977268262748e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.440456523916987e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.160345363078943e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.2306455647754217e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6167598243985684e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997084570753603e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187241705976], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295501306214], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126095661516], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786366124463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770346983707317], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040724509155450075], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00406374571303476], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00039898689086111897], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0022331256111865067], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662341734476], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011613850868197247], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004949791272768682], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.147008710281105e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.4721794923377233e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187241705976], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295501306214], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126095661516], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786366124463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770346983707317], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002314786328225149], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.7646724735207363e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026599126057407934], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.014887504074576712], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662341734476]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13631070172992404], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895339808246], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157755368377], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316522007607], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0034155520475560976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868763222613644e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11586409647043543], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012255740791042843], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011410043257911629], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00638618972392028], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081399264823], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00035025898734238997], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014082504747877094], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2506851412571976e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.878595175383381e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13631070172992404], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895339808246], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157755368377], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316522007607], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0034155520475560976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868763226110392e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006585730116922255], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.337900941714652e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.007606695505274419], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.042574598159468534], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081399264823]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099307905484231], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017927373496173108], ["'market for polysulfone' (kilogram, GLO, None)", 0.00043313107994121284], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0045540693967414635], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0035366364125579957], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720671082551], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668071941605782], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342510210018], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.648860725069862e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6111960336017905e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.204074704454862e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144244973933e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099307905484231], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017927373496173108], ["'market for polysulfone' (kilogram, GLO, None)", 0.00043313107994121284], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0045540693967414635], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720671082551], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668071941605782], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342510210018], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.648860725069862e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003547303330499508], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.002001643653016421], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144244973933e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.01065210870200976], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675740650503e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322725330143674e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0036445072729950193], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001071210768581684], ["'market for polysulfone' (kilogram, GLO, None)", 0.00021656553997060642], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003036046264494309], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0017683182062789978], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00013472296978819884], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00039843597117281365], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0034622819093452686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.24430362534931e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.184906052572085e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.9019866972557894e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.087439614131761e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0036445072729950193], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001071210768581684], ["'market for polysulfone' (kilogram, GLO, None)", 0.00021656553997060642], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003036046264494309], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00013472296978819884], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00039843597117281365], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0034622819093452686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.24430362534931e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003547303330499508], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.002001643653016421], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.087439614131761e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.01065210870200976], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675740650503e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322725330143674e-05]]</t>
   </si>
 </sst>
 </file>

--- a/results/sterilization_CONSQ/data_sterilization_CONSQ_recipe.xlsx
+++ b/results/sterilization_CONSQ/data_sterilization_CONSQ_recipe.xlsx
@@ -79,508 +79,508 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003294516641631974], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503622721], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.638920573352606e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137784833470254e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645461744339], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028003391453871777], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9563585715962325e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.1311257210417885e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.5712729443447356e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047831252626e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.6106462740522285e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.7955184408134695e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2223661108593054e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8473084454769792e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003294516641631974], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503622721], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.638920573352606e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137784833470254e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645461744339], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2315389636513194e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.481577407239537e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00034207504806945256], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00023808486295631568], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047831252626e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373131853657164], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142779125296], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013990395096544537], ["'market for corrugated board box' (kilogram, RER, None)", 6.0733001867769336e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008699468192616508], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121309851124e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007967162075608591], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.91600186070776e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00014673756902767229], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00010212961807540742], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.885484031098627e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.873377492410099e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00013643587676680574], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.702373849359174e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.255722619526053e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373131853657164], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142779125296], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013990395096544537], ["'market for corrugated board box' (kilogram, RER, None)", 6.0733001867769336e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008699468192616508], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121310194442e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.503815079684035e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.468249232906117e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0009782504601844818], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0006808641205027162], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.885484031098627e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317184699865], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.193928673711757e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118086539806e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599290923488678], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005279122874040575], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.495551287641183e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.8022894345471746e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351325464871], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013090510991e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0720604107597997e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.322492518678239e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761045539452963e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317184699865], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.193928673711757e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118086539806e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599290923488678], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.495551287641183e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.8022894345471746e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351325464871], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013090510991e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.56196927176711e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.201080936257232e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761045539452963e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414387931256], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2125415425343212e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.6280211468732981e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00040627824197492045], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.701045831684855e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.009559043269903e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732860615659119], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00026395614370202877], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617775129034e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.467030419175156e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003859643298761744], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.7525065452554955e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.667989705155111e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.6409331050802104e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978114137429744e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00040627824197492045], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.701045831684855e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.009559043269903e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732860615659119], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617775129034e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.467030419175156e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003859643298761744], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.7525065452554955e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.56196927176711e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.201080936257232e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978114137429744e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414387931256], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2125415425343212e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.6280211468732981e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723721561042], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.042819443129732584], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.019762772992611918], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907746240418], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05129836462938693], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12895965163326886], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013474044680045408], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004871826360984472], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.02145794330399214], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0037655713617222772], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011984324664288085], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.04262453535114582], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.003318209781142943], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02735364943807008]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723721561042], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.042819443129732584], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.019762772992611918], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907746240418], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05129836462938693], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.1823576629204672], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.022121398540952956], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.03247884240656314], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.14305295535994758], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0037655713617222772]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4316462241908916], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433115783073], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.05960201257986586], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055105539576], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0769475469440804], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698213890636079], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3668992905622579], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.04063600694204013], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013932224540985288], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.06136443751214212], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315706054962], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0036143200636323865], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.12126980480185148], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.010007299137233949], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07782305896465008]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4316462241908916], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433115783073], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.05960201257986586], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055105539576], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0769475469440804], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698213893465968], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5188203930976673], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06671532758155967], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.09288149693990191], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.40909625008094747], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315706054962]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469073372382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020807851064713775], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135206219764], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259672925877386], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.050951776758230066], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.001683382891918009], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714383428358], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809045619703762], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.000757469872800038], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9673496771469365e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.000500055793541323], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234070787751]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469073372382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020807851064713775], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135206219764], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259672925877386], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.001683382891918009], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714383428358], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809045619703762], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.000757469872800038], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0043314320023489315], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.01923364982518884], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234070787751], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.04710111537850102], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03303540740541499], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.0012035804292724844]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.09314546796642362], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012433273695292471], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067603109882], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839781950584925], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.025475888379115033], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684178436297], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.004113212109371831], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.08848819456810243], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.000378734936400019], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.331025546135352e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0002788498134933324], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253802431121]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.09314546796642362], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012433273695292471], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067603109882], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839781950584925], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684178436297], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.004113212109371831], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.08848819456810243], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.000378734936400019], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0043314320023489315], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.01923364982518884], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253802431121], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.04710111537850102], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03303540740541499], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.0012035804292724844]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002575880072003133], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865962164573], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573416913680966], ["'market for corrugated board box' (kilogram, RER, None)", 0.0001428264242357184], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422924764951797], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002189498061202663], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023566309544398477], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002383423809858348], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009652250330317116], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001290871998325396], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00029081031125992773], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.005306853414920531], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00017302760890477165], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0014268614460648664]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002575880072003133], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865962164573], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573416913680966], ["'market for corrugated board box' (kilogram, RER, None)", 0.0001428264242357184], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422924764951797], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009512409640432443], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0011535173926984776], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.01588949206572232], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006434833553544744], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001290871998325396]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.007328560204853983], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733696277808], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.001434753814364221], ["'market for corrugated board box' (kilogram, RER, None)", 0.000430746358728469], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0336343871474277], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633647944256064e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006229276174125886], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007107299559891439], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.006816005586982162], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0027603060733975495], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003672621742013873], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0008770469526998369], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.015098371687520385], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0005218292861260728], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0040595212972549715]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.007328560204853983], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733696277808], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.001434753814364221], ["'market for corrugated board box' (kilogram, RER, None)", 0.000430746358728469], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0336343871474277], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633647948354806e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.027063475315033145], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0034788619075071525], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.04544003724654774], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018402040489316998], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003672621742013873]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239951934526934], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014568799112249407], ["'market for polysulfone' (kilogram, GLO, None)", 5.252520428920892e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484584952990359], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.03185291829780749], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.6323515290624565e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013077203335897518], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537795433780053], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.77750498360785e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.624784865858006e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.249359889718903e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.042521294178691e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239951934526934], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014568799112249407], ["'market for polysulfone' (kilogram, GLO, None)", 5.252520428920892e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484584952990359], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.6323515290624565e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013077203335897518], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537795433780053], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.77750498360785e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002119048874125867], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651714670335804], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.042521294178691e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0015929806157949067], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269372833556], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.354023222090962e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225191411460532], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008705265440961696], ["'market for polysulfone' (kilogram, GLO, None)", 2.626260214460446e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02989723301993573], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.015926459148903744], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597587715772e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0007813995195300681], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002113931840887502], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.888752491803925e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.097301896537882e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2543272047415369e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.415519678929146e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225191411460532], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008705265440961696], ["'market for polysulfone' (kilogram, GLO, None)", 2.626260214460446e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02989723301993573], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597587715772e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0007813995195300681], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002113931840887502], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.888752491803925e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002119048874125867], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651714670335804], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.415519678929146e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0015929806157949067], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269372833556], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.354023222090962e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003495146859452594], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0034931978675669948], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924445048418], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011622824422], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02650207427776064], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002970874830534705], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031939361798785984], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002942574669905832], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012373021622286366], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294155874664384], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003745969939207444], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.006952511796409319], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002505215607788214], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0020657565122768405]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003495146859452594], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0034931978675669948], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924445048418], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011622824422], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02650207427776064], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013771710081845603], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0016701437385254758], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.01961716446603888], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.008248681081524245], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294155874664384]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943938952245407], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839393307793], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200320755095], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781083621013], ["'autoclave - CONSQ' (unit, GLO, None)", 0.039753111416640965], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.0290400479788135e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008452348109408597], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009632505744187756], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008415039451746665], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0035383797105844623], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358020942964767], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011297369429072901], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0197803856742913], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0007555411997420069], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005877222753238334]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943938952245407], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839393307793], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200320755095], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781083621013], ["'autoclave - CONSQ' (unit, GLO, None)", 0.039753111416640965], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.029040048623045e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0391814850215889], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00503694133161338], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.05610026301164443], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.023589198070563082], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358020942964767]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214791527757771], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0019012895252506052], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643202705226e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05300414855552128], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.03873191863409421], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661665096587e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001833877702703966], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954051951369872], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.029642138066566e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.1882757918429114e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.883408282976151e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102711359410367e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214791527757771], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0019012895252506052], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643202705226e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05300414855552128], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661665096587e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001833877702703966], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954051951369872], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.029642138066566e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026161774148198316], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090455491988892], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102711359410367e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00165721469774843], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0024941406270335732], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.126067703568572e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0031159839681117315], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011360737333189208], ["'market for polysulfone' (kilogram, GLO, None)", 3.364821601352613e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.035336099037014186], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.019365959317047106], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.677844571612364e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010957932816079705], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002960184769706139], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.514821069033283e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.823928446173126e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.6078963034083642e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.049012932176828e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0031159839681117315], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011360737333189208], ["'market for polysulfone' (kilogram, GLO, None)", 3.364821601352613e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.035336099037014186], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.677844571612364e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010957932816079705], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002960184769706139], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.514821069033283e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026161774148198316], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090455491988892], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.049012932176828e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00165721469774843], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0024941406270335732], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.126067703568572e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4246843605502464], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.26410466193904997], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978732329734], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805773568626638], ["'autoclave - CONSQ' (unit, GLO, None)", 2.0531716016751482], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36098170646770944], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.039303837577430334], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.1493643193997101], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.09709539387017876], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.02321834861747868], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.009089077147590063], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10534573804959647], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009633427165539886], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07941892477853067]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4246843605502464], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.26410466193904997], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978732329734], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805773568626638], ["'autoclave - CONSQ' (unit, GLO, None)", 2.0531716016751482], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5294594985235378], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0642228477702659], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.9957621293314006], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.6473026258011917], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.02321834861747868]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082569131147856], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963621364519], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.1537280279833861], ["'market for corrugated board box' (kilogram, RER, None)", 0.044652332976695956], ["'autoclave - CONSQ' (unit, GLO, None)", 3.0797574025127226], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919386366850966], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0270183761475677], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11853538076882007], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.4271451981444786], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.277668933385378], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605783691708446], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.027411501953321666], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.2997160434650491], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.029053192450390293], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.22595243387694638]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082569131147856], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963621364519], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.1537280279833861], ["'market for corrugated board box' (kilogram, RER, None)", 0.044652332976695956], ["'autoclave - CONSQ' (unit, GLO, None)", 3.0797574025127226], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919386368596943], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5063495591796427], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.19368794966926864], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.847634654296524], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.851126222569187], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605783691708446]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322459854628692], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.07036189391107765], ["'market for polysulfone' (kilogram, GLO, None)", 0.00838873581603696], ["'autoclave - CONSQ' (unit, GLO, None)", 4.1063432033502965], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.140537847479304], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.03203570814052481], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.4612995774448674], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12563368618972243], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00039573765185300057], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006031656791004998], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0022627105283630094], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271105796979418]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322459854628692], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.07036189391107765], ["'market for polysulfone' (kilogram, GLO, None)", 0.00838873581603696], ["'autoclave - CONSQ' (unit, GLO, None)", 4.1063432033502965], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.03203570814052481], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.4612995774448674], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12563368618972243], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00039573765185300057], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.13279648023544036], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703065241999995], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271105796979418], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.12478440969076014], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840004527514], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486262892516475]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902067961029689], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04204320196231639], ["'market for polysulfone' (kilogram, GLO, None)", 0.00419436790801848], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375621355668645], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.070268923739652], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.019142232712781707], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.2756394153368906], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07506964562978008], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00019786882592650028], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0019410160620125167], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012617720201881523], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0043446893317473315]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902067961029689], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04204320196231639], ["'market for polysulfone' (kilogram, GLO, None)", 0.00419436790801848], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375621355668645], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.019142232712781707], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.2756394153368906], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07506964562978008], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00019786882592650028], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.13279648023544036], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703065241999995], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0043446893317473315], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.12478440969076014], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840004527514], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486262892516475]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236408444618], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059956737813], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324881687057], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044011587774], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280171215945491], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.09993650947177926], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010051799374722123], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0012009633879673767], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006543976183423828], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808135441033], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003530771454133531], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014280959847102237], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2034796586745395e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00010113104833036612]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236408444618], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059956737813], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324881687057], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044011587774], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280171215945491], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006742069888691075], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.023197724496931e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.008006422586449178], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04362650788949219], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808135441033]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.334501655564199], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.032849353679732934], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367741518383], ["'market for corrugated board box' (kilogram, RER, None)", 0.0030394100981847995], ["'autoclave - CONSQ' (unit, GLO, None)", 0.019920256823918236], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055884663599694e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.28432640722956914], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030314949881094372], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.003434459758389828], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018714161553122766], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269285119630386], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0010648358138028956], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.040630336466403544], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6295417542238595e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00028772495440470354]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.334501655564199], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.032849353679732934], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367741518383], ["'market for corrugated board box' (kilogram, RER, None)", 0.0030394100981847995], ["'autoclave - CONSQ' (unit, GLO, None)", 0.019920256823918236], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055884664408114e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0019181663626980238], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00024196945028159066], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.022896398389265517], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.12476107702081844], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269285119630386]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03383241928299767], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0063028151969095675], ["'market for polysulfone' (kilogram, GLO, None)", 0.001127597392000968], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560342431890982], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.012412661813248063], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426937279467], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633560571336], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079831884778], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235133364914e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.849751938009271e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0001525007852317662], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00025612923737918083]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03383241928299767], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0063028151969095675], ["'market for polysulfone' (kilogram, GLO, None)", 0.001127597392000968], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560342431890982], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426937279467], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633560571336], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079831884778], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235133364914e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010677497239947036], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005865638872898559], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00025612923737918083], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.02773388719662574], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001198159352503292], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.411350502341956e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215817933873077], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0037661085784546546], ["'market for polysulfone' (kilogram, GLO, None)", 0.000563798696000484], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706894954593988], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.006206330906624031], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00031970299235115215], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013617444232600947], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.019205027037179422], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117566682457e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5606734160489017e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.50401416576141e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00015304439190696277]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215817933873077], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0037661085784546546], ["'market for polysulfone' (kilogram, GLO, None)", 0.000563798696000484], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706894954593988], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00031970299235115215], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013617444232600947], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.019205027037179422], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117566682457e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010677497239947036], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005865638872898559], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00015304439190696277], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.02773388719662574], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001198159352503292], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.411350502341956e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768372974519e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795813229813e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.664797257855803e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377396063218e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291689650479632e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3691531170283413e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.584524920304558e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.963454011784253e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.7580877078149736e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.590766737994252e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 4.040932371662921e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 7.744092428579895e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.129433329843792e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.5823793598930026e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768372974519e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795813229813e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.664797257855803e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377396063218e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291689650479632e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0549195732620014e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.419622219895861e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3089693411895021e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5053918052099824e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.590766737994252e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.58274945550497e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406696158341e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.406843588949709e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.102177309544794e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.743753447571945e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0422545851655978e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.895337037179225e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.778725853320727e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.614995310002959e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0747206059979524e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.5258433957891805e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2186938651791362e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.2032488317931533e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.546971925282067e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.3037191981667414e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.58274945550497e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406696158341e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.406843588949709e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.102177309544794e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.743753447571945e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.042254585332251e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.69146132111161e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0313146168547112e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.7433302066686394e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.16480403998635e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.5258433957891805e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.118351468056693e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2541890325773749e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126689308119443e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583379300959265e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.8681009679046957e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.673248662055292e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328455172715e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.8624338946538575e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.6405521147850284e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.928855279226402e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.75784554142094e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677827666318e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.118351468056693e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2541890325773749e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126689308119443e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583379300959265e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.673248662055292e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328455172715e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.8624338946538575e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.6405521147850284e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.745663106938843e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.368530802810545e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677827666318e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.89227514072469e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067572874170944e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.105538431247976e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358331820666e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.49413068133333e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563344654059722e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891953397284e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.4340504839523479e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129317109055e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7423515303264655e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9054404152296322e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8202760573925142e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5515436278308015e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.8837022335725264e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.9766920075699377e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358331820666e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.49413068133333e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563344654059722e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891953397284e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129317109055e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7423515303264655e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9054404152296322e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8202760573925142e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.745663106938843e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.368530802810545e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.9766920075699377e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.89227514072469e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067572874170944e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.105538431247976e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008611992428e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.610063697194517e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219433639783e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.018338726128868e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516734558805], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6061607320193564e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7599960230632385e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0976802480295357e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.310348325035798e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152230488815e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.4713781518412473e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 5.7821343982296354e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.156519277626299e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.2661887682727636e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008611992428e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.610063697194517e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219433639783e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.018338726128868e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516734558805], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.844125845515176e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.4376795184175325e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3984534986863573e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.2068988833571983e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152230488815e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047520595028e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.42581502582102e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788371182283e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879933058452e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751018382074], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010848745520078e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.569640392505775e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.307924406475974e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.998849315481661e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.466781604241206e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.212654578432107e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.453362529171069e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6450579555526566e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.55514070301925e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2137607481564764e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047520595028e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.42581502582102e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788371182283e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879933058452e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751018382074], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010848746161401e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.091738321043176e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0367604686795002e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.999232876987773e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.311187736160804e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.212654578432107e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348251793497e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.098868251488681e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756836493437e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103346911761], ["'cabinet washer - CONSQ' (unit, GLO, None)", 7.7229478032883e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.552517747119988e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070461456107e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507730839203821e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922027782031e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.47089007885839e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.714433928371851e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.435508984671251e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348251793497e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.098868251488681e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756836493437e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103346911761], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.552517747119988e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070461456107e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507730839203821e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922027782031e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.8650006555599685e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.967203313995776e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.435508984671251e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126813514e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.133723494467714e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638199391618e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.2062814776070067e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2541325550610235e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.2313784182467184e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001774022312745073], ["'cabinet washer - CONSQ' (unit, GLO, None)", 3.86147390164415e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568384683722e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9303194298465033e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.095967403726656e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610138910157e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.7259730240498333e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.301856892605646e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848216665704e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.2062814776070067e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2541325550610235e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.2313784182467184e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001774022312745073], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568384683722e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9303194298465033e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.095967403726656e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610138910157e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.8650006555599685e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.967203313995776e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848216665704e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126813514e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.133723494467714e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638199391618e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003517252533321081], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803558209704], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558289575359], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002753207088718585], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0027162203480345266], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029896646533229187], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00040977748003892636], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0007318416129164458], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00036641472303015286], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206673587425e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.928836004264802e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011961132562912182], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.686431810500999e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.322450669412958e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003517252533321081], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803558209704], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558289575359], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002753207088718585], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0027162203480345266], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00042149671129419714], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1242878736673326e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004878944086109638], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.002442764820201019], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206673587425e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.01000683115113885], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.005060186364448395], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175461024993], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322964479554], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00407433052205179], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727743293219774e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008505806478468023], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0012358368195271121], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002092886922498686], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00104785594110175], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790982368884127], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00020896489113364974], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0034030264474764235], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.318130181604712e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001798781739748475]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.01000683115113885], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.005060186364448395], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175461024993], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322964479554], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00407433052205179], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727743294935105e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0011991878264989834], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001545420121069808], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013952579483324571], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006985706274011667], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790982368884127]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.030492727141177543], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011826837187463885], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048416087868704e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432440696069053], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.006515241017442918], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.2365670965553578e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184994999740428], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.02896809078411865], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.736656777407557e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.9553359545493293e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.538926703938984e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.3985729115403617e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.030492727141177543], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011826837187463885], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048416087868704e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432440696069053], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.2365670965553578e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184994999740428], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.02896809078411865], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.736656777407557e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006506640319168501], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003284328033546611], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.3985729115403617e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0013170334228411323], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.65245186717456e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.64074058291483e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258357435945], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0007066866407495801], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208043934352e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621627130712702], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.003257620508721459], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114709815124e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002500651705136517], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.01730924543956414], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.3683283887037786e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.510412735979871e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.761624901821793e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332144836232045e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258357435945], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0007066866407495801], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208043934352e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621627130712702], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114709815124e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002500651705136517], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.01730924543956414], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.3683283887037786e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006506640319168501], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003284328033546611], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332144836232045e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0013170334228411323], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.65245186717456e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.64074058291483e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867514692116747], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522394359862], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0109371238170815], ["'market for corrugated board box' (kilogram, RER, None)", 0.005092068579112201], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1149517819587464], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04987387488299235], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.005448448506191243], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.023730069483642077], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.01455715454240964], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007571225280106306], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004658061071004595], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10425562110772746], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002087593602368071], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.017214150390284722]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867514692116747], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522394359862], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0109371238170815], ["'market for corrugated board box' (kilogram, RER, None)", 0.005092068579112201], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1149517819587464], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.11476100260189816], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013917290682453806], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.15820046322428052], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0970476969493976], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007571225280106306]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693492504332155], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.13819993290995664], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0329849759230113], ["'market for corrugated board box' (kilogram, RER, None)", 0.015357032219950384], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1724276729381196], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890562759820254e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1418946862868233], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016431828495331174], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06786215926473946], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04162987978936918], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540669108537164], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014048120405754191], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.29661458399663304], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.006295917085952664], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.04897547012447202]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693492504332155], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.13819993290995664], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0329849759230113], ["'market for corrugated board box' (kilogram, RER, None)", 0.015357032219950384], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1724276729381196], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890562760762136e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.32650313416314686], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.041972780573017766], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.45241439509826303], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.2775325319291279], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540669108537164]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032565415135242], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.029616473553467696], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311049947484927], ["'autoclave - CONSQ' (unit, GLO, None)", 0.2299035639174928], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.2674130157779693], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612075160306], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556580792646035], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380937144378383], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206166918599], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.582719308551813e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00033923984993725076], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710204774415257]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032565415135242], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.029616473553467696], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311049947484927], ["'autoclave - CONSQ' (unit, GLO, None)", 0.2299035639174928], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612075160306], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556580792646035], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380937144378383], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206166918599], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021097874752383585], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048184951992763], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710204774415257], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0377978931238197], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02078364832238322], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.00045464491480668503]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787322787645506], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017696672300971234], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155524973742463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.15326904261166188], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.13370650788898464], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0008409377319533787], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.024831220736277873], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07397956648263175], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00036846030834592993], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003083764998597901], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018917282852496588], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167511326783437]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787322787645506], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017696672300971234], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155524973742463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.15326904261166188], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0008409377319533787], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.024831220736277873], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07397956648263175], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00036846030834592993], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021097874752383585], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048184951992763], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167511326783437], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0377978931238197], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02078364832238322], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.00045464491480668503]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0022553503100429424], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772807182443], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542489291989], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395299951913e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865735926683], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019170477635365012], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002436746471682109], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.2192475591423055e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0014848343878240324], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031233036585], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00023422498729960408], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0017139958016913937], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.124521421629039e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9309278193617726e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0022553503100429424], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772807182443], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542489291989], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395299951913e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865735926683], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2872852129078483e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.0830142810860257e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.128317060948703e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.009898895918826882], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031233036585]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006416630459558793], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156437335966], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635512997315], ["'market for corrugated board box' (kilogram, RER, None)", -0.00028778652486729524], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798603890026], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5674007360692904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005454135890624975], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007348917781600548], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.4867479886098066e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00424626096344266], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687759684337], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.000706392804530458], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004876438759741712], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.423159652120347e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.493625626916592e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006416630459558793], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156437335966], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635512997315], ["'market for corrugated board box' (kilogram, RER, None)", -0.00028778652486729524], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798603890026], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5674007363199128e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.662417084611061e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.282106434746898e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00023244986590732045], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.028308406422951068], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687759684337]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258580863561], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018763966481735467], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662061235324], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0024651731471853366], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0011018532557141045], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.2603779145065605e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021757167232], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545651735542], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875849462087e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.9235874066663e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.460257246288151e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109917320541e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258580863561], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018763966481735467], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662061235324], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0024651731471853366], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.2603779145065605e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021757167232], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545651735542], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875849462087e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0840057721982584e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309190102339802], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109917320541e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400513873748], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.11070863262021e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364164722978804e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101206873669], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011211995421879014], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331030617662e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0016434487647902245], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005509266278570522], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.338279116933812e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -7.948330497619817e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00046968961464792915], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.6274379247310436e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5844340237186286e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.9295688605728896e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.437644284110955e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101206873669], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011211995421879014], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331030617662e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0016434487647902245], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.338279116933812e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -7.948330497619817e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00046968961464792915], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.6274379247310436e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0840057721982584e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309190102339802], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.437644284110955e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400513873748], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.11070863262021e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364164722978804e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017000890727487986], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0025039894370166376], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158651926600567], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828817260923], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17693989376171598], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001445075711836479], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015385237992778794], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.02401203480770746], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.007108536589237151], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00632426524084558], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.991069460810503e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.003020574251259003], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.558347338218485e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -6.165579080413169e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017000890727487986], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0025039894370166376], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158651926600567], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828817260923], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17693989376171598], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -4.110386053608779e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -5.0388982254789895e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.16008023205138308], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.047390243928247665], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00632426524084558]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00483687313655292], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00712402628559663], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605457692894665], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401547223882947], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409840642574], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761969540485172e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004111342166069982], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00046399923165268265], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06866851070597942], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0203286653876033], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992979982463943], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00021084177311843602], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.008593746461328431], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -2.2795015320163075e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.7541506679485352e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00483687313655292], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00712402628559663], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605457692894665], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401547223882947], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409840642574], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761969545403914e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -0.00011694337786323569], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.5196676880108717e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.45779007137319605], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.13552443591735533], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992979982463943]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002092127968693], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0031204030166952193], ["'market for polysulfone' (kilogram, GLO, None)", -2.4624844345690282e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.35387978752343197], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.17642834159019818], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877537786920166e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835962772162452], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251987521570258], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170203577320812e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.696583052487583e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00016565729784490511], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001980519907420585]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002092127968693], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0031204030166952193], ["'market for polysulfone' (kilogram, GLO, None)", -2.4624844345690282e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.35387978752343197], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877537786920166e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835962772162452], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251987521570258], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170203577320812e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021348563824143258], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0063716779185213415], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001980519907420585], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00711498994074541], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524933626820781e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.00040151941849112183]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964170151397284], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018645281834018942], ["'market for polysulfone' (kilogram, GLO, None)", -1.2312422172845141e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591985834895465], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.08821417079509909], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109521419994395e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013047599230797726], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000851596164382742], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.585101788660406e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003120406897087517], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.237670516868817e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001183416106619991]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964170151397284], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018645281834018942], ["'market for polysulfone' (kilogram, GLO, None)", -1.2312422172845141e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591985834895465], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109521419994395e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013047599230797726], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000851596164382742], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.585101788660406e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021348563824143258], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0063716779185213415], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001183416106619991], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00711498994074541], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524933626820781e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.00040151941849112183]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443045528310502], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180232451303e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.201760006105473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642654023547782e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262995997277601], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00013126588699063926], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0462616853465963e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.329176413079289e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.310357268823035e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.238970030191757e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0033987383250527e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2771469768163106e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.091545781770519e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8364845810940255e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443045528310502], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180232451303e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.201760006105473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642654023547782e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262995997277601], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.89098972072935e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.061030521180346e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004219450942052859], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00015402381792153566], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.238970030191757e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936552066460864], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198162699042], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228455328738e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.20968930811029e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894493995916401], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.807573772984471e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00037346069256491735], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1553923204588644e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001809988706754928], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.607053259714699e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060168255894817e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.041996072553986e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.6335730889703486e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.323709311704487e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.069998385647789e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936552066460864], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198162699042], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228455328738e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.20968930811029e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894493995916401], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.8075737732734963e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.379998923765193e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.2158062078029915e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0012066591378366188], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0004404702173143133], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060168255894817e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099033616416616], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.042270117009698e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.2951161491267728e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525991994555202], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0001289550711240138], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637699792871e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.0001845495380142206], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144081935595785], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908884309815804e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5558593944553834e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.384055317222913e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274845712561411e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099033616416616], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.042270117009698e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.2951161491267728e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525991994555202], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637699792871e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.0001845495380142206], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144081935595785], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908884309815804e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.627129382867394e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.070869609919919e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274845712561411e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.574330725862007e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778787704646828e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483231764731184e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412207417766129], ["'alubox production - CONSQ' (kilogram, GLO, None)", 4.2079536002371585e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475580745633864e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00043506613297034677], ["'cabinet washer - CONSQ' (unit, GLO, None)", 6.44775355620069e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446705901724e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011027351692081856], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0010841597046877822], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.454442154907902e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.224878020715241e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.002350618544183e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932092058393223e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412207417766129], ["'alubox production - CONSQ' (kilogram, GLO, None)", 4.2079536002371585e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475580745633864e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00043506613297034677], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446705901724e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011027351692081856], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0010841597046877822], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.454442154907902e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.627129382867394e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.070869609919919e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932092058393223e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.574330725862007e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778787704646828e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483231764731184e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.1390439675617744e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018384237477e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.07613877255418e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259552382116e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427887502184e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.681873724275082e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0239071033813495e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.305477307332848e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1509968118805855e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.475535717994248e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.930129311464784e-10], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.171715660500572e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.573861955008556e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.122196439015236e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.1390439675617744e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018384237477e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.07613877255418e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259552382116e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427887502184e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4147976260101571e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.7159079700057042e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.536984871555232e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.673312079203904e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.475535717994248e-10]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406603020771606e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740441712634e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243729294893e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.692110023068582e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141831253276e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.76707110763751e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7545612567655868e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.1038466960740175e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.593097770712967e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.291567646475261e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.695856641113885e-09], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.090038956357162e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.6094176949593174e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.762440659446306e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.037798319451797e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406603020771606e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740441712634e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243729294893e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.692110023068582e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141831253276e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.76707110887944e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.0251988796345316e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1749604396308715e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.395398513808645e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.1943784309835074e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.695856641113885e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.942649021519688e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.2741295924239425e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425826715508e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.676285577500437e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.2061027915438282e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652861863815e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.08960802678668e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.7955165704437033e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.2674656972674844e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.310019898439734e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.68228234166971e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378250007309e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.942649021519688e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.2741295924239425e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425826715508e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.676285577500437e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652861863815e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.08960802678668e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.7955165704437033e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.2674656972674844e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0497483797129465e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316864629566478e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378250007309e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.804073682571065e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.5624835045757062e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.3044085955748298e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.7583151936233902e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.74896812648893e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212913357754e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857051666958e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 6.030513957719141e-08], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.487825406451646e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2485993114866721e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.670399433942221e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6337328486337422e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.996009021514084e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.495740956052435e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730916020258694e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.7583151936233902e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.74896812648893e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212913357754e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857051666958e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.487825406451646e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2485993114866721e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.670399433942221e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6337328486337422e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0497483797129465e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316864629566478e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730916020258694e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.804073682571065e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.5624835045757062e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.3044085955748298e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0001416899717852539], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00011137929879268523], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4109122737909336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.6328052034385393e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060147509679698], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012043647601746583], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.30708560610044e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.8094231665869654e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.184292194092107e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.888003807087714e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8089262173266092e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.495230384782975e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.640787341453998e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.509124310216913e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0001416899717852539], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00011137929879268523], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4109122737909336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.6328052034385393e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060147509679698], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.3394162068112755e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.093858227635999e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00012062821110579769], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00014561947960614046], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.888003807087714e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179478960745], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0003168819486777805], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.27100512287213e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243331523394575e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022126451955], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163374610464662e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00034265025571166333], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.942004129019944e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.174504996408797e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.246538167881535e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.528699674898682e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.455491656026983e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.944176587692408e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.3043643896313e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8518917051603049e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179478960745], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0003168819486777805], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.27100512287213e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243331523394575e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022126451955], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163374611610063e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.23459447010687e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5362429264208668e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00034496699976058643], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.000416435877858769], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.528699674898682e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00030709599619902763], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.3695696848310014e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956197531975769e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120295019359396], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0001947464233608365], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962600164868e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009268829305e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002917411963890761], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.504404822713314e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.306845151779416e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.09027333593353e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.78338554864495e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00030709599619902763], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.3695696848310014e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956197531975769e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120295019359396], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962600164868e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009268829305e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002917411963890761], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.504404822713314e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.608717722846466e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.9578722239071674e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.78338554864495e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494263504418e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.607009181804253e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476801882972157e-07]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000183498457365738], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.013412245049656e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478098765987884e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019667957293], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.737321168041825e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.432890360160306e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1180949532205074e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00017432353449745106], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.752202411356657e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.351377787839782e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.8385267977859175e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631508104807237e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000183498457365738], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.013412245049656e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478098765987884e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019667957293], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.432890360160306e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1180949532205074e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00017432353449745106], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.752202411356657e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.608717722846466e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.9578722239071674e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631508104807237e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494263504418e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.607009181804253e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476801882972157e-07]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0002935749900858244], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753085591091], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3243948386187426e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053265090849e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498728627889], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002495387415729508], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.763816360119228e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.9911660510201204e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.765717614752013e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310786055244e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.811023051195577e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.165731501653126e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.376376929751966e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.4496440752200605e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0002935749900858244], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753085591091], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3243948386187426e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053265090849e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498728627889], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.96642938348004e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5842512865013108e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.000399411070068008], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003177145076501342], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310786055244e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000835241521089247], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552575971876], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825439578513], ["'market for corrugated board box' (kilogram, RER, None)", 3.3856351110836175e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248092941834], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135592332661647e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00070995529292586], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.335319012460818e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001713326060912262], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00013628779637820968], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447588802785e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.461815440583069e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011851799483576499], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.621446977713963e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2659550749217635e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000835241521089247], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552575971876], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825439578513], ["'market for corrugated board box' (kilogram, RER, None)", 3.3856351110836175e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248092941834], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135592336520852e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.439700499478423e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0809646518093087e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001142217373941508], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009085853091880646], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447588802785e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00040270113170556393], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.751564900149508e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999378747311e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997457255778], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0004684476288183656], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438244891958e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7673996665718755e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256607512028573], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315981557406e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.41936344254813e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1106025726124978e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.1535021305618785e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00040270113170556393], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.751564900149508e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999378747311e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997457255778], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438244891958e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7673996665718755e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256607512028573], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315981557406e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.326611919627431e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.2717115274892704e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.1535021305618785e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0008346983237922066], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609206590101e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816899936249184e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062520307010718], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2416650832488563e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9209996893736554e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331638170518], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0002342238144091828], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.8477022775144002e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0560707934286177e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002285939429166018], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.006157990778703e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.785627505920082e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.1931353308602e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4818338365449984e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062520307010718], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2416650832488563e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9209996893736554e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331638170518], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.8477022775144002e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0560707934286177e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002285939429166018], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.006157990778703e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.326611919627431e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.2717115274892704e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4818338365449984e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0008346983237922066], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609206590101e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816899936249184e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00031764234954325684], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001429835387627615], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.823945681266759e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092006938144e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553391190597], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002699959971117683], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.00799833535446e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.122725328786434e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.036450964247825e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.360587250207036e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.954988157790637e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.7084263229704586e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.43220622993389e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.497938359940383e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00031764234954325684], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001429835387627615], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.823945681266759e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092006938144e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553391190597], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9986255732935886e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6214708199559268e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004081816885857623], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003357633976165217], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.360587250207036e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000903714853630111], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679823704334957], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407315458], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535684001515e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000633053300867859], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4539017958120994e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007681576255855943], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.071740827617402e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00017509487769632454], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00014403010395737918], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.870966543158086e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.8959959119950656e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00013395804468169473], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.6382843853642564e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.279695139025292e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000903714853630111], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679823704334957], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407315458], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535684001515e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000633053300867859], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.453901796204471e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.531300926835281e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0921895902428376e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011672991846421634], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009602006930491945], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.870966543158086e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000412635952085515], ["'alubox production - CONSQ' (kilogram, GLO, None)", 4.031458943128072e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551041686984e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710678238119], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00047937384519367845], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.454520022497809e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131544965609e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00039200415448123916], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352750215785723e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.4724899465450707e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.17369425759008e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.260843010527146e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000412635952085515], ["'alubox production - CONSQ' (kilogram, GLO, None)", 4.031458943128072e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551041686984e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710678238119], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.454520022497809e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131544965609e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00039200415448123916], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352750215785723e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.443578335033044e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.514381123844954e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.260843010527146e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012872008180245553], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191698304467e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.700914400007724e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002465615364527971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.4089096118266232e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.940775520843492e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140452158746], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00023968692259683923], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.064172450677523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1240287756128998e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00023423345963015724], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176375107892862e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.956591141865707e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.544958163756246e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.545973018268802e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002465615364527971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.4089096118266232e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.940775520843492e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140452158746], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.064172450677523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1240287756128998e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00023423345963015724], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176375107892862e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.443578335033044e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.514381123844954e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.545973018268802e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012872008180245553], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191698304467e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.700914400007724e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636276619425], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080028765976], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00032401647559949126], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300949049834e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822019782680168], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009517140835126511], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011086595511150298], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.329631639543453e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.30599244224165e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956884650282], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.585903264047808e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00018210251522700587], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4180739541050914e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.3387765467784459e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636276619425], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080028765976], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00032401647559949126], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300949049834e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822019782680168], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.925176978522973e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.453826360700609e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00035530877596956354], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00042039949614944337], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956884650282]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00318552187024947], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363613817925], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925256634915], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805046056452], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733029674020253], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1726841720851636e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0027076935897120493], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003343576356265847], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00015241434981655256], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018033586616010195], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229987387071], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.9862247536836102e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0005180944799416223], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.276730886062832e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.8089135556231835e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00318552187024947], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363613817925], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925256634915], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805046056452], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733029674020253], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.172684172432569e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00025392757037487893], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.851153924041888e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010160956654436837], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.001202239107734013], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229987387071]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000886251334194308], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006059175229169556], ["'market for polysulfone' (kilogram, GLO, None)", 3.46869511006853e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644039565360336], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005029740166495499], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4786413485537236e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.40379001907647e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387674845925], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310685328153e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1522214275405968e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4695481342725284e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439601174447e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000886251334194308], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006059175229169556], ["'market for polysulfone' (kilogram, GLO, None)", 3.46869511006853e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644039565360336], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4786413485537236e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.40379001907647e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387674845925], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310685328153e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.7384564501566184e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.652324116813115e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439601174447e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983691129048], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049760173186e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.7183216040831783e-06]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295599899569697], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036205268750580546], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347555034265e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693043573557], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00025148700832477495], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576153776003e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.619027871576401e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005030819904591212], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655342664077e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.925951698866058e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.194750034977965e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.926021658489921e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295599899569697], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036205268750580546], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347555034265e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693043573557], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576153776003e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.619027871576401e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005030819904591212], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655342664077e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.7384564501566184e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.652324116813115e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.926021658489921e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983691129048], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049760173186e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.7183216040831783e-06]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686904009373841e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403590706693707e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275217917358323e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.717770264350949e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197084449227634e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.833868407967766e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.0962644098937334e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5031209511614057e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4162059179019283e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195604903755169e-11], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.397579459225841e-12], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.1964206125786175e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.661586867726985e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.96545005356089e-11]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686904009373841e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403590706693707e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275217917358323e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.717770264350949e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197084449227634e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.31030003570726e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.44105791181799e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6687473007742704e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.441372786012854e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195604903755169e-11]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964239286642e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089472285566378e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957005911868063e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.025994206343719e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.879562667384145e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.316289450999414e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3752696033936458e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.536968600420404e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.158309956223116e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.050000427452457e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472002685591885e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6278413912352805e-11], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.403900897758884e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9138118534631014e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.26622663495676e-10]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964239286642e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089472285566378e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957005911868063e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.025994206343719e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.879562667384145e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3162894512098847e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5108177566378401e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9425412356420675e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.7722066374820774e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.7000002849683046e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472002685591885e-10]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.86227242516652e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1469361692425083e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622012496181946e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.839416889845527e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.9507224510272032e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322803057486e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.0394370640526226e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158803908193e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747437230254e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0108148013165243e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.3003254974702678e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.2533904279945837e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.86227242516652e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1469361692425083e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622012496181946e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.839416889845527e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322803057486e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.0394370640526226e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158803908193e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747437230254e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.225468928950025e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2694044494104978e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.2533904279945837e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499761114852e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.618875219162e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.915798734988533e-13]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.100399938869296e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.853264788791659e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811006248090973e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.559611259897018e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.753612255136016e-10], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541280930831e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.4136767624910808e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.895379941925831e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873718615127e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.2528504738553825e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.8403849356878277e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3464638840541596e-11]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.100399938869296e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.853264788791659e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811006248090973e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.559611259897018e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541280930831e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.4136767624910808e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.895379941925831e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873718615127e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.225468928950025e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2694044494104978e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3464638840541596e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499761114852e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.618875219162e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.915798734988533e-13]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.576467082483154e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957247457285e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361828014486e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361493984922e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.355794846830314e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.189997020110681e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3593538714159667e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.3924768465308073e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.8383313464185805e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545049126434875e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 3.5602899793347237e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 8.974190314097923e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6328196828585183e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9964851586248694e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.576467082483154e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957247457285e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361828014486e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361493984922e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.355794846830314e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9976567724165795e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.4218797885723455e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5949845643538714e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5588875642790536e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545049126434875e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.33023029100841e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.63086670983996e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616823657715e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.8665217195306924e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692270245471e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660971093876719e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.230695747357148e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.115511531557826e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.841895044108255e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0976683120156203e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647779901325e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.0737382259848213e-08], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.5532203428841975e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0956122631123802e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.525211296369346e-08]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.33023029100841e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.63086670983996e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616823657715e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.8665217195306924e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692270245471e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660971094941787e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.683474197579564e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.304081754082536e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.561263362738836e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.317788746770802e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647779901325e-08]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909631825275e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.256400920218999e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607143115594e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.711589693660628e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.5389550730862437e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348779504788e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899036053534e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734641502340067e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654227799136e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.661343001257484e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.944845272989363e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154713245385215e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909631825275e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.256400920218999e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607143115594e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.711589693660628e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348779504788e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899036053534e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734641502340067e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654227799136e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1270977268262748e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.440456523916987e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154713245385215e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.2306455647754217e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6167598243985684e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997084570753603e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137053690358057e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.1408467452988766e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.911303571557797e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.141059795773752e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.2694775365431218e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.704887738968477e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7347970184926544e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.673020100584013e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327113899568e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.1090664797140064e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.987980278032077e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.160345363078943e-09]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137053690358057e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.1408467452988766e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.911303571557797e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.141059795773752e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.704887738968477e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7347970184926544e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.673020100584013e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327113899568e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1270977268262748e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.440456523916987e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.160345363078943e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.2306455647754217e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6167598243985684e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997084570753603e-09]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187241705976], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295501306214], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126095661516], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786366124463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770346983707317], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040724509155450075], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00406374571303476], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00039898689086111897], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0022331256111865067], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662341734476], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011613850868197247], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004949791272768682], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.147008710281105e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.4721794923377233e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187241705976], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295501306214], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126095661516], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786366124463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770346983707317], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002314786328225149], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.7646724735207363e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026599126057407934], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.014887504074576712], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662341734476]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13631070172992404], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895339808246], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157755368377], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316522007607], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0034155520475560976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868763222613644e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11586409647043543], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012255740791042843], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011410043257911629], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00638618972392028], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081399264823], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00035025898734238997], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014082504747877094], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2506851412571976e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.878595175383381e-05]]</t>
-  </si>
-  <si>
-    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13631070172992404], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895339808246], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157755368377], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316522007607], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0034155520475560976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868763226110392e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006585730116922255], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.337900941714652e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.007606695505274419], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.042574598159468534], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081399264823]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099307905484231], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017927373496173108], ["'market for polysulfone' (kilogram, GLO, None)", 0.00043313107994121284], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0045540693967414635], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0035366364125579957], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720671082551], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668071941605782], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342510210018], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.648860725069862e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6111960336017905e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.204074704454862e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144244973933e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099307905484231], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017927373496173108], ["'market for polysulfone' (kilogram, GLO, None)", 0.00043313107994121284], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0045540693967414635], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720671082551], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668071941605782], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342510210018], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.648860725069862e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003547303330499508], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.002001643653016421], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144244973933e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.01065210870200976], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675740650503e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322725330143674e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0036445072729950193], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001071210768581684], ["'market for polysulfone' (kilogram, GLO, None)", 0.00021656553997060642], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003036046264494309], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0017683182062789978], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00013472296978819884], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00039843597117281365], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0034622819093452686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.24430362534931e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.184906052572085e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.9019866972557894e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.087439614131761e-05]]</t>
-  </si>
-  <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0036445072729950193], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001071210768581684], ["'market for polysulfone' (kilogram, GLO, None)", 0.00021656553997060642], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003036046264494309], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00013472296978819884], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00039843597117281365], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0034622819093452686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.24430362534931e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003547303330499508], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.002001643653016421], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.087439614131761e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.01065210870200976], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675740650503e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322725330143674e-05]]</t>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003294516641631974], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503622721], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.638920573352606e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137784833470254e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645461744339], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00028003391453871777], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.9563585715962325e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.244483409448582e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.8690878129954705e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047831252626e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.6106462740522285e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.7955184408134695e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2223661108593054e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8473084454769792e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0003294516641631974], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001580106503622721], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.638920573352606e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.0137784833470254e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005799645461744339], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.1194022361283e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2315389636513194e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.481577407239537e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.496322272965721e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00019127252086636472], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.0142047831252626e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373131853657164], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142779125296], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013990395096544537], ["'market for corrugated board box' (kilogram, RER, None)", 6.0733001867769336e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008699468192616508], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121309851124e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007967162075608591], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.91600186070776e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.358701138318298e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.208301668761478e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.885484031098627e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.873377492410099e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00013643587676680574], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.702373849359174e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.255722619526053e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373131853657164], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142779125296], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013990395096544537], ["'market for corrugated board box' (kilogram, RER, None)", 6.0733001867769336e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008699468192616508], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121310194442e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.503815079684035e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.468249232906117e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00015724674255455332], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0005472201110617306], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.885484031098627e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317184699865], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.193928673711757e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118086539806e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599290923488678], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005279122874040575], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.495551287641183e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.8022894345471746e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351325464871], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013090510991e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.384042988827271e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.81648233697123e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761045539452963e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317184699865], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.193928673711757e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118086539806e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599290923488678], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.495551287641183e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.8022894345471746e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351325464871], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013090510991e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.31029036094855e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.201080936257232e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761045539452963e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414387931256], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2125415425343212e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.6280211468732981e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00040627824197492045], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.701045831684855e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.009559043269903e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732860615659119], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00026395614370202877], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617775129034e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.467030419175156e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003859643298761744], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.7525065452554955e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.920214944136336e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.408241168485615e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978114137429744e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00040627824197492045], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.701045831684855e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.009559043269903e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007732860615659119], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4911617775129034e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 3.467030419175156e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003859643298761744], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.7525065452554955e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.241088211507207e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.867906280987637e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8978114137429744e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414387931256], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.2125415425343212e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.6280211468732981e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723721561042], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.042819443129732584], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.019762772992611918], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907746240418], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05129836462938693], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.12895965163326886], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.013474044680045408], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0007827851779608269], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.017238873809105517], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0037655713617222772], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011984324664288085], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.04262453535114582], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.003318209781142943], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02735364943807008]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.15171723721561042], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.042819443129732584], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.019762772992611918], ["'market for corrugated board box' (kilogram, RER, None)", 0.003989907746240418], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05129836462938693], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.868355130675313e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.1823576629204672], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.022121398540952956], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.005218567853072179], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.1149258253940368], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0037655713617222772]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4316462241908916], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433115783073], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.05960201257986586], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055105539576], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0769475469440804], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698213890636079], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.3668992905622579], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.04063600694204013], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002239505131636119], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.049319465236971734], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315706054962], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0036143200636323865], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.12126980480185148], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.010007299137233949], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07782305896465008]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4316462241908916], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433115783073], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.05960201257986586], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055105539576], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0769475469440804], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698213893465968], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5188203930976673], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06671532758155967], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.014930034210907469], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.3287964347995637], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315706054962]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469073372382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020807851064713775], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135206219764], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259672925877386], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.050951776758230066], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.001683382891918009], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714383428358], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809045619703762], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.000757469872800038], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.3141009369646511e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0002893976644240263], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234070787751]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469073372382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020807851064713775], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135206219764], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259672925877386], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.001683382891918009], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714383428358], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809045619703762], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.000757469872800038], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0007890333203467921], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.01923364982518884], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234070787751], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.04710111537850102], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03303540740541499], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.0012035804292724844]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.09314546796642362], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012433273695292471], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067603109882], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839781950584925], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.025475888379115033], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684178436297], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.004113212109371831], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.08848819456810243], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.000378734936400019], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.570504684823238e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00014469883221201316], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253802431121]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.09314546796642362], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.012433273695292471], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011104067603109882], ["'autoclave - CONSQ' (unit, GLO, None)", 0.06839781950584925], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0010058684178436297], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.004113212109371831], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.08848819456810243], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.000378734936400019], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0007824628156619707], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.017231774590638866], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007046253802431121], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.04710111537850102], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03303540740541499], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.0012035804292724844]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002575880072003133], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865962164573], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573416913680966], ["'market for corrugated board box' (kilogram, RER, None)", 0.0001428264242357184], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422924764951797], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002189498061202663], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00023566309544398477], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.000382958811113914], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0007754420964812462], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001290871998325396], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00029081031125992773], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.005306853414920531], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00017302760890477165], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0014268614460648664]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.002575880072003133], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0026813865962164573], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00047573416913680966], ["'market for corrugated board box' (kilogram, RER, None)", 0.0001428264242357184], ["'autoclave - CONSQ' (unit, GLO, None)", 0.022422924764951797], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.499578000421227e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009512409640432443], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0011535173926984776], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0025530587407594264], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005169613976541641], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0001290871998325396]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.007328560204853983], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733696277808], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.001434753814364221], ["'market for corrugated board box' (kilogram, RER, None)", 0.000430746358728469], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0336343871474277], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633647944256064e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.006229276174125886], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007107299559891439], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010956239934550682], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0022184969821225056], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003672621742013873], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0008770469526998369], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.015098371687520385], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0005218292861260728], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0040595212972549715]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.007328560204853983], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733696277808], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.001434753814364221], ["'market for corrugated board box' (kilogram, RER, None)", 0.000430746358728469], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0336343871474277], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633647948354806e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.027063475315033145], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0034788619075071525], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.007304159956367127], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.014789979875707578], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0003672621742013873]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239951934526934], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014568799112249407], ["'market for polysulfone' (kilogram, GLO, None)", 5.252520428920892e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484584952990359], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.03185291829780749], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.6323515290624565e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013077203335897518], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537795433780053], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.77750498360785e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.4289226044702556e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.3017737359340135e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.042521294178691e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239951934526934], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014568799112249407], ["'market for polysulfone' (kilogram, GLO, None)", 5.252520428920892e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484584952990359], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.6323515290624565e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013077203335897518], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537795433780053], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.77750498360785e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00038601556441886665], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651714670335804], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.042521294178691e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0015929806157949067], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269372833556], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.354023222090962e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225191411460532], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008705265440961696], ["'market for polysulfone' (kilogram, GLO, None)", 2.626260214460446e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02989723301993573], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.015926459148903744], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597587715772e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0007813995195300681], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002113931840887502], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.888752491803925e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.2144613022351193e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.5088686796700675e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.415519678929146e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002225191411460532], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0008705265440961696], ["'market for polysulfone' (kilogram, GLO, None)", 2.626260214460446e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02989723301993573], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7679597587715772e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0007813995195300681], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002113931840887502], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.888752491803925e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003828011031166324], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0007751227581699319], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.415519678929146e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0015929806157949067], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269372833556], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.354023222090962e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003495146859452594], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0034931978675669948], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924445048418], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011622824422], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02650207427776064], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.002970874830534705], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00031939361798785984], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004728008894347785], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009940233104458148], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294155874664384], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003745969939207444], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.006952511796409319], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002505215607788214], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0020657565122768405]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003495146859452594], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0034931978675669948], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0006326924445048418], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002000011622824422], ["'autoclave - CONSQ' (unit, GLO, None)", 0.02650207427776064], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3359448576764271e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013771710081845603], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0016701437385254758], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00315200592956519], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006626822069638765], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016294155874664384]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943938952245407], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839393307793], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200320755095], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781083621013], ["'autoclave - CONSQ' (unit, GLO, None)", 0.039753111416640965], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.0290400479788135e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008452348109408597], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0009632505744187756], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0013526572141920338], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0028438457550734684], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358020942964767], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011297369429072901], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0197803856742913], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0007555411997420069], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005877222753238334]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943938952245407], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839393307793], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200320755095], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781083621013], ["'autoclave - CONSQ' (unit, GLO, None)", 0.039753111416640965], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.029040048623045e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0391814850215889], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00503694133161338], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.009017714761280233], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018958971693940504], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358020942964767]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214791527757771], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0019012895252506052], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643202705226e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05300414855552128], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.03873191863409421], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661665096587e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001833877702703966], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954051951369872], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.029642138066566e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.937146860936795e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.6687170380823387e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102711359410367e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214791527757771], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0019012895252506052], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643202705226e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.05300414855552128], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661665096587e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001833877702703966], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954051951369872], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.029642138066566e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004765747565960028], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090455491988892], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102711359410367e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00165721469774843], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0024941406270335732], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.126067703568572e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0031159839681117315], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011360737333189208], ["'market for polysulfone' (kilogram, GLO, None)", 3.364821601352613e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.035336099037014186], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.019365959317047106], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.677844571612364e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010957932816079705], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002960184769706139], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.514821069033283e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.968573430468387e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.343585190411693e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.049012932176828e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0031159839681117315], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011360737333189208], ["'market for polysulfone' (kilogram, GLO, None)", 3.364821601352613e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.035336099037014186], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.677844571612364e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0010957932816079705], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.002960184769706139], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.514821069033283e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004726061831655355], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009936139572177592], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.049012932176828e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00165721469774843], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0024941406270335732], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.126067703568572e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4246843605502464], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.26410466193904997], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978732329734], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805773568626638], ["'autoclave - CONSQ' (unit, GLO, None)", 2.0531716016751482], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.36098170646770944], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.039303837577430334], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.02399924929152715], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.07800445824004039], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.02321834861747868], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.009089077147590063], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10534573804959647], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.009633427165539886], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.07941892477853067]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.4246843605502464], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.26410466193904997], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.050972978732329734], ["'market for corrugated board box' (kilogram, RER, None)", 0.014805773568626638], ["'autoclave - CONSQ' (unit, GLO, None)", 2.0531716016751482], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00036206386365145757], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5294594985235378], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0642228477702659], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.15999499527684766], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.5200297216002693], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.02321834861747868]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082569131147856], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963621364519], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.1537280279833861], ["'market for corrugated board box' (kilogram, RER, None)", 0.044652332976695956], ["'autoclave - CONSQ' (unit, GLO, None)", 3.0797574025127226], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919386366850966], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.0270183761475677], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.11853538076882007], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.06866052584669555], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.22316644399742858], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605783691708446], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.027411501953321666], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.2997160434650491], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.029053192450390293], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.22595243387694638]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082569131147856], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963621364519], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.1537280279833861], ["'market for corrugated board box' (kilogram, RER, None)", 0.044652332976695956], ["'autoclave - CONSQ' (unit, GLO, None)", 3.0797574025127226], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919386368596943], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5063495591796427], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.19368794966926864], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.4577368389779707], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4877762928022453], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605783691708446]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322459854628692], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.07036189391107765], ["'market for polysulfone' (kilogram, GLO, None)", 0.00838873581603696], ["'autoclave - CONSQ' (unit, GLO, None)", 4.1063432033502965], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.140537847479304], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.03203570814052481], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.4612995774448674], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12563368618972243], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00039573765185300057], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00040288749542498743], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.001309500161049123], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271105796979418]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322459854628692], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.07036189391107765], ["'market for polysulfone' (kilogram, GLO, None)", 0.00838873581603696], ["'autoclave - CONSQ' (unit, GLO, None)", 4.1063432033502965], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.03203570814052481], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.4612995774448674], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12563368618972243], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00039573765185300057], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.024190809800018587], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703065241999995], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271105796979418], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.12478440969076014], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840004527514], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486262892516475]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902067961029689], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04204320196231639], ["'market for polysulfone' (kilogram, GLO, None)", 0.00419436790801848], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375621355668645], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.070268923739652], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.019142232712781707], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.2756394153368906], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07506964562978008], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00019786882592650028], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0002014437477124932], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0006547500805245615], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0043446893317473315]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07902067961029689], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.04204320196231639], ["'market for polysulfone' (kilogram, GLO, None)", 0.00419436790801848], ["'autoclave - CONSQ' (unit, GLO, None)", 2.7375621355668645], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.019142232712781707], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.2756394153368906], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07506964562978008], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00019786882592650028], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.02398936605230615], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.07797233487185805], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0043446893317473315], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.12478440969076014], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840004527514], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486262892516475]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236408444618], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059956737813], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324881687057], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044011587774], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280171215945491], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.09993650947177926], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.010051799374722123], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00019296589609661522], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005257296938371883], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808135441033], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0003530771454133531], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014280959847102237], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2034796586745395e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00010113104833036612]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.11757236408444618], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.011546059956737813], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.013085324881687057], ["'market for corrugated board box' (kilogram, RER, None)", 0.0010078044011587774], ["'autoclave - CONSQ' (unit, GLO, None)", 0.013280171215945491], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.6764249143488884e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006742069888691075], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.023197724496931e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001286439307310768], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.035048646255812554], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0008178808135441033]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.334501655564199], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.032849353679732934], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367741518383], ["'market for corrugated board box' (kilogram, RER, None)", 0.0030394100981847995], ["'autoclave - CONSQ' (unit, GLO, None)", 0.019920256823918236], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055884663599694e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.28432640722956914], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.030314949881094372], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0005520647640070134], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.015040835988689435], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269285119630386], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0010648358138028956], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.040630336466403544], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6295417542238595e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00028772495440470354]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.334501655564199], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.032849353679732934], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367741518383], ["'market for corrugated board box' (kilogram, RER, None)", 0.0030394100981847995], ["'autoclave - CONSQ' (unit, GLO, None)", 0.019920256823918236], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055884664408114e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0019181663626980238], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00024196945028159066], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0036804317600467587], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.10027223988995766], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269285119630386]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03383241928299767], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0063028151969095675], ["'market for polysulfone' (kilogram, GLO, None)", 0.001127597392000968], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560342431890982], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.012412661813248063], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426937279467], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633560571336], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079831884778], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235133364914e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.2394157682361654e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.825689380850287e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00025612923737918083]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03383241928299767], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0063028151969095675], ["'market for polysulfone' (kilogram, GLO, None)", 0.001127597392000968], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560342431890982], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426937279467], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633560571336], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079831884778], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235133364914e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00019450613782371059], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005865638872898559], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00025612923737918083], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.02773388719662574], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001198159352503292], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.411350502341956e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215817933873077], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0037661085784546546], ["'market for polysulfone' (kilogram, GLO, None)", 0.000563798696000484], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706894954593988], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.006206330906624031], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00031970299235115215], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013617444232600947], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.019205027037179422], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117566682457e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6197078841180784e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.4128446904251434e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00015304439190696277]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.020215817933873077], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0037661085784546546], ["'market for polysulfone' (kilogram, GLO, None)", 0.000563798696000484], ["'autoclave - CONSQ' (unit, GLO, None)", 0.017706894954593988], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00031970299235115215], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0013617444232600947], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.019205027037179422], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.438117566682457e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00019288642993959296], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005255131907180005], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00015304439190696277], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.02773388719662574], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001198159352503292], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.411350502341956e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768372974519e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795813229813e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.664797257855803e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377396063218e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291689650479632e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3691531170283413e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.584524920304558e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.1547977783876834e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.019170982081959e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.590766737994252e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 4.040932371662921e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 7.744092428579895e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.129433329843792e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.5823793598930026e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.610768372974519e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1979795813229813e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.664797257855803e-06], ["'market for corrugated board box' (kilogram, RER, None)", 6.970377396063218e-06], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8291689650479632e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.4558967815178687e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0549195732620014e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.419622219895861e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.103198518925122e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.0127806547213063e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.590766737994252e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.58274945550497e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406696158341e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.406843588949709e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.102177309544794e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.743753447571945e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0422545851655978e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -3.895337037179225e-05], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -4.778725853320727e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.025702086463124e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.637681320958124e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.5258433957891805e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2186938651791362e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.2032488317931533e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.546971925282067e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.3037191981667414e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.58274945550497e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406696158341e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.406843588949709e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.102177309544794e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.743753447571945e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.042254585332251e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.69146132111161e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0313146168547112e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.017134724308753e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.758454211982853e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.5258433957891805e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.118351468056693e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2541890325773749e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126689308119443e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583379300959265e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.8681009679046957e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.673248662055292e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328455172715e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.8624338946538575e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.6405521147850284e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.296118057974674e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.0684345183257014e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677827666318e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.118351468056693e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2541890325773749e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126689308119443e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583379300959265e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.673248662055292e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328455172715e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.8624338946538575e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.6405521147850284e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.1799791771587257e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.368530802810545e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677827666318e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.89227514072469e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067572874170944e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.105538431247976e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358331820666e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.49413068133333e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563344654059722e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891953397284e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.4340504839523479e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129317109055e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7423515303264655e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9054404152296322e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8202760573925142e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.64805902898733e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5342172591628507e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.9766920075699377e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.058358331820666e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.49413068133333e-06], ["'market for polysulfone' (kilogram, GLO, None)", 9.563344654059722e-08], ["'autoclave - CONSQ' (unit, GLO, None)", -2.438891953397284e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 9.998129317109055e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7423515303264655e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9054404152296322e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.8202760573925142e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.15349858686886e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.017927643646553e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.9766920075699377e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.89227514072469e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067572874170944e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.105538431247976e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008611992428e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.610063697194517e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219433639783e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.018338726128868e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516734558805], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.6061607320193564e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.7599960230632385e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.370467017069342e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.6594662979121106e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152230488815e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.4713781518412473e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 5.7821343982296354e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.156519277626299e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.2661887682727636e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.8896008611992428e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.610063697194517e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.497219433639783e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.018338726128868e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001330516734558805], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3299130047574233e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.844125845515176e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.4376795184175325e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.2469780113795613e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.7729775319414072e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.777152230488815e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047520595028e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.42581502582102e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788371182283e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879933058452e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751018382074], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010848745520078e-09], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.569640392505775e-06], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.307924406475974e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.642719858850991e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.608586099139151e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.212654578432107e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 7.453362529171069e-07], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6450579555526566e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.55514070301925e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2137607481564764e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047520595028e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.42581502582102e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788371182283e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879933058452e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751018382074], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010848746161401e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.091738321043176e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0367604686795002e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.428479905900666e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.072390731007201e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.212654578432107e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348251793497e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.098868251488681e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756836493437e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103346911761], ["'cabinet washer - CONSQ' (unit, GLO, None)", 7.7229478032883e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.552517747119988e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070461456107e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507730839203821e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922027782031e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.658172880428407e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.464580132976281e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.435508984671251e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348251793497e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.098868251488681e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756836493437e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103346911761], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.552517747119988e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070461456107e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507730839203821e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922027782031e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.397369874229602e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.967203313995776e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.435508984671251e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126813514e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.133723494467714e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638199391618e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.2062814776070067e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2541325550610235e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.2313784182467184e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001774022312745073], ["'cabinet washer - CONSQ' (unit, GLO, None)", 3.86147390164415e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568384683722e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9303194298465033e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.095967403726656e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610138910157e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.8290864402141956e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.2322900664881407e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848216665704e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.2062814776070067e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2541325550610235e-06], ["'market for polysulfone' (kilogram, GLO, None)", 4.2313784182467184e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0001774022312745073], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.7202568384683722e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9303194298465033e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.095967403726656e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.4249610138910157e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.369079009827468e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.658371091086964e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4552848216665704e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126813514e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.133723494467714e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638199391618e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003517252533321081], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803558209704], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558289575359], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002753207088718585], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0027162203480345266], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0029896646533229187], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00040977748003892636], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00011758932374801948], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0002943701119268028], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206673587425e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.928836004264802e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0011961132562912182], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.686431810500999e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.322450669412958e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003517252533321081], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0017785803558209704], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0005449558289575359], ["'market for corrugated board box' (kilogram, RER, None)", 0.0002753207088718585], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0027162203480345266], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.557093827905554e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00042149671129419714], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1242878736673326e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0007839288249867966], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0019624674128453524], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.659206673587425e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.01000683115113885], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.005060186364448395], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175461024993], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322964479554], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00407433052205179], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727743293219774e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.008505806478468023], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0012358368195271121], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003364165563856512], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008421766214396774], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790982368884127], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00020896489113364974], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0034030264474764235], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.318130181604712e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001798781739748475]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.01000683115113885], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.005060186364448395], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175461024993], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322964479554], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00407433052205179], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727743294935105e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0011991878264989834], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001545420121069808], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0022427770425710097], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0056145108076583435], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790982368884127]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.030492727141177543], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011826837187463885], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048416087868704e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432440696069053], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.006515241017442918], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.2365670965553578e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184994999740428], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.02896809078411865], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.736656777407557e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.974031252314348e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.941739455326765e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.3985729115403617e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.030492727141177543], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011826837187463885], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048416087868704e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432440696069053], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.2365670965553578e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184994999740428], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.02896809078411865], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.736656777407557e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00011852791438378105], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003284328033546611], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.3985729115403617e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0013170334228411323], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.65245186717456e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.64074058291483e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258357435945], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0007066866407495801], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208043934352e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621627130712702], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.003257620508721459], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114709815124e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002500651705136517], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.01730924543956414], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.3683283887037786e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.870156261571714e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.4708697276633826e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332144836232045e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.018220258357435945], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0007066866407495801], ["'market for polysulfone' (kilogram, GLO, None)", 2.4524208043934352e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003621627130712702], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.3364114709815124e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0002500651705136517], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.01730924543956414], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.3683283887037786e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00011754089875762417], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0002942488860417617], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4332144836232045e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0013170334228411323], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.65245186717456e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.64074058291483e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867514692116747], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522394359862], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0109371238170815], ["'market for corrugated board box' (kilogram, RER, None)", 0.005092068579112201], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1149517819587464], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.04987387488299235], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.005448448506191243], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00381285072319817], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0116949209260684], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007571225280106306], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004658061071004595], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.10425562110772746], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002087593602368071], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.017214150390284722]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.05867514692116747], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.04857522394359862], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0109371238170815], ["'market for corrugated board box' (kilogram, RER, None)", 0.005092068579112201], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1149517819587464], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.95318659881524e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.11476100260189816], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.013917290682453806], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.025419004821321135], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.07796613950712267], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007571225280106306]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693492504332155], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.13819993290995664], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0329849759230113], ["'market for corrugated board box' (kilogram, RER, None)", 0.015357032219950384], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1724276729381196], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890562759820254e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.1418946862868233], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.016431828495331174], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.010908355192683659], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.033458522433043536], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540669108537164], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014048120405754191], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.29661458399663304], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.006295917085952664], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.04897547012447202]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693492504332155], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.13819993290995664], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0329849759230113], ["'market for corrugated board box' (kilogram, RER, None)", 0.015357032219950384], ["'autoclave - CONSQ' (unit, GLO, None)", 0.1724276729381196], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890562760762136e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.32650313416314686], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.041972780573017766], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.07272236795122444], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.22305681614323636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540669108537164]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032565415135242], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.029616473553467696], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311049947484927], ["'autoclave - CONSQ' (unit, GLO, None)", 0.2299035639174928], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.2674130157779693], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612075160306], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556580792646035], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380937144378383], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206166918599], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.400824707633648e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00019632853277458257], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710204774415257]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032565415135242], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.029616473553467696], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311049947484927], ["'autoclave - CONSQ' (unit, GLO, None)", 0.2299035639174928], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612075160306], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556580792646035], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380937144378383], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206166918599], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0038432846594628205], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048184951992763], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710204774415257], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0377978931238197], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02078364832238322], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.00045464491480668503]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787322787645506], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017696672300971234], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155524973742463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.15326904261166188], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.13370650788898464], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0008409377319533787], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.024831220736277873], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07397956648263175], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00036846030834592993], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.200412353816815e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.816426638729129e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167511326783437]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07787322787645506], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.017696672300971234], ["'market for polysulfone' (kilogram, GLO, None)", 0.0007155524973742463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.15326904261166188], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0008409377319533787], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.024831220736277873], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.07397956648263175], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.00036846030834592993], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0038112805359246616], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.011690104787872614], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0014167511326783437], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0377978931238197], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02078364832238322], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.00045464491480668503]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0022553503100429424], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772807182443], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542489291989], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395299951913e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865735926683], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0019170477635365012], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0002436746471682109], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9590372210405543e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.001192885649686509], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031233036585], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00023422498729960408], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0017139958016913937], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.124521421629039e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9309278193617726e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0022553503100429424], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.004441772807182443], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009261542489291989], ["'market for corrugated board box' (kilogram, RER, None)", -9.542395299951913e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0012325865735926683], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.197170860390083e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2872852129078483e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.0830142810860257e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.306024814027036e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.007952570997910061], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00018371031233036585]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006416630459558793], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156437335966], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635512997315], ["'market for corrugated board box' (kilogram, RER, None)", -0.00028778652486729524], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798603890026], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5674007360692904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.005454135890624975], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0007348917781600548], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.604697218482637e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.003412779917231083], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687759684337], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.000706392804530458], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004876438759741712], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.423159652120347e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.493625626916592e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.006416630459558793], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156437335966], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635512997315], ["'market for corrugated board box' (kilogram, RER, None)", -0.00028778652486729524], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798603890026], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5674007363199128e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.662417084611061e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.282106434746898e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.736464812321761e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.022751866107014365], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687759684337]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258580863561], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018763966481735467], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662061235324], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0024651731471853366], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0011018532557141045], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.2603779145065605e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021757167232], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545651735542], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875849462087e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.2887345343256465e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.0025572712404782e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109917320541e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258580863561], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018763966481735467], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662061235324], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0024651731471853366], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.2603779145065605e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021757167232], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545651735542], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875849462087e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9746741337480144e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309190102339802], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109917320541e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400513873748], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.11070863262021e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364164722978804e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101206873669], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011211995421879014], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331030617662e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0016434487647902245], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005509266278570522], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.338279116933812e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -7.948330497619817e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00046968961464792915], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.6274379247310436e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.644367267162819e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0012786356202391e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.437644284110955e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004944101206873669], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011211995421879014], ["'market for polysulfone' (kilogram, GLO, None)", 5.654331030617662e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0016434487647902245], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.338279116933812e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -7.948330497619817e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00046968961464792915], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -3.6274379247310436e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9582304610763905e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011923944020605542], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.437644284110955e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400513873748], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.11070863262021e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364164722978804e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017000890727487986], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0025039894370166376], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158651926600567], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828817260923], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17693989376171598], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.001445075711836479], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00015385237992778794], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.003858155760780155], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005710853248758005], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00632426524084558], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.991069460810503e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.003020574251259003], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.558347338218485e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -6.165579080413169e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0017000890727487986], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0025039894370166376], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0008158651926600567], ["'market for corrugated board box' (kilogram, RER, None)", 0.005106828817260923], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17693989376171598], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0200021476635904e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -4.110386053608779e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -5.0388982254789895e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.025721038405201034], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.038072354991720035], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00632426524084558]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00483687313655292], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00712402628559663], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605457692894665], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401547223882947], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409840642574], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761969540485172e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.004111342166069982], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00046399923165268265], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.011037970401313605], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.01633843552626956], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992979982463943], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00021084177311843602], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", -0.008593746461328431], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -2.2795015320163075e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.7541506679485352e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00483687313655292], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00712402628559663], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605457692894665], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401547223882947], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409840642574], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761969545403914e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -0.00011694337786323569], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.5196676880108717e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.07358646934209076], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.10892290347083686], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992979982463943]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002092127968693], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0031204030166952193], ["'market for polysulfone' (kilogram, GLO, None)", -2.4624844345690282e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.35387978752343197], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.17642834159019818], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877537786920166e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835962772162452], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251987521570258], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170203577320812e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.47688055796387e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.587097222012117e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001980519907420585]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002092127968693], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0031204030166952193], ["'market for polysulfone' (kilogram, GLO, None)", -2.4624844345690282e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.35387978752343197], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877537786920166e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835962772162452], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251987521570258], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170203577320812e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0038889513190243515], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0063716779185213415], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001980519907420585], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00711498994074541], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524933626820781e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.00040151941849112183]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964170151397284], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018645281834018942], ["'market for polysulfone' (kilogram, GLO, None)", -1.2312422172845141e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591985834895465], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.08821417079509909], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109521419994395e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013047599230797726], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000851596164382742], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.585101788660406e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.2384402789819267e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.7935486110060585e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001183416106619991]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008964170151397284], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018645281834018942], ["'market for polysulfone' (kilogram, GLO, None)", -1.2312422172845141e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.23591985834895465], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.109521419994395e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013047599230797726], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000851596164382742], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.585101788660406e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0038565669162345414], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005708501436493882], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001183416106619991], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.00711498994074541], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524933626820781e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.00040151941849112183]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443045528310502], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180232451303e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.201760006105473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642654023547782e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262995997277601], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00013126588699063926], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.0462616853465963e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0169462369460526e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.856093887794931e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.238970030191757e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.0033987383250527e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.2771469768163106e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.091545781770519e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8364845810940255e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00015443045528310502], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.39180232451303e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.201760006105473e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.0642654023547782e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003262995997277601], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.993534087854963e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.89098972072935e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.061030521180346e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.77964157964035e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00012373959251966207], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.238970030191757e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936552066460864], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198162699042], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228455328738e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.20968930811029e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894493995916401], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.807573772984471e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00037346069256491735], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.1553923204588644e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.9094269799174663e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.3101820333127475e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060168255894817e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.041996072553986e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.6335730889703486e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.323709311704487e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.069998385647789e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936552066460864], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198162699042], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228455328738e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.20968930811029e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894493995916401], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.8075737732734963e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.379998923765193e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.2158062078029915e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00019396179866116456], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00035401213543189135], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060168255894817e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099033616416616], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.042270117009698e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.2951161491267728e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525991994555202], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0001289550711240138], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637699792871e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.0001845495380142206], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144081935595785], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908884309815804e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.7071989102997042e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.1159183716272884e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274845712561411e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099033616416616], ["'alubox production - CONSQ' (kilogram, GLO, None)", 7.042270117009698e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.2951161491267728e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525991994555202], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637699792871e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.0001845495380142206], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144081935595785], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908884309815804e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0250634382756216e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.070869609919919e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274845712561411e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.574330725862007e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778787704646828e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483231764731184e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412207417766129], ["'alubox production - CONSQ' (kilogram, GLO, None)", 4.2079536002371585e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475580745633864e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00043506613297034677], ["'cabinet washer - CONSQ' (unit, GLO, None)", 6.44775355620069e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446705901724e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011027351692081856], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0010841597046877822], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.454442154907902e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.535994551498498e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.5579591858136442e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932092058393223e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0011412207417766129], ["'alubox production - CONSQ' (kilogram, GLO, None)", 4.2079536002371585e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.1475580745633864e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00043506613297034677], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.335446705901724e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00011027351692081856], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0010841597046877822], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.454442154907902e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0165274437241255e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.8553295213896782e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.932092058393223e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.574330725862007e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778787704646828e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483231764731184e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.1390439675617744e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018384237477e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.07613877255418e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259552382116e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427887502184e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -9.681873724275082e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.0239071033813495e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.7043468518457404e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.246873530046422e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.475535717994248e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.930129311464784e-10], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.171715660500572e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.573861955008556e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.122196439015236e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.1390439675617744e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.5366018384237477e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.07613877255418e-09], ["'market for corrugated board box' (kilogram, RER, None)", 1.2242259552382116e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -1.8381427887502184e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.575397261355305e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4147976260101571e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.7159079700057042e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.4695645678971603e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.164582353364282e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -9.475535717994248e-10]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406603020771606e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740441712634e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243729294893e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.692110023068582e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141831253276e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.76707110763751e-11], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.7545612567655868e-08], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -6.1038466960740175e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0597931613472361e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.645479412784575e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.695856641113885e-09], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 2.090038956357162e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.6094176949593174e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.762440659446306e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.037798319451797e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406603020771606e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740441712634e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243729294893e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.692110023068582e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141831253276e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.76707110887944e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.0251988796345316e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1749604396308715e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.065287742314913e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.763652941247138e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.695856641113885e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.942649021519688e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.2741295924239425e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425826715508e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.676285577500437e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.2061027915438282e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652861863815e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.08960802678668e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.7955165704437033e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.2674656972674844e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.218673789319177e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.5523192712312325e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378250007309e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.942649021519688e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.2741295924239425e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425826715508e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.676285577500437e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652861863815e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.08960802678668e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.7955165704437033e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.2674656972674844e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.733914716988036e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316864629566478e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378250007309e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.804073682571065e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.5624835045757062e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.3044085955748298e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.7583151936233902e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.74896812648893e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212913357754e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857051666958e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 6.030513957719141e-08], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.487825406451646e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2485993114866721e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.670399433942221e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6337328486337422e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.109336894659581e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.761596356156162e-11], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730916020258694e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.7583151936233902e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.74896812648893e-09], ["'market for polysulfone' (kilogram, GLO, None)", 4.304212913357754e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -2.450857051666958e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.487825406451646e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.2485993114866721e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 1.670399433942221e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6337328486337422e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.7028213480414496e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.243065533303118e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.7730916020258694e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.804073682571065e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.5624835045757062e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.3044085955748298e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0001416899717852539], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00011137929879268523], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4109122737909336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.6328052034385393e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060147509679698], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00012043647601746583], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.30708560610044e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.9073073022598546e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.7548157790668866e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.888003807087714e-06], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.8089262173266092e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.495230384782975e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.640787341453998e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.509124310216913e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0001416899717852539], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00011137929879268523], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4109122737909336e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.6328052034385393e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00024060147509679698], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.3752242123433137e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.3394162068112755e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.093858227635999e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9382048681732363e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00011698771860445912], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.888003807087714e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179478960745], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0003168819486777805], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.27100512287213e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243331523394575e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022126451955], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163374610464662e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00034265025571166333], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.942004129019944e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.317645512419159e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.020430961520535e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.528699674898682e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.455491656026983e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 9.944176587692408e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.3043643896313e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.8518917051603049e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179478960745], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0003168819486777805], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.27100512287213e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243331523394575e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022126451955], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163374611610063e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.23459447010687e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5362429264208668e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.5450970082794434e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003346953973190834], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.528699674898682e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00030709599619902763], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.3695696848310014e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956197531975769e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120295019359396], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0001947464233608365], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962600164868e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009268829305e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002917411963890761], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.504404822713314e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.8806433201715996e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.9458977052674163e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.78338554864495e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00030709599619902763], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.3695696848310014e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956197531975769e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120295019359396], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962600164868e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009268829305e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002917411963890761], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.504404822713314e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.930513247512417e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.9578722239071674e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.78338554864495e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494263504418e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.607009181804253e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476801882972157e-07]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000183498457365738], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.013412245049656e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478098765987884e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019667957293], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.737321168041825e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.432890360160306e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1180949532205074e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00017432353449745106], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.752202411356657e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.4403216600857935e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4729488526337082e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631508104807237e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000183498457365738], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.013412245049656e-05], ["'market for polysulfone' (kilogram, GLO, None)", 9.478098765987884e-07], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003208019667957293], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 8.432890360160306e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1180949532205074e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00017432353449745106], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.752202411356657e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.9061100309115656e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.7540931204569175e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.6631508104807237e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494263504418e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.607009181804253e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476801882972157e-07]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0002935749900858244], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753085591091], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3243948386187426e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053265090849e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498728627889], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002495387415729508], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.763816360119228e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.626361113767121e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.8286802890031246e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310786055244e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.811023051195577e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.165731501653126e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.376376929751966e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.4496440752200605e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0002935749900858244], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001387753085591091], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.3243948386187426e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1226053265090849e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004133498728627889], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.002854297754919e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.96642938348004e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5842512865013108e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.417574075844748e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00025524535260020834], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.326310786055244e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000835241521089247], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552575971876], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825439578513], ["'market for corrugated board box' (kilogram, RER, None)", 3.3856351110836175e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248092941834], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135592332661647e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.00070995529292586], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -8.335319012460818e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.75404871224359e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00010953642709376404], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447588802785e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.461815440583069e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011851799483576499], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.621446977713963e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2659550749217635e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000835241521089247], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552575971876], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825439578513], ["'market for corrugated board box' (kilogram, RER, None)", 3.3856351110836175e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248092941834], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135592336520852e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.439700499478423e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0809646518093087e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00018360324748290614], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0007302428470395015], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447588802785e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00040270113170556393], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.751564900149508e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999378747311e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997457255778], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0004684476288183656], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438244891958e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7673996665718755e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256607512028573], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315981557406e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.616025764835637e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.427398597688919e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.1535021305618785e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00040270113170556393], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.751564900149508e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999378747311e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997457255778], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438244891958e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7673996665718755e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256607512028573], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315981557406e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.703198126770126e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.2717115274892704e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.1535021305618785e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0008346983237922066], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609206590101e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816899936249184e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062520307010718], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2416650832488563e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9209996893736554e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331638170518], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0002342238144091828], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.8477022775144002e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0560707934286177e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002285939429166018], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.006157990778703e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.080128824178163e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.2136992988444595e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4818338365449984e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00024062520307010718], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.2416650832488563e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9209996893736554e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005511331638170518], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.8477022775144002e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.0560707934286177e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002285939429166018], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.006157990778703e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.622396838528367e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.827103582884641e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4818338365449984e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0008346983237922066], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609206590101e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816899936249184e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00031764234954325684], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001429835387627615], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.823945681266759e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092006938144e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553391190597], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0002699959971117683], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -3.00799833535446e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.837745192402247e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.046181937775143e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.360587250207036e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.954988157790637e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 4.7084263229704586e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.43220622993389e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.497938359940383e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00031764234954325684], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0001429835387627615], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 4.823945681266759e-05], ["'market for corrugated board box' (kilogram, RER, None)", 1.1597092006938144e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00042203553391190597], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 8.136621741952372e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9986255732935886e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6214708199559268e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.55849679493483e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0002697454625183429], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.360587250207036e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000903714853630111], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679823704334957], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407315458], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535684001515e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000633053300867859], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4539017958120994e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0007681576255855943], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -9.071740827617402e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.8145245288760338e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00011575902905975185], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.870966543158086e-05], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.8959959119950656e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00013395804468169473], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.6382843853642564e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.279695139025292e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.000903714853630111], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679823704334957], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407315458], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535684001515e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000633053300867859], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.453901796204471e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.531300926835281e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0921895902428376e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00018763496859173573], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0007717268601317563], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.870966543158086e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000412635952085515], ["'alubox production - CONSQ' (kilogram, GLO, None)", 4.031458943128072e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551041686984e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710678238119], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00047937384519367845], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.454520022497809e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131544965609e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00039200415448123916], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352750215785723e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6515118756633167e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.792529579329668e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.260843010527146e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000412635952085515], ["'alubox production - CONSQ' (kilogram, GLO, None)", 4.031458943128072e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551041686984e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710678238119], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.454520022497809e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131544965609e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00039200415448123916], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352750215785723e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.916269459914694e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.514381123844954e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.260843010527146e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012872008180245553], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191698304467e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.700914400007724e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002465615364527971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.4089096118266232e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.940775520843492e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140452158746], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00023968692259683923], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.064172450677523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1240287756128998e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00023423345963015724], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176375107892862e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.257559378316562e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.396264789664834e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.545973018268802e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0002465615364527971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.4089096118266232e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.940775520843492e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005627140452158746], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.064172450677523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.1240287756128998e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00023423345963015724], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.0176375107892862e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.833693866131551e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.0445156613205345e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.545973018268802e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012872008180245553], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191698304467e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.700914400007724e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636276619425], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080028765976], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00032401647559949126], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300949049834e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822019782680168], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0009517140835126511], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00011086595511150298], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.56343461835251e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.0661056566755086e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956884650282], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 6.585903264047808e-06], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00018210251522700587], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4180739541050914e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.3387765467784459e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0011196636276619425], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00032141080028765976], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00032401647559949126], ["'market for corrugated board box' (kilogram, RER, None)", 3.8061300949049834e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0005822019782680168], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.204163305619748e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.925176978522973e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.453826360700609e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.708956412235007e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003377403771117006], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00020980956884650282]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00318552187024947], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363613817925], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925256634915], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805046056452], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733029674020253], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1726841720851636e-07], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.0027076935897120493], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.0003343576356265847], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.4499513164249714e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00014493848298214213], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229987387071], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.9862247536836102e-05], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.0005180944799416223], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.276730886062832e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.8089135556231835e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00318552187024947], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363613817925], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925256634915], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805046056452], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733029674020253], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.172684172432569e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00025392757037487893], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.851153924041888e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00016333008776166488], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009662565528804922], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229987387071]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000886251334194308], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006059175229169556], ["'market for polysulfone' (kilogram, GLO, None)", 3.46869511006853e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644039565360336], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005029740166495499], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4786413485537236e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.40379001907647e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387674845925], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310685328153e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.4375869360387545e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.504726938675313e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439601174447e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.000886251334194308], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006059175229169556], ["'market for polysulfone' (kilogram, GLO, None)", 3.46869511006853e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644039565360336], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4786413485537236e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.40379001907647e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387674845925], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310685328153e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.631787418475468e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.652324116813115e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439601174447e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983691129048], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049760173186e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.7183216040831783e-06]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295599899569697], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036205268750580546], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347555034265e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693043573557], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00025148700832477495], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576153776003e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.619027871576401e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005030819904591212], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655342664077e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.187934680193754e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.252363469337657e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.926021658489921e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005295599899569697], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.00036205268750580546], ["'market for polysulfone' (kilogram, GLO, None)", 1.734347555034265e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0007762693043573557], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4810576153776003e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.619027871576401e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0005030819904591212], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.540655342664077e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.55990807167355e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.0640193608286836e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.926021658489921e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983691129048], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049760173186e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.7183216040831783e-06]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686904009373841e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403590706693707e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275217917358323e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.717770264350949e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197084449227634e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -4.833868407967766e-10], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -5.0962644098937334e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.021912592993995e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1377509372893967e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195604903755169e-11], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 5.397579459225841e-12], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 1.1964206125786175e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.661586867726985e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.96545005356089e-11]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.686904009373841e-10], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 2.1403590706693707e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 8.275217917358323e-11], ["'market for corrugated board box' (kilogram, RER, None)", 6.717770264350949e-11], ["'autoclave - CONSQ' (unit, GLO, None)", 1.9197084449227634e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.3645387048424826e-13], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.31030003570726e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.44105791181799e-11], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.681275061995997e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.585006248595979e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.195604903755169e-11]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964239286642e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089472285566378e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957005911868063e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.025994206343719e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.879562667384145e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.316289450999414e-12], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -1.3752696033936458e-09], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -1.536968600420404e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.1506469647861324e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.2550425521612414e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472002685591885e-10], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.6278413912352805e-11], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 3.403900897758884e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9138118534631014e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.26622663495676e-10]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964239286642e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089472285566378e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957005911868063e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.025994206343719e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.879562667384145e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3162894512098847e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5108177566378401e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9425412356420675e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.670979765240888e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.1700283673578683e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472002685591885e-10]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.86227242516652e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1469361692425083e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622012496181946e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.839416889845527e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.9507224510272032e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322803057486e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.0394370640526226e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158803908193e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747437230254e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.751787406873749e-13], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.9099998503027663e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.2533904279945837e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.86227242516652e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1469361692425083e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622012496181946e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.839416889845527e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322803057486e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.0394370640526226e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158803908193e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747437230254e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.054015248042211e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2694044494104978e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.2533904279945837e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499761114852e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.618875219162e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.915798734988533e-13]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.100399938869296e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.853264788791659e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811006248090973e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.559611259897018e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 9.753612255136016e-10], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541280930831e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.4136767624910808e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.895379941925831e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873718615127e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.375893703436866e-13], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.549999251513832e-13], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3464638840541596e-11]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.100399938869296e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.853264788791659e-11], ["'market for polysulfone' (kilogram, GLO, None)", 3.811006248090973e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 2.559611259897018e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.073541280930831e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.4136767624910808e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.895379941925831e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1033873718615127e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.020256311007852e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1372823949383187e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3464638840541596e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499761114852e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.618875219162e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.915798734988533e-13]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.576467082483154e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957247457285e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361828014486e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361493984922e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.355794846830314e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -2.189997020110681e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -2.3593538714159667e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.84413416101376e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.08363708399461e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545049126434875e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 3.5602899793347237e-09], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 8.974190314097923e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6328196828585183e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.9964851586248694e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 2.576467082483154e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 1.2761957247457285e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 3.8561361828014486e-08], ["'market for corrugated board box' (kilogram, RER, None)", 1.6136361493984922e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 2.355794846830314e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.2086377832009876e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9976567724165795e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.4218797885723455e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5627561073425066e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.055758055996407e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.1545049126434875e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.33023029100841e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.63086670983996e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616823657715e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.8665217195306924e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692270245471e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660971093876719e-10], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -6.230695747357148e-07], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -7.115511531557826e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.099785537931946e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.822115275719411e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647779901325e-08], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 1.0737382259848213e-08], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 2.5532203428841975e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0956122631123802e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.525211296369346e-08]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.33023029100841e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.63086670983996e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616823657715e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.8665217195306924e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692270245471e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660971094941787e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.683474197579564e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.304081754082536e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.331903586212979e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.881410181781236e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647779901325e-08]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909631825275e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.256400920218999e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607143115594e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.711589693660628e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.5389550730862437e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348779504788e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899036053534e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734641502340067e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654227799136e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.453341791633671e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.176657013220862e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154713245385215e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909631825275e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.256400920218999e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607143115594e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.711589693660628e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348779504788e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899036053534e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734641502340067e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654227799136e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.874817799724621e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.440456523916987e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154713245385215e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.2306455647754217e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6167598243985684e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997084570753603e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137053690358057e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.1408467452988766e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.911303571557797e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.141059795773752e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.2694775365431218e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.704887738968477e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7347970184926544e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.673020100584013e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327113899568e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.226670895816827e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.588328506610431e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.160345363078943e-09]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.8137053690358057e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.1408467452988766e-08], ["'market for polysulfone' (kilogram, GLO, None)", 1.911303571557797e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 3.141059795773752e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.704887738968477e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.7347970184926544e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.673020100584013e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.591327113899568e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.842551090766462e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.082367197482674e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.160345363078943e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.2306455647754217e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.6167598243985684e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997084570753603e-09]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187241705976], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295501306214], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126095661516], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786366124463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770346983707317], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.040724509155450075], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.00406374571303476], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.410758537454237e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0017940475499328837], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662341734476], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00011613850868197247], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.004949791272768682], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.147008710281105e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.4721794923377233e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.047911187241705976], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0029858295501306214], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.005089126095661516], ["'market for corrugated board box' (kilogram, RER, None)", 0.00020399786366124463], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0022770346983707317], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.251221487771048e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002314786328225149], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.7646724735207363e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0004273839024969491], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.011960316999552559], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00027187662341734476]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13631070172992404], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895339808246], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157755368377], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316522007607], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0034155520475560976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868763222613644e-05], ["'market for polypropylene, granulate' (kilogram, GLO, None)", -0.11586409647043543], ["'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)", -0.012255740791042843], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0001834082586963251], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005132670889768538], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081399264823], ["'recycling of PE - CONSQ' (kilogram, Europe without Switzerland, None)", 0.00035025898734238997], ["'recycling of PET - CONSQ' (kilogram, Europe without Switzerland, None)", 0.014082504747877094], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.2506851412571976e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.878595175383381e-05]]</t>
+  </si>
+  <si>
+    <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.13631070172992404], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895339808246], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157755368377], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316522007607], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0034155520475560976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868763226110392e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006585730116922255], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.337900941714652e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0012227217246421683], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.034217805919969875], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081399264823]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099307905484231], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017927373496173108], ["'market for polysulfone' (kilogram, GLO, None)", 0.00043313107994121284], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0045540693967414635], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0035366364125579957], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720671082551], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668071941605782], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342510210018], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.648860725069862e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0762063511049684e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.0117580566196097e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144244973933e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099307905484231], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0017927373496173108], ["'market for polysulfone' (kilogram, GLO, None)", 0.00043313107994121284], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0045540693967414635], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720671082551], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668071941605782], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342510210018], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.648860725069862e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.461928811587942e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.002001643653016421], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144244973933e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.01065210870200976], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675740650503e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322725330143674e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0036445072729950193], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001071210768581684], ["'market for polysulfone' (kilogram, GLO, None)", 0.00021656553997060642], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003036046264494309], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0017683182062789978], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00013472296978819884], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00039843597117281365], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0034622819093452686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.24430362534931e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.381031755524828e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.5058790283098048e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.087439614131761e-05]]</t>
+  </si>
+  <si>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0036445072729950193], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001071210768581684], ["'market for polysulfone' (kilogram, GLO, None)", 0.00021656553997060642], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003036046264494309], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00013472296978819884], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.00039843597117281365], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0034622819093452686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.24430362534931e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.408118494032709e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0017933087351102003], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.087439614131761e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.01065210870200976], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675740650503e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322725330143674e-05]]</t>
   </si>
 </sst>
 </file>
